--- a/Share/rekap pembukuan 2023/Invoice 2023/04-Hitung FP Keluar April 2023.xlsx
+++ b/Share/rekap pembukuan 2023/Invoice 2023/04-Hitung FP Keluar April 2023.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-ULFUQQE\Share\rekap pembukuan 2023\Invoice 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\Share\rekap pembukuan 2023\Invoice 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hitung FP Keluar" sheetId="2" r:id="rId1"/>
@@ -347,10 +347,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="\ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="\ "/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -790,7 +790,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="368">
@@ -908,11 +908,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -920,11 +920,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -943,7 +943,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -951,8 +951,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -963,37 +963,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1011,31 +1011,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1044,10 +1044,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1166,11 +1166,11 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1178,11 +1178,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1201,7 +1201,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1209,8 +1209,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1329,11 +1329,11 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1341,11 +1341,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1364,7 +1364,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1372,8 +1372,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1426,20 +1426,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="18" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="18" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1449,130 +1449,109 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1593,62 +1572,83 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11867,7 +11867,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A239" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A261" sqref="A261"/>
     </sheetView>
   </sheetViews>
@@ -17570,8 +17570,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L1482"/>
   <sheetViews>
-    <sheetView topLeftCell="A1446" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1481" sqref="B1481"/>
+    <sheetView topLeftCell="A1248" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1291" sqref="J1291:K1291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17610,12 +17610,12 @@
       <c r="G2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="336" t="s">
+      <c r="H2" s="360" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="336"/>
-      <c r="J2" s="336"/>
-      <c r="K2" s="337"/>
+      <c r="I2" s="360"/>
+      <c r="J2" s="360"/>
+      <c r="K2" s="361"/>
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -17624,14 +17624,14 @@
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="340" t="s">
+      <c r="F3" s="364" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="17"/>
-      <c r="H3" s="338"/>
-      <c r="I3" s="338"/>
-      <c r="J3" s="338"/>
-      <c r="K3" s="339"/>
+      <c r="H3" s="362"/>
+      <c r="I3" s="362"/>
+      <c r="J3" s="362"/>
+      <c r="K3" s="363"/>
       <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -17640,18 +17640,18 @@
         <v>4</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="341">
+      <c r="D4" s="334">
         <v>45021</v>
       </c>
-      <c r="E4" s="342"/>
-      <c r="F4" s="340"/>
+      <c r="E4" s="335"/>
+      <c r="F4" s="364"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="343" t="s">
+      <c r="H4" s="336" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="343"/>
-      <c r="J4" s="343"/>
-      <c r="K4" s="344"/>
+      <c r="I4" s="336"/>
+      <c r="J4" s="336"/>
+      <c r="K4" s="337"/>
       <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -17660,14 +17660,14 @@
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="340"/>
+      <c r="F5" s="364"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="345" t="s">
+      <c r="H5" s="338" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="345"/>
-      <c r="J5" s="345"/>
-      <c r="K5" s="346"/>
+      <c r="I5" s="338"/>
+      <c r="J5" s="338"/>
+      <c r="K5" s="339"/>
       <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -17682,10 +17682,10 @@
       <c r="E6" s="9"/>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="347"/>
-      <c r="I6" s="347"/>
-      <c r="J6" s="347"/>
-      <c r="K6" s="348"/>
+      <c r="H6" s="340"/>
+      <c r="I6" s="340"/>
+      <c r="J6" s="340"/>
+      <c r="K6" s="341"/>
       <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -18082,8 +18082,8 @@
       <c r="G27" s="63"/>
       <c r="H27" s="63"/>
       <c r="I27" s="64"/>
-      <c r="J27" s="363"/>
-      <c r="K27" s="362"/>
+      <c r="J27" s="305"/>
+      <c r="K27" s="302"/>
     </row>
     <row r="28" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
@@ -18093,11 +18093,11 @@
       <c r="I28" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J28" s="333">
+      <c r="J28" s="342">
         <f>SUM(K10:K25)</f>
         <v>6726240</v>
       </c>
-      <c r="K28" s="334"/>
+      <c r="K28" s="343"/>
       <c r="L28" s="36"/>
     </row>
     <row r="29" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -18106,8 +18106,8 @@
       <c r="C29" s="65"/>
       <c r="D29" s="25"/>
       <c r="I29" s="67"/>
-      <c r="J29" s="367"/>
-      <c r="K29" s="367"/>
+      <c r="J29" s="344"/>
+      <c r="K29" s="344"/>
     </row>
     <row r="30" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
@@ -18130,8 +18130,8 @@
       <c r="C31" s="65"/>
       <c r="D31" s="25"/>
       <c r="I31" s="67"/>
-      <c r="J31" s="362"/>
-      <c r="K31" s="362"/>
+      <c r="J31" s="302"/>
+      <c r="K31" s="302"/>
     </row>
     <row r="32" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
@@ -18146,11 +18146,11 @@
       <c r="I32" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="J32" s="365">
+      <c r="J32" s="303">
         <f>((J28/1.11)+(K30/1.11))*11%</f>
         <v>666564.32432432426</v>
       </c>
-      <c r="K32" s="366"/>
+      <c r="K32" s="304"/>
       <c r="L32" s="72"/>
     </row>
     <row r="33" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -18159,8 +18159,8 @@
       <c r="C33" s="65"/>
       <c r="D33" s="25"/>
       <c r="I33" s="67"/>
-      <c r="J33" s="362"/>
-      <c r="K33" s="362"/>
+      <c r="J33" s="302"/>
+      <c r="K33" s="302"/>
     </row>
     <row r="34" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
@@ -18201,10 +18201,10 @@
       <c r="I36" s="270" t="s">
         <v>29</v>
       </c>
-      <c r="J36" s="330" t="s">
+      <c r="J36" s="354" t="s">
         <v>36</v>
       </c>
-      <c r="K36" s="331"/>
+      <c r="K36" s="355"/>
     </row>
     <row r="37" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78"/>
@@ -18214,8 +18214,8 @@
       <c r="I37" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="330"/>
-      <c r="K37" s="331"/>
+      <c r="J37" s="354"/>
+      <c r="K37" s="355"/>
       <c r="L37" s="63"/>
     </row>
     <row r="38" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18260,13 +18260,13 @@
       <c r="G40" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="358" t="str">
+      <c r="H40" s="356" t="str">
         <f>H2</f>
         <v>CV PELITA JAYA</v>
       </c>
-      <c r="I40" s="358"/>
-      <c r="J40" s="358"/>
-      <c r="K40" s="359"/>
+      <c r="I40" s="356"/>
+      <c r="J40" s="356"/>
+      <c r="K40" s="357"/>
       <c r="L40" s="125"/>
     </row>
     <row r="41" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -18275,14 +18275,14 @@
       <c r="C41" s="127"/>
       <c r="D41" s="128"/>
       <c r="E41" s="129"/>
-      <c r="F41" s="349" t="s">
+      <c r="F41" s="345" t="s">
         <v>3</v>
       </c>
       <c r="G41" s="130"/>
-      <c r="H41" s="360"/>
-      <c r="I41" s="360"/>
-      <c r="J41" s="360"/>
-      <c r="K41" s="361"/>
+      <c r="H41" s="358"/>
+      <c r="I41" s="358"/>
+      <c r="J41" s="358"/>
+      <c r="K41" s="359"/>
       <c r="L41" s="125"/>
     </row>
     <row r="42" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -18291,20 +18291,20 @@
         <v>4</v>
       </c>
       <c r="C42" s="120"/>
-      <c r="D42" s="350">
+      <c r="D42" s="310">
         <f>D4</f>
         <v>45021</v>
       </c>
-      <c r="E42" s="351"/>
-      <c r="F42" s="349"/>
+      <c r="E42" s="311"/>
+      <c r="F42" s="345"/>
       <c r="G42" s="131"/>
-      <c r="H42" s="352" t="str">
+      <c r="H42" s="312" t="str">
         <f>H4</f>
         <v>(ANUGERAH SEJAHTERA)</v>
       </c>
-      <c r="I42" s="352"/>
-      <c r="J42" s="352"/>
-      <c r="K42" s="353"/>
+      <c r="I42" s="312"/>
+      <c r="J42" s="312"/>
+      <c r="K42" s="313"/>
       <c r="L42" s="131"/>
     </row>
     <row r="43" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -18313,15 +18313,15 @@
       <c r="C43" s="127"/>
       <c r="D43" s="128"/>
       <c r="E43" s="129"/>
-      <c r="F43" s="349"/>
+      <c r="F43" s="345"/>
       <c r="G43" s="131"/>
-      <c r="H43" s="354" t="str">
+      <c r="H43" s="306" t="str">
         <f>H5</f>
         <v>PURWOKERTO</v>
       </c>
-      <c r="I43" s="354"/>
-      <c r="J43" s="354"/>
-      <c r="K43" s="355"/>
+      <c r="I43" s="306"/>
+      <c r="J43" s="306"/>
+      <c r="K43" s="307"/>
       <c r="L43" s="132"/>
     </row>
     <row r="44" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -18337,10 +18337,10 @@
       <c r="E44" s="122"/>
       <c r="F44" s="133"/>
       <c r="G44" s="134"/>
-      <c r="H44" s="356"/>
-      <c r="I44" s="356"/>
-      <c r="J44" s="356"/>
-      <c r="K44" s="357"/>
+      <c r="H44" s="308"/>
+      <c r="I44" s="308"/>
+      <c r="J44" s="308"/>
+      <c r="K44" s="309"/>
       <c r="L44" s="132"/>
     </row>
     <row r="45" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -19065,8 +19065,8 @@
       <c r="G65" s="173"/>
       <c r="H65" s="173"/>
       <c r="I65" s="174"/>
-      <c r="J65" s="332"/>
-      <c r="K65" s="311"/>
+      <c r="J65" s="365"/>
+      <c r="K65" s="317"/>
       <c r="L65" s="123"/>
     </row>
     <row r="66" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19081,11 +19081,11 @@
       <c r="I66" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="J66" s="307">
+      <c r="J66" s="366">
         <f>SUM(K48:K63)</f>
         <v>6726240</v>
       </c>
-      <c r="K66" s="308"/>
+      <c r="K66" s="367"/>
       <c r="L66" s="148"/>
     </row>
     <row r="67" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -19098,8 +19098,8 @@
       <c r="G67" s="123"/>
       <c r="H67" s="123"/>
       <c r="I67" s="177"/>
-      <c r="J67" s="364"/>
-      <c r="K67" s="364"/>
+      <c r="J67" s="316"/>
+      <c r="K67" s="316"/>
       <c r="L67" s="123"/>
     </row>
     <row r="68" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19134,8 +19134,8 @@
       <c r="G69" s="123"/>
       <c r="H69" s="123"/>
       <c r="I69" s="177"/>
-      <c r="J69" s="311"/>
-      <c r="K69" s="311"/>
+      <c r="J69" s="317"/>
+      <c r="K69" s="317"/>
       <c r="L69" s="123"/>
     </row>
     <row r="70" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19154,11 +19154,11 @@
       <c r="I70" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="J70" s="309">
+      <c r="J70" s="350">
         <f>((J66/1.11)+(K68/1.11))*11%</f>
         <v>666564.32432432426</v>
       </c>
-      <c r="K70" s="310"/>
+      <c r="K70" s="351"/>
       <c r="L70" s="182"/>
     </row>
     <row r="71" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -19171,8 +19171,8 @@
       <c r="G71" s="123"/>
       <c r="H71" s="123"/>
       <c r="I71" s="177"/>
-      <c r="J71" s="311"/>
-      <c r="K71" s="311"/>
+      <c r="J71" s="317"/>
+      <c r="K71" s="317"/>
       <c r="L71" s="123"/>
     </row>
     <row r="72" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19222,11 +19222,11 @@
       <c r="I74" s="278" t="s">
         <v>29</v>
       </c>
-      <c r="J74" s="312" t="str">
+      <c r="J74" s="352" t="str">
         <f>J36</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K74" s="313"/>
+      <c r="K74" s="353"/>
       <c r="L74" s="123"/>
     </row>
     <row r="75" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19241,11 +19241,11 @@
       <c r="I75" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="J75" s="312">
+      <c r="J75" s="352">
         <f>J37</f>
         <v>0</v>
       </c>
-      <c r="K75" s="313"/>
+      <c r="K75" s="353"/>
       <c r="L75" s="173"/>
     </row>
     <row r="76" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19294,13 +19294,13 @@
       <c r="G78" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="H78" s="303" t="str">
+      <c r="H78" s="346" t="str">
         <f>H40</f>
         <v>CV PELITA JAYA</v>
       </c>
-      <c r="I78" s="303"/>
-      <c r="J78" s="303"/>
-      <c r="K78" s="304"/>
+      <c r="I78" s="346"/>
+      <c r="J78" s="346"/>
+      <c r="K78" s="347"/>
       <c r="L78" s="202"/>
     </row>
     <row r="79" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19309,14 +19309,14 @@
       <c r="C79" s="204"/>
       <c r="D79" s="205"/>
       <c r="E79" s="206"/>
-      <c r="F79" s="314" t="s">
+      <c r="F79" s="325" t="s">
         <v>3</v>
       </c>
       <c r="G79" s="207"/>
-      <c r="H79" s="305"/>
-      <c r="I79" s="305"/>
-      <c r="J79" s="305"/>
-      <c r="K79" s="306"/>
+      <c r="H79" s="348"/>
+      <c r="I79" s="348"/>
+      <c r="J79" s="348"/>
+      <c r="K79" s="349"/>
       <c r="L79" s="202"/>
     </row>
     <row r="80" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19325,20 +19325,20 @@
         <v>4</v>
       </c>
       <c r="C80" s="197"/>
-      <c r="D80" s="315">
+      <c r="D80" s="326">
         <f>D42</f>
         <v>45021</v>
       </c>
-      <c r="E80" s="316"/>
-      <c r="F80" s="314"/>
+      <c r="E80" s="327"/>
+      <c r="F80" s="325"/>
       <c r="G80" s="208"/>
-      <c r="H80" s="317" t="str">
+      <c r="H80" s="328" t="str">
         <f>H42</f>
         <v>(ANUGERAH SEJAHTERA)</v>
       </c>
-      <c r="I80" s="317"/>
-      <c r="J80" s="317"/>
-      <c r="K80" s="318"/>
+      <c r="I80" s="328"/>
+      <c r="J80" s="328"/>
+      <c r="K80" s="329"/>
       <c r="L80" s="208"/>
     </row>
     <row r="81" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19347,15 +19347,15 @@
       <c r="C81" s="204"/>
       <c r="D81" s="205"/>
       <c r="E81" s="206"/>
-      <c r="F81" s="314"/>
+      <c r="F81" s="325"/>
       <c r="G81" s="208"/>
-      <c r="H81" s="319" t="str">
+      <c r="H81" s="330" t="str">
         <f>H43</f>
         <v>PURWOKERTO</v>
       </c>
-      <c r="I81" s="319"/>
-      <c r="J81" s="319"/>
-      <c r="K81" s="320"/>
+      <c r="I81" s="330"/>
+      <c r="J81" s="330"/>
+      <c r="K81" s="331"/>
       <c r="L81" s="209"/>
     </row>
     <row r="82" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -19371,10 +19371,10 @@
       <c r="E82" s="199"/>
       <c r="F82" s="210"/>
       <c r="G82" s="211"/>
-      <c r="H82" s="321"/>
-      <c r="I82" s="321"/>
-      <c r="J82" s="321"/>
-      <c r="K82" s="322"/>
+      <c r="H82" s="332"/>
+      <c r="I82" s="332"/>
+      <c r="J82" s="332"/>
+      <c r="K82" s="333"/>
       <c r="L82" s="209"/>
     </row>
     <row r="83" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -20099,8 +20099,8 @@
       <c r="G103" s="250"/>
       <c r="H103" s="250"/>
       <c r="I103" s="251"/>
-      <c r="J103" s="323"/>
-      <c r="K103" s="302"/>
+      <c r="J103" s="318"/>
+      <c r="K103" s="319"/>
       <c r="L103" s="200"/>
     </row>
     <row r="104" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -20115,11 +20115,11 @@
       <c r="I104" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="J104" s="324">
+      <c r="J104" s="320">
         <f>SUM(K86:K101)</f>
         <v>6726240</v>
       </c>
-      <c r="K104" s="325"/>
+      <c r="K104" s="321"/>
       <c r="L104" s="225"/>
     </row>
     <row r="105" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -20132,8 +20132,8 @@
       <c r="G105" s="200"/>
       <c r="H105" s="200"/>
       <c r="I105" s="254"/>
-      <c r="J105" s="335"/>
-      <c r="K105" s="335"/>
+      <c r="J105" s="322"/>
+      <c r="K105" s="322"/>
       <c r="L105" s="200"/>
     </row>
     <row r="106" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -20168,8 +20168,8 @@
       <c r="G107" s="200"/>
       <c r="H107" s="200"/>
       <c r="I107" s="254"/>
-      <c r="J107" s="302"/>
-      <c r="K107" s="302"/>
+      <c r="J107" s="319"/>
+      <c r="K107" s="319"/>
       <c r="L107" s="200"/>
     </row>
     <row r="108" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -20188,11 +20188,11 @@
       <c r="I108" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="J108" s="326">
+      <c r="J108" s="323">
         <f>((J104/1.11)+(K106/1.11))*11%</f>
         <v>666564.32432432426</v>
       </c>
-      <c r="K108" s="327"/>
+      <c r="K108" s="324"/>
       <c r="L108" s="259"/>
     </row>
     <row r="109" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -20205,8 +20205,8 @@
       <c r="G109" s="200"/>
       <c r="H109" s="200"/>
       <c r="I109" s="254"/>
-      <c r="J109" s="302"/>
-      <c r="K109" s="302"/>
+      <c r="J109" s="319"/>
+      <c r="K109" s="319"/>
       <c r="L109" s="200"/>
     </row>
     <row r="110" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -20256,11 +20256,11 @@
       <c r="I112" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="J112" s="328" t="str">
+      <c r="J112" s="314" t="str">
         <f>J74</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K112" s="329"/>
+      <c r="K112" s="315"/>
       <c r="L112" s="200"/>
     </row>
     <row r="113" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20275,11 +20275,11 @@
       <c r="I113" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="J113" s="328">
+      <c r="J113" s="314">
         <f>J75</f>
         <v>0</v>
       </c>
-      <c r="K113" s="329"/>
+      <c r="K113" s="315"/>
       <c r="L113" s="250"/>
     </row>
     <row r="114" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20318,12 +20318,12 @@
       <c r="G116" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H116" s="336" t="s">
+      <c r="H116" s="360" t="s">
         <v>30</v>
       </c>
-      <c r="I116" s="336"/>
-      <c r="J116" s="336"/>
-      <c r="K116" s="337"/>
+      <c r="I116" s="360"/>
+      <c r="J116" s="360"/>
+      <c r="K116" s="361"/>
       <c r="L116" s="12"/>
     </row>
     <row r="117" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -20332,14 +20332,14 @@
       <c r="C117" s="14"/>
       <c r="D117" s="15"/>
       <c r="E117" s="16"/>
-      <c r="F117" s="340" t="s">
+      <c r="F117" s="364" t="s">
         <v>3</v>
       </c>
       <c r="G117" s="17"/>
-      <c r="H117" s="338"/>
-      <c r="I117" s="338"/>
-      <c r="J117" s="338"/>
-      <c r="K117" s="339"/>
+      <c r="H117" s="362"/>
+      <c r="I117" s="362"/>
+      <c r="J117" s="362"/>
+      <c r="K117" s="363"/>
       <c r="L117" s="12"/>
     </row>
     <row r="118" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -20348,18 +20348,18 @@
         <v>4</v>
       </c>
       <c r="C118" s="7"/>
-      <c r="D118" s="341">
+      <c r="D118" s="334">
         <v>45024</v>
       </c>
-      <c r="E118" s="342"/>
-      <c r="F118" s="340"/>
+      <c r="E118" s="335"/>
+      <c r="F118" s="364"/>
       <c r="G118" s="18"/>
-      <c r="H118" s="343" t="s">
+      <c r="H118" s="336" t="s">
         <v>31</v>
       </c>
-      <c r="I118" s="343"/>
-      <c r="J118" s="343"/>
-      <c r="K118" s="344"/>
+      <c r="I118" s="336"/>
+      <c r="J118" s="336"/>
+      <c r="K118" s="337"/>
       <c r="L118" s="18"/>
     </row>
     <row r="119" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -20368,14 +20368,14 @@
       <c r="C119" s="14"/>
       <c r="D119" s="15"/>
       <c r="E119" s="16"/>
-      <c r="F119" s="340"/>
+      <c r="F119" s="364"/>
       <c r="G119" s="18"/>
-      <c r="H119" s="345" t="s">
+      <c r="H119" s="338" t="s">
         <v>32</v>
       </c>
-      <c r="I119" s="345"/>
-      <c r="J119" s="345"/>
-      <c r="K119" s="346"/>
+      <c r="I119" s="338"/>
+      <c r="J119" s="338"/>
+      <c r="K119" s="339"/>
       <c r="L119" s="19"/>
     </row>
     <row r="120" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -20390,10 +20390,10 @@
       <c r="E120" s="9"/>
       <c r="F120" s="21"/>
       <c r="G120" s="22"/>
-      <c r="H120" s="347"/>
-      <c r="I120" s="347"/>
-      <c r="J120" s="347"/>
-      <c r="K120" s="348"/>
+      <c r="H120" s="340"/>
+      <c r="I120" s="340"/>
+      <c r="J120" s="340"/>
+      <c r="K120" s="341"/>
       <c r="L120" s="19"/>
     </row>
     <row r="121" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -20850,8 +20850,8 @@
       <c r="G141" s="63"/>
       <c r="H141" s="63"/>
       <c r="I141" s="64"/>
-      <c r="J141" s="363"/>
-      <c r="K141" s="362"/>
+      <c r="J141" s="305"/>
+      <c r="K141" s="302"/>
     </row>
     <row r="142" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
@@ -20861,11 +20861,11 @@
       <c r="I142" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J142" s="333">
+      <c r="J142" s="342">
         <f>SUM(K124:K139)</f>
         <v>19209228</v>
       </c>
-      <c r="K142" s="334"/>
+      <c r="K142" s="343"/>
       <c r="L142" s="36"/>
     </row>
     <row r="143" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -20874,8 +20874,8 @@
       <c r="C143" s="65"/>
       <c r="D143" s="25"/>
       <c r="I143" s="67"/>
-      <c r="J143" s="367"/>
-      <c r="K143" s="367"/>
+      <c r="J143" s="344"/>
+      <c r="K143" s="344"/>
     </row>
     <row r="144" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
@@ -20898,8 +20898,8 @@
       <c r="C145" s="65"/>
       <c r="D145" s="25"/>
       <c r="I145" s="67"/>
-      <c r="J145" s="362"/>
-      <c r="K145" s="362"/>
+      <c r="J145" s="302"/>
+      <c r="K145" s="302"/>
     </row>
     <row r="146" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
@@ -20914,11 +20914,11 @@
       <c r="I146" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="J146" s="365">
+      <c r="J146" s="303">
         <f>((J142/1.11)+(K144/1.11))*11%</f>
         <v>1903617.1891891889</v>
       </c>
-      <c r="K146" s="366"/>
+      <c r="K146" s="304"/>
       <c r="L146" s="72"/>
     </row>
     <row r="147" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -20927,8 +20927,8 @@
       <c r="C147" s="65"/>
       <c r="D147" s="25"/>
       <c r="I147" s="67"/>
-      <c r="J147" s="362"/>
-      <c r="K147" s="362"/>
+      <c r="J147" s="302"/>
+      <c r="K147" s="302"/>
     </row>
     <row r="148" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
@@ -20969,10 +20969,10 @@
       <c r="I150" s="270" t="s">
         <v>29</v>
       </c>
-      <c r="J150" s="330" t="s">
+      <c r="J150" s="354" t="s">
         <v>36</v>
       </c>
-      <c r="K150" s="331"/>
+      <c r="K150" s="355"/>
     </row>
     <row r="151" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="78"/>
@@ -20982,8 +20982,8 @@
       <c r="I151" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="J151" s="330"/>
-      <c r="K151" s="331"/>
+      <c r="J151" s="354"/>
+      <c r="K151" s="355"/>
       <c r="L151" s="63"/>
     </row>
     <row r="152" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21028,13 +21028,13 @@
       <c r="G154" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="H154" s="358" t="str">
+      <c r="H154" s="356" t="str">
         <f>H116</f>
         <v>CV PELITA JAYA</v>
       </c>
-      <c r="I154" s="358"/>
-      <c r="J154" s="358"/>
-      <c r="K154" s="359"/>
+      <c r="I154" s="356"/>
+      <c r="J154" s="356"/>
+      <c r="K154" s="357"/>
       <c r="L154" s="125"/>
     </row>
     <row r="155" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -21043,14 +21043,14 @@
       <c r="C155" s="127"/>
       <c r="D155" s="128"/>
       <c r="E155" s="129"/>
-      <c r="F155" s="349" t="s">
+      <c r="F155" s="345" t="s">
         <v>3</v>
       </c>
       <c r="G155" s="130"/>
-      <c r="H155" s="360"/>
-      <c r="I155" s="360"/>
-      <c r="J155" s="360"/>
-      <c r="K155" s="361"/>
+      <c r="H155" s="358"/>
+      <c r="I155" s="358"/>
+      <c r="J155" s="358"/>
+      <c r="K155" s="359"/>
       <c r="L155" s="125"/>
     </row>
     <row r="156" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -21059,20 +21059,20 @@
         <v>4</v>
       </c>
       <c r="C156" s="120"/>
-      <c r="D156" s="350">
+      <c r="D156" s="310">
         <f>D118</f>
         <v>45024</v>
       </c>
-      <c r="E156" s="351"/>
-      <c r="F156" s="349"/>
+      <c r="E156" s="311"/>
+      <c r="F156" s="345"/>
       <c r="G156" s="131"/>
-      <c r="H156" s="352" t="str">
+      <c r="H156" s="312" t="str">
         <f>H118</f>
         <v>(ANUGERAH SEJAHTERA)</v>
       </c>
-      <c r="I156" s="352"/>
-      <c r="J156" s="352"/>
-      <c r="K156" s="353"/>
+      <c r="I156" s="312"/>
+      <c r="J156" s="312"/>
+      <c r="K156" s="313"/>
       <c r="L156" s="131"/>
     </row>
     <row r="157" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -21081,15 +21081,15 @@
       <c r="C157" s="127"/>
       <c r="D157" s="128"/>
       <c r="E157" s="129"/>
-      <c r="F157" s="349"/>
+      <c r="F157" s="345"/>
       <c r="G157" s="131"/>
-      <c r="H157" s="354" t="str">
+      <c r="H157" s="306" t="str">
         <f>H119</f>
         <v>PURWOKERTO</v>
       </c>
-      <c r="I157" s="354"/>
-      <c r="J157" s="354"/>
-      <c r="K157" s="355"/>
+      <c r="I157" s="306"/>
+      <c r="J157" s="306"/>
+      <c r="K157" s="307"/>
       <c r="L157" s="132"/>
     </row>
     <row r="158" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -21105,10 +21105,10 @@
       <c r="E158" s="122"/>
       <c r="F158" s="133"/>
       <c r="G158" s="134"/>
-      <c r="H158" s="356"/>
-      <c r="I158" s="356"/>
-      <c r="J158" s="356"/>
-      <c r="K158" s="357"/>
+      <c r="H158" s="308"/>
+      <c r="I158" s="308"/>
+      <c r="J158" s="308"/>
+      <c r="K158" s="309"/>
       <c r="L158" s="132"/>
     </row>
     <row r="159" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -21833,8 +21833,8 @@
       <c r="G179" s="173"/>
       <c r="H179" s="173"/>
       <c r="I179" s="174"/>
-      <c r="J179" s="332"/>
-      <c r="K179" s="311"/>
+      <c r="J179" s="365"/>
+      <c r="K179" s="317"/>
       <c r="L179" s="123"/>
     </row>
     <row r="180" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -21849,11 +21849,11 @@
       <c r="I180" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="J180" s="307">
+      <c r="J180" s="366">
         <f>SUM(K162:K177)</f>
         <v>19209228</v>
       </c>
-      <c r="K180" s="308"/>
+      <c r="K180" s="367"/>
       <c r="L180" s="148"/>
     </row>
     <row r="181" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -21866,8 +21866,8 @@
       <c r="G181" s="123"/>
       <c r="H181" s="123"/>
       <c r="I181" s="177"/>
-      <c r="J181" s="364"/>
-      <c r="K181" s="364"/>
+      <c r="J181" s="316"/>
+      <c r="K181" s="316"/>
       <c r="L181" s="123"/>
     </row>
     <row r="182" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -21902,8 +21902,8 @@
       <c r="G183" s="123"/>
       <c r="H183" s="123"/>
       <c r="I183" s="177"/>
-      <c r="J183" s="311"/>
-      <c r="K183" s="311"/>
+      <c r="J183" s="317"/>
+      <c r="K183" s="317"/>
       <c r="L183" s="123"/>
     </row>
     <row r="184" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -21922,11 +21922,11 @@
       <c r="I184" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="J184" s="309">
+      <c r="J184" s="350">
         <f>((J180/1.11)+(K182/1.11))*11%</f>
         <v>1903617.1891891889</v>
       </c>
-      <c r="K184" s="310"/>
+      <c r="K184" s="351"/>
       <c r="L184" s="182"/>
     </row>
     <row r="185" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -21939,8 +21939,8 @@
       <c r="G185" s="123"/>
       <c r="H185" s="123"/>
       <c r="I185" s="177"/>
-      <c r="J185" s="311"/>
-      <c r="K185" s="311"/>
+      <c r="J185" s="317"/>
+      <c r="K185" s="317"/>
       <c r="L185" s="123"/>
     </row>
     <row r="186" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -21990,11 +21990,11 @@
       <c r="I188" s="278" t="s">
         <v>29</v>
       </c>
-      <c r="J188" s="312" t="str">
+      <c r="J188" s="352" t="str">
         <f>J150</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K188" s="313"/>
+      <c r="K188" s="353"/>
       <c r="L188" s="123"/>
     </row>
     <row r="189" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22009,11 +22009,11 @@
       <c r="I189" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="J189" s="312">
+      <c r="J189" s="352">
         <f>J151</f>
         <v>0</v>
       </c>
-      <c r="K189" s="313"/>
+      <c r="K189" s="353"/>
       <c r="L189" s="173"/>
     </row>
     <row r="190" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22062,13 +22062,13 @@
       <c r="G192" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="H192" s="303" t="str">
+      <c r="H192" s="346" t="str">
         <f>H154</f>
         <v>CV PELITA JAYA</v>
       </c>
-      <c r="I192" s="303"/>
-      <c r="J192" s="303"/>
-      <c r="K192" s="304"/>
+      <c r="I192" s="346"/>
+      <c r="J192" s="346"/>
+      <c r="K192" s="347"/>
       <c r="L192" s="202"/>
     </row>
     <row r="193" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -22077,14 +22077,14 @@
       <c r="C193" s="204"/>
       <c r="D193" s="205"/>
       <c r="E193" s="206"/>
-      <c r="F193" s="314" t="s">
+      <c r="F193" s="325" t="s">
         <v>3</v>
       </c>
       <c r="G193" s="207"/>
-      <c r="H193" s="305"/>
-      <c r="I193" s="305"/>
-      <c r="J193" s="305"/>
-      <c r="K193" s="306"/>
+      <c r="H193" s="348"/>
+      <c r="I193" s="348"/>
+      <c r="J193" s="348"/>
+      <c r="K193" s="349"/>
       <c r="L193" s="202"/>
     </row>
     <row r="194" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -22093,20 +22093,20 @@
         <v>4</v>
       </c>
       <c r="C194" s="197"/>
-      <c r="D194" s="315">
+      <c r="D194" s="326">
         <f>D156</f>
         <v>45024</v>
       </c>
-      <c r="E194" s="316"/>
-      <c r="F194" s="314"/>
+      <c r="E194" s="327"/>
+      <c r="F194" s="325"/>
       <c r="G194" s="208"/>
-      <c r="H194" s="317" t="str">
+      <c r="H194" s="328" t="str">
         <f>H156</f>
         <v>(ANUGERAH SEJAHTERA)</v>
       </c>
-      <c r="I194" s="317"/>
-      <c r="J194" s="317"/>
-      <c r="K194" s="318"/>
+      <c r="I194" s="328"/>
+      <c r="J194" s="328"/>
+      <c r="K194" s="329"/>
       <c r="L194" s="208"/>
     </row>
     <row r="195" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -22115,15 +22115,15 @@
       <c r="C195" s="204"/>
       <c r="D195" s="205"/>
       <c r="E195" s="206"/>
-      <c r="F195" s="314"/>
+      <c r="F195" s="325"/>
       <c r="G195" s="208"/>
-      <c r="H195" s="319" t="str">
+      <c r="H195" s="330" t="str">
         <f>H157</f>
         <v>PURWOKERTO</v>
       </c>
-      <c r="I195" s="319"/>
-      <c r="J195" s="319"/>
-      <c r="K195" s="320"/>
+      <c r="I195" s="330"/>
+      <c r="J195" s="330"/>
+      <c r="K195" s="331"/>
       <c r="L195" s="209"/>
     </row>
     <row r="196" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -22139,10 +22139,10 @@
       <c r="E196" s="199"/>
       <c r="F196" s="210"/>
       <c r="G196" s="211"/>
-      <c r="H196" s="321"/>
-      <c r="I196" s="321"/>
-      <c r="J196" s="321"/>
-      <c r="K196" s="322"/>
+      <c r="H196" s="332"/>
+      <c r="I196" s="332"/>
+      <c r="J196" s="332"/>
+      <c r="K196" s="333"/>
       <c r="L196" s="209"/>
     </row>
     <row r="197" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -22867,8 +22867,8 @@
       <c r="G217" s="250"/>
       <c r="H217" s="250"/>
       <c r="I217" s="251"/>
-      <c r="J217" s="323"/>
-      <c r="K217" s="302"/>
+      <c r="J217" s="318"/>
+      <c r="K217" s="319"/>
       <c r="L217" s="200"/>
     </row>
     <row r="218" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -22883,11 +22883,11 @@
       <c r="I218" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="J218" s="324">
+      <c r="J218" s="320">
         <f>SUM(K200:K215)</f>
         <v>19209228</v>
       </c>
-      <c r="K218" s="325"/>
+      <c r="K218" s="321"/>
       <c r="L218" s="225"/>
     </row>
     <row r="219" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -22900,8 +22900,8 @@
       <c r="G219" s="200"/>
       <c r="H219" s="200"/>
       <c r="I219" s="254"/>
-      <c r="J219" s="335"/>
-      <c r="K219" s="335"/>
+      <c r="J219" s="322"/>
+      <c r="K219" s="322"/>
       <c r="L219" s="200"/>
     </row>
     <row r="220" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -22936,8 +22936,8 @@
       <c r="G221" s="200"/>
       <c r="H221" s="200"/>
       <c r="I221" s="254"/>
-      <c r="J221" s="302"/>
-      <c r="K221" s="302"/>
+      <c r="J221" s="319"/>
+      <c r="K221" s="319"/>
       <c r="L221" s="200"/>
     </row>
     <row r="222" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -22956,11 +22956,11 @@
       <c r="I222" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="J222" s="326">
+      <c r="J222" s="323">
         <f>((J218/1.11)+(K220/1.11))*11%</f>
         <v>1903617.1891891889</v>
       </c>
-      <c r="K222" s="327"/>
+      <c r="K222" s="324"/>
       <c r="L222" s="259"/>
     </row>
     <row r="223" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -22973,8 +22973,8 @@
       <c r="G223" s="200"/>
       <c r="H223" s="200"/>
       <c r="I223" s="254"/>
-      <c r="J223" s="302"/>
-      <c r="K223" s="302"/>
+      <c r="J223" s="319"/>
+      <c r="K223" s="319"/>
       <c r="L223" s="200"/>
     </row>
     <row r="224" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -23024,11 +23024,11 @@
       <c r="I226" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="J226" s="328" t="str">
+      <c r="J226" s="314" t="str">
         <f>J188</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K226" s="329"/>
+      <c r="K226" s="315"/>
       <c r="L226" s="200"/>
     </row>
     <row r="227" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23043,11 +23043,11 @@
       <c r="I227" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="J227" s="328">
+      <c r="J227" s="314">
         <f>J189</f>
         <v>0</v>
       </c>
-      <c r="K227" s="329"/>
+      <c r="K227" s="315"/>
       <c r="L227" s="250"/>
     </row>
     <row r="228" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23086,12 +23086,12 @@
       <c r="G230" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H230" s="336" t="s">
+      <c r="H230" s="360" t="s">
         <v>30</v>
       </c>
-      <c r="I230" s="336"/>
-      <c r="J230" s="336"/>
-      <c r="K230" s="337"/>
+      <c r="I230" s="360"/>
+      <c r="J230" s="360"/>
+      <c r="K230" s="361"/>
       <c r="L230" s="12"/>
     </row>
     <row r="231" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -23100,14 +23100,14 @@
       <c r="C231" s="14"/>
       <c r="D231" s="15"/>
       <c r="E231" s="16"/>
-      <c r="F231" s="340" t="s">
+      <c r="F231" s="364" t="s">
         <v>3</v>
       </c>
       <c r="G231" s="17"/>
-      <c r="H231" s="338"/>
-      <c r="I231" s="338"/>
-      <c r="J231" s="338"/>
-      <c r="K231" s="339"/>
+      <c r="H231" s="362"/>
+      <c r="I231" s="362"/>
+      <c r="J231" s="362"/>
+      <c r="K231" s="363"/>
       <c r="L231" s="12"/>
     </row>
     <row r="232" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -23116,18 +23116,18 @@
         <v>4</v>
       </c>
       <c r="C232" s="7"/>
-      <c r="D232" s="341">
+      <c r="D232" s="334">
         <v>45024</v>
       </c>
-      <c r="E232" s="342"/>
-      <c r="F232" s="340"/>
+      <c r="E232" s="335"/>
+      <c r="F232" s="364"/>
       <c r="G232" s="18"/>
-      <c r="H232" s="343" t="s">
+      <c r="H232" s="336" t="s">
         <v>31</v>
       </c>
-      <c r="I232" s="343"/>
-      <c r="J232" s="343"/>
-      <c r="K232" s="344"/>
+      <c r="I232" s="336"/>
+      <c r="J232" s="336"/>
+      <c r="K232" s="337"/>
       <c r="L232" s="18"/>
     </row>
     <row r="233" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -23136,14 +23136,14 @@
       <c r="C233" s="14"/>
       <c r="D233" s="15"/>
       <c r="E233" s="16"/>
-      <c r="F233" s="340"/>
+      <c r="F233" s="364"/>
       <c r="G233" s="18"/>
-      <c r="H233" s="345" t="s">
+      <c r="H233" s="338" t="s">
         <v>32</v>
       </c>
-      <c r="I233" s="345"/>
-      <c r="J233" s="345"/>
-      <c r="K233" s="346"/>
+      <c r="I233" s="338"/>
+      <c r="J233" s="338"/>
+      <c r="K233" s="339"/>
       <c r="L233" s="19"/>
     </row>
     <row r="234" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -23158,10 +23158,10 @@
       <c r="E234" s="9"/>
       <c r="F234" s="21"/>
       <c r="G234" s="22"/>
-      <c r="H234" s="347"/>
-      <c r="I234" s="347"/>
-      <c r="J234" s="347"/>
-      <c r="K234" s="348"/>
+      <c r="H234" s="340"/>
+      <c r="I234" s="340"/>
+      <c r="J234" s="340"/>
+      <c r="K234" s="341"/>
       <c r="L234" s="19"/>
     </row>
     <row r="235" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -23570,8 +23570,8 @@
       <c r="G255" s="63"/>
       <c r="H255" s="63"/>
       <c r="I255" s="64"/>
-      <c r="J255" s="363"/>
-      <c r="K255" s="362"/>
+      <c r="J255" s="305"/>
+      <c r="K255" s="302"/>
     </row>
     <row r="256" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5"/>
@@ -23581,11 +23581,11 @@
       <c r="I256" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J256" s="333">
+      <c r="J256" s="342">
         <f>SUM(K238:K253)</f>
         <v>4736567</v>
       </c>
-      <c r="K256" s="334"/>
+      <c r="K256" s="343"/>
       <c r="L256" s="36"/>
     </row>
     <row r="257" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -23594,8 +23594,8 @@
       <c r="C257" s="65"/>
       <c r="D257" s="25"/>
       <c r="I257" s="67"/>
-      <c r="J257" s="367"/>
-      <c r="K257" s="367"/>
+      <c r="J257" s="344"/>
+      <c r="K257" s="344"/>
     </row>
     <row r="258" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5"/>
@@ -23618,8 +23618,8 @@
       <c r="C259" s="65"/>
       <c r="D259" s="25"/>
       <c r="I259" s="67"/>
-      <c r="J259" s="362"/>
-      <c r="K259" s="362"/>
+      <c r="J259" s="302"/>
+      <c r="K259" s="302"/>
     </row>
     <row r="260" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="5"/>
@@ -23634,11 +23634,11 @@
       <c r="I260" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="J260" s="365">
+      <c r="J260" s="303">
         <f>((J256/1.11)+(K258/1.11))*11%</f>
         <v>469389.52252252249</v>
       </c>
-      <c r="K260" s="366"/>
+      <c r="K260" s="304"/>
       <c r="L260" s="72"/>
     </row>
     <row r="261" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -23647,8 +23647,8 @@
       <c r="C261" s="65"/>
       <c r="D261" s="25"/>
       <c r="I261" s="67"/>
-      <c r="J261" s="362"/>
-      <c r="K261" s="362"/>
+      <c r="J261" s="302"/>
+      <c r="K261" s="302"/>
     </row>
     <row r="262" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5"/>
@@ -23689,10 +23689,10 @@
       <c r="I264" s="270" t="s">
         <v>29</v>
       </c>
-      <c r="J264" s="330" t="s">
+      <c r="J264" s="354" t="s">
         <v>36</v>
       </c>
-      <c r="K264" s="331"/>
+      <c r="K264" s="355"/>
     </row>
     <row r="265" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="78"/>
@@ -23702,8 +23702,8 @@
       <c r="I265" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="J265" s="330"/>
-      <c r="K265" s="331"/>
+      <c r="J265" s="354"/>
+      <c r="K265" s="355"/>
       <c r="L265" s="63"/>
     </row>
     <row r="266" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23748,13 +23748,13 @@
       <c r="G268" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="H268" s="358" t="str">
+      <c r="H268" s="356" t="str">
         <f>H230</f>
         <v>CV PELITA JAYA</v>
       </c>
-      <c r="I268" s="358"/>
-      <c r="J268" s="358"/>
-      <c r="K268" s="359"/>
+      <c r="I268" s="356"/>
+      <c r="J268" s="356"/>
+      <c r="K268" s="357"/>
       <c r="L268" s="125"/>
     </row>
     <row r="269" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -23763,14 +23763,14 @@
       <c r="C269" s="127"/>
       <c r="D269" s="128"/>
       <c r="E269" s="129"/>
-      <c r="F269" s="349" t="s">
+      <c r="F269" s="345" t="s">
         <v>3</v>
       </c>
       <c r="G269" s="130"/>
-      <c r="H269" s="360"/>
-      <c r="I269" s="360"/>
-      <c r="J269" s="360"/>
-      <c r="K269" s="361"/>
+      <c r="H269" s="358"/>
+      <c r="I269" s="358"/>
+      <c r="J269" s="358"/>
+      <c r="K269" s="359"/>
       <c r="L269" s="125"/>
     </row>
     <row r="270" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -23779,20 +23779,20 @@
         <v>4</v>
       </c>
       <c r="C270" s="120"/>
-      <c r="D270" s="350">
+      <c r="D270" s="310">
         <f>D232</f>
         <v>45024</v>
       </c>
-      <c r="E270" s="351"/>
-      <c r="F270" s="349"/>
+      <c r="E270" s="311"/>
+      <c r="F270" s="345"/>
       <c r="G270" s="131"/>
-      <c r="H270" s="352" t="str">
+      <c r="H270" s="312" t="str">
         <f>H232</f>
         <v>(ANUGERAH SEJAHTERA)</v>
       </c>
-      <c r="I270" s="352"/>
-      <c r="J270" s="352"/>
-      <c r="K270" s="353"/>
+      <c r="I270" s="312"/>
+      <c r="J270" s="312"/>
+      <c r="K270" s="313"/>
       <c r="L270" s="131"/>
     </row>
     <row r="271" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -23801,15 +23801,15 @@
       <c r="C271" s="127"/>
       <c r="D271" s="128"/>
       <c r="E271" s="129"/>
-      <c r="F271" s="349"/>
+      <c r="F271" s="345"/>
       <c r="G271" s="131"/>
-      <c r="H271" s="354" t="str">
+      <c r="H271" s="306" t="str">
         <f>H233</f>
         <v>PURWOKERTO</v>
       </c>
-      <c r="I271" s="354"/>
-      <c r="J271" s="354"/>
-      <c r="K271" s="355"/>
+      <c r="I271" s="306"/>
+      <c r="J271" s="306"/>
+      <c r="K271" s="307"/>
       <c r="L271" s="132"/>
     </row>
     <row r="272" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -23825,10 +23825,10 @@
       <c r="E272" s="122"/>
       <c r="F272" s="133"/>
       <c r="G272" s="134"/>
-      <c r="H272" s="356"/>
-      <c r="I272" s="356"/>
-      <c r="J272" s="356"/>
-      <c r="K272" s="357"/>
+      <c r="H272" s="308"/>
+      <c r="I272" s="308"/>
+      <c r="J272" s="308"/>
+      <c r="K272" s="309"/>
       <c r="L272" s="132"/>
     </row>
     <row r="273" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -24553,8 +24553,8 @@
       <c r="G293" s="173"/>
       <c r="H293" s="173"/>
       <c r="I293" s="174"/>
-      <c r="J293" s="332"/>
-      <c r="K293" s="311"/>
+      <c r="J293" s="365"/>
+      <c r="K293" s="317"/>
       <c r="L293" s="123"/>
     </row>
     <row r="294" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -24569,11 +24569,11 @@
       <c r="I294" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="J294" s="307">
+      <c r="J294" s="366">
         <f>SUM(K276:K291)</f>
         <v>4736567</v>
       </c>
-      <c r="K294" s="308"/>
+      <c r="K294" s="367"/>
       <c r="L294" s="148"/>
     </row>
     <row r="295" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -24586,8 +24586,8 @@
       <c r="G295" s="123"/>
       <c r="H295" s="123"/>
       <c r="I295" s="177"/>
-      <c r="J295" s="364"/>
-      <c r="K295" s="364"/>
+      <c r="J295" s="316"/>
+      <c r="K295" s="316"/>
       <c r="L295" s="123"/>
     </row>
     <row r="296" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -24622,8 +24622,8 @@
       <c r="G297" s="123"/>
       <c r="H297" s="123"/>
       <c r="I297" s="177"/>
-      <c r="J297" s="311"/>
-      <c r="K297" s="311"/>
+      <c r="J297" s="317"/>
+      <c r="K297" s="317"/>
       <c r="L297" s="123"/>
     </row>
     <row r="298" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -24642,11 +24642,11 @@
       <c r="I298" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="J298" s="309">
+      <c r="J298" s="350">
         <f>((J294/1.11)+(K296/1.11))*11%</f>
         <v>469389.52252252249</v>
       </c>
-      <c r="K298" s="310"/>
+      <c r="K298" s="351"/>
       <c r="L298" s="182"/>
     </row>
     <row r="299" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -24659,8 +24659,8 @@
       <c r="G299" s="123"/>
       <c r="H299" s="123"/>
       <c r="I299" s="177"/>
-      <c r="J299" s="311"/>
-      <c r="K299" s="311"/>
+      <c r="J299" s="317"/>
+      <c r="K299" s="317"/>
       <c r="L299" s="123"/>
     </row>
     <row r="300" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -24710,11 +24710,11 @@
       <c r="I302" s="278" t="s">
         <v>29</v>
       </c>
-      <c r="J302" s="312" t="str">
+      <c r="J302" s="352" t="str">
         <f>J264</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K302" s="313"/>
+      <c r="K302" s="353"/>
       <c r="L302" s="123"/>
     </row>
     <row r="303" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24729,11 +24729,11 @@
       <c r="I303" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="J303" s="312">
+      <c r="J303" s="352">
         <f>J265</f>
         <v>0</v>
       </c>
-      <c r="K303" s="313"/>
+      <c r="K303" s="353"/>
       <c r="L303" s="173"/>
     </row>
     <row r="304" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24782,13 +24782,13 @@
       <c r="G306" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="H306" s="303" t="str">
+      <c r="H306" s="346" t="str">
         <f>H268</f>
         <v>CV PELITA JAYA</v>
       </c>
-      <c r="I306" s="303"/>
-      <c r="J306" s="303"/>
-      <c r="K306" s="304"/>
+      <c r="I306" s="346"/>
+      <c r="J306" s="346"/>
+      <c r="K306" s="347"/>
       <c r="L306" s="202"/>
     </row>
     <row r="307" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -24797,14 +24797,14 @@
       <c r="C307" s="204"/>
       <c r="D307" s="205"/>
       <c r="E307" s="206"/>
-      <c r="F307" s="314" t="s">
+      <c r="F307" s="325" t="s">
         <v>3</v>
       </c>
       <c r="G307" s="207"/>
-      <c r="H307" s="305"/>
-      <c r="I307" s="305"/>
-      <c r="J307" s="305"/>
-      <c r="K307" s="306"/>
+      <c r="H307" s="348"/>
+      <c r="I307" s="348"/>
+      <c r="J307" s="348"/>
+      <c r="K307" s="349"/>
       <c r="L307" s="202"/>
     </row>
     <row r="308" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -24813,20 +24813,20 @@
         <v>4</v>
       </c>
       <c r="C308" s="197"/>
-      <c r="D308" s="315">
+      <c r="D308" s="326">
         <f>D270</f>
         <v>45024</v>
       </c>
-      <c r="E308" s="316"/>
-      <c r="F308" s="314"/>
+      <c r="E308" s="327"/>
+      <c r="F308" s="325"/>
       <c r="G308" s="208"/>
-      <c r="H308" s="317" t="str">
+      <c r="H308" s="328" t="str">
         <f>H270</f>
         <v>(ANUGERAH SEJAHTERA)</v>
       </c>
-      <c r="I308" s="317"/>
-      <c r="J308" s="317"/>
-      <c r="K308" s="318"/>
+      <c r="I308" s="328"/>
+      <c r="J308" s="328"/>
+      <c r="K308" s="329"/>
       <c r="L308" s="208"/>
     </row>
     <row r="309" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -24835,15 +24835,15 @@
       <c r="C309" s="204"/>
       <c r="D309" s="205"/>
       <c r="E309" s="206"/>
-      <c r="F309" s="314"/>
+      <c r="F309" s="325"/>
       <c r="G309" s="208"/>
-      <c r="H309" s="319" t="str">
+      <c r="H309" s="330" t="str">
         <f>H271</f>
         <v>PURWOKERTO</v>
       </c>
-      <c r="I309" s="319"/>
-      <c r="J309" s="319"/>
-      <c r="K309" s="320"/>
+      <c r="I309" s="330"/>
+      <c r="J309" s="330"/>
+      <c r="K309" s="331"/>
       <c r="L309" s="209"/>
     </row>
     <row r="310" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -24859,10 +24859,10 @@
       <c r="E310" s="199"/>
       <c r="F310" s="210"/>
       <c r="G310" s="211"/>
-      <c r="H310" s="321"/>
-      <c r="I310" s="321"/>
-      <c r="J310" s="321"/>
-      <c r="K310" s="322"/>
+      <c r="H310" s="332"/>
+      <c r="I310" s="332"/>
+      <c r="J310" s="332"/>
+      <c r="K310" s="333"/>
       <c r="L310" s="209"/>
     </row>
     <row r="311" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -25587,8 +25587,8 @@
       <c r="G331" s="250"/>
       <c r="H331" s="250"/>
       <c r="I331" s="251"/>
-      <c r="J331" s="323"/>
-      <c r="K331" s="302"/>
+      <c r="J331" s="318"/>
+      <c r="K331" s="319"/>
       <c r="L331" s="200"/>
     </row>
     <row r="332" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -25603,11 +25603,11 @@
       <c r="I332" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="J332" s="324">
+      <c r="J332" s="320">
         <f>SUM(K314:K329)</f>
         <v>4736567</v>
       </c>
-      <c r="K332" s="325"/>
+      <c r="K332" s="321"/>
       <c r="L332" s="225"/>
     </row>
     <row r="333" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -25620,8 +25620,8 @@
       <c r="G333" s="200"/>
       <c r="H333" s="200"/>
       <c r="I333" s="254"/>
-      <c r="J333" s="335"/>
-      <c r="K333" s="335"/>
+      <c r="J333" s="322"/>
+      <c r="K333" s="322"/>
       <c r="L333" s="200"/>
     </row>
     <row r="334" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -25656,8 +25656,8 @@
       <c r="G335" s="200"/>
       <c r="H335" s="200"/>
       <c r="I335" s="254"/>
-      <c r="J335" s="302"/>
-      <c r="K335" s="302"/>
+      <c r="J335" s="319"/>
+      <c r="K335" s="319"/>
       <c r="L335" s="200"/>
     </row>
     <row r="336" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -25676,11 +25676,11 @@
       <c r="I336" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="J336" s="326">
+      <c r="J336" s="323">
         <f>((J332/1.11)+(K334/1.11))*11%</f>
         <v>469389.52252252249</v>
       </c>
-      <c r="K336" s="327"/>
+      <c r="K336" s="324"/>
       <c r="L336" s="259"/>
     </row>
     <row r="337" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -25693,8 +25693,8 @@
       <c r="G337" s="200"/>
       <c r="H337" s="200"/>
       <c r="I337" s="254"/>
-      <c r="J337" s="302"/>
-      <c r="K337" s="302"/>
+      <c r="J337" s="319"/>
+      <c r="K337" s="319"/>
       <c r="L337" s="200"/>
     </row>
     <row r="338" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -25744,11 +25744,11 @@
       <c r="I340" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="J340" s="328" t="str">
+      <c r="J340" s="314" t="str">
         <f>J302</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K340" s="329"/>
+      <c r="K340" s="315"/>
       <c r="L340" s="200"/>
     </row>
     <row r="341" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25763,11 +25763,11 @@
       <c r="I341" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="J341" s="328">
+      <c r="J341" s="314">
         <f>J303</f>
         <v>0</v>
       </c>
-      <c r="K341" s="329"/>
+      <c r="K341" s="315"/>
       <c r="L341" s="250"/>
     </row>
     <row r="342" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25806,12 +25806,12 @@
       <c r="G344" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H344" s="336" t="s">
+      <c r="H344" s="360" t="s">
         <v>49</v>
       </c>
-      <c r="I344" s="336"/>
-      <c r="J344" s="336"/>
-      <c r="K344" s="337"/>
+      <c r="I344" s="360"/>
+      <c r="J344" s="360"/>
+      <c r="K344" s="361"/>
       <c r="L344" s="12"/>
     </row>
     <row r="345" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -25820,14 +25820,14 @@
       <c r="C345" s="14"/>
       <c r="D345" s="15"/>
       <c r="E345" s="16"/>
-      <c r="F345" s="340" t="s">
+      <c r="F345" s="364" t="s">
         <v>3</v>
       </c>
       <c r="G345" s="17"/>
-      <c r="H345" s="338"/>
-      <c r="I345" s="338"/>
-      <c r="J345" s="338"/>
-      <c r="K345" s="339"/>
+      <c r="H345" s="362"/>
+      <c r="I345" s="362"/>
+      <c r="J345" s="362"/>
+      <c r="K345" s="363"/>
       <c r="L345" s="12"/>
     </row>
     <row r="346" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -25836,18 +25836,18 @@
         <v>4</v>
       </c>
       <c r="C346" s="7"/>
-      <c r="D346" s="341">
+      <c r="D346" s="334">
         <v>45024</v>
       </c>
-      <c r="E346" s="342"/>
-      <c r="F346" s="340"/>
+      <c r="E346" s="335"/>
+      <c r="F346" s="364"/>
       <c r="G346" s="18"/>
-      <c r="H346" s="343" t="s">
+      <c r="H346" s="336" t="s">
         <v>50</v>
       </c>
-      <c r="I346" s="343"/>
-      <c r="J346" s="343"/>
-      <c r="K346" s="344"/>
+      <c r="I346" s="336"/>
+      <c r="J346" s="336"/>
+      <c r="K346" s="337"/>
       <c r="L346" s="18"/>
     </row>
     <row r="347" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -25856,14 +25856,14 @@
       <c r="C347" s="14"/>
       <c r="D347" s="15"/>
       <c r="E347" s="16"/>
-      <c r="F347" s="340"/>
+      <c r="F347" s="364"/>
       <c r="G347" s="18"/>
-      <c r="H347" s="345" t="s">
+      <c r="H347" s="338" t="s">
         <v>51</v>
       </c>
-      <c r="I347" s="345"/>
-      <c r="J347" s="345"/>
-      <c r="K347" s="346"/>
+      <c r="I347" s="338"/>
+      <c r="J347" s="338"/>
+      <c r="K347" s="339"/>
       <c r="L347" s="19"/>
     </row>
     <row r="348" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -25878,10 +25878,10 @@
       <c r="E348" s="9"/>
       <c r="F348" s="21"/>
       <c r="G348" s="22"/>
-      <c r="H348" s="347"/>
-      <c r="I348" s="347"/>
-      <c r="J348" s="347"/>
-      <c r="K348" s="348"/>
+      <c r="H348" s="340"/>
+      <c r="I348" s="340"/>
+      <c r="J348" s="340"/>
+      <c r="K348" s="341"/>
       <c r="L348" s="19"/>
     </row>
     <row r="349" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -26306,8 +26306,8 @@
       <c r="G369" s="63"/>
       <c r="H369" s="63"/>
       <c r="I369" s="64"/>
-      <c r="J369" s="363"/>
-      <c r="K369" s="362"/>
+      <c r="J369" s="305"/>
+      <c r="K369" s="302"/>
     </row>
     <row r="370" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="5"/>
@@ -26317,11 +26317,11 @@
       <c r="I370" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J370" s="333">
+      <c r="J370" s="342">
         <f>SUM(K352:K367)</f>
         <v>12993645</v>
       </c>
-      <c r="K370" s="334"/>
+      <c r="K370" s="343"/>
       <c r="L370" s="36"/>
     </row>
     <row r="371" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -26330,8 +26330,8 @@
       <c r="C371" s="65"/>
       <c r="D371" s="25"/>
       <c r="I371" s="67"/>
-      <c r="J371" s="367"/>
-      <c r="K371" s="367"/>
+      <c r="J371" s="344"/>
+      <c r="K371" s="344"/>
     </row>
     <row r="372" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="5"/>
@@ -26354,8 +26354,8 @@
       <c r="C373" s="65"/>
       <c r="D373" s="25"/>
       <c r="I373" s="67"/>
-      <c r="J373" s="362"/>
-      <c r="K373" s="362"/>
+      <c r="J373" s="302"/>
+      <c r="K373" s="302"/>
     </row>
     <row r="374" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="5"/>
@@ -26370,11 +26370,11 @@
       <c r="I374" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="J374" s="365">
+      <c r="J374" s="303">
         <f>((J370/1.11)+(K372/1.11))*11%</f>
         <v>1287658.5135135134</v>
       </c>
-      <c r="K374" s="366"/>
+      <c r="K374" s="304"/>
       <c r="L374" s="72"/>
     </row>
     <row r="375" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -26383,8 +26383,8 @@
       <c r="C375" s="65"/>
       <c r="D375" s="25"/>
       <c r="I375" s="67"/>
-      <c r="J375" s="362"/>
-      <c r="K375" s="362"/>
+      <c r="J375" s="302"/>
+      <c r="K375" s="302"/>
     </row>
     <row r="376" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="5"/>
@@ -26425,10 +26425,10 @@
       <c r="I378" s="270" t="s">
         <v>29</v>
       </c>
-      <c r="J378" s="330" t="s">
+      <c r="J378" s="354" t="s">
         <v>36</v>
       </c>
-      <c r="K378" s="331"/>
+      <c r="K378" s="355"/>
     </row>
     <row r="379" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="78"/>
@@ -26438,8 +26438,8 @@
       <c r="I379" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="J379" s="330"/>
-      <c r="K379" s="331"/>
+      <c r="J379" s="354"/>
+      <c r="K379" s="355"/>
       <c r="L379" s="63"/>
     </row>
     <row r="380" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26484,13 +26484,13 @@
       <c r="G382" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="H382" s="358" t="str">
+      <c r="H382" s="356" t="str">
         <f>H344</f>
         <v>LILY JULIAWATI</v>
       </c>
-      <c r="I382" s="358"/>
-      <c r="J382" s="358"/>
-      <c r="K382" s="359"/>
+      <c r="I382" s="356"/>
+      <c r="J382" s="356"/>
+      <c r="K382" s="357"/>
       <c r="L382" s="125"/>
     </row>
     <row r="383" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -26499,14 +26499,14 @@
       <c r="C383" s="127"/>
       <c r="D383" s="128"/>
       <c r="E383" s="129"/>
-      <c r="F383" s="349" t="s">
+      <c r="F383" s="345" t="s">
         <v>3</v>
       </c>
       <c r="G383" s="130"/>
-      <c r="H383" s="360"/>
-      <c r="I383" s="360"/>
-      <c r="J383" s="360"/>
-      <c r="K383" s="361"/>
+      <c r="H383" s="358"/>
+      <c r="I383" s="358"/>
+      <c r="J383" s="358"/>
+      <c r="K383" s="359"/>
       <c r="L383" s="125"/>
     </row>
     <row r="384" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -26515,20 +26515,20 @@
         <v>4</v>
       </c>
       <c r="C384" s="120"/>
-      <c r="D384" s="350">
+      <c r="D384" s="310">
         <f>D346</f>
         <v>45024</v>
       </c>
-      <c r="E384" s="351"/>
-      <c r="F384" s="349"/>
+      <c r="E384" s="311"/>
+      <c r="F384" s="345"/>
       <c r="G384" s="131"/>
-      <c r="H384" s="352" t="str">
+      <c r="H384" s="312" t="str">
         <f>H346</f>
         <v>(REJO AGUNG)</v>
       </c>
-      <c r="I384" s="352"/>
-      <c r="J384" s="352"/>
-      <c r="K384" s="353"/>
+      <c r="I384" s="312"/>
+      <c r="J384" s="312"/>
+      <c r="K384" s="313"/>
       <c r="L384" s="131"/>
     </row>
     <row r="385" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -26537,15 +26537,15 @@
       <c r="C385" s="127"/>
       <c r="D385" s="128"/>
       <c r="E385" s="129"/>
-      <c r="F385" s="349"/>
+      <c r="F385" s="345"/>
       <c r="G385" s="131"/>
-      <c r="H385" s="354" t="str">
+      <c r="H385" s="306" t="str">
         <f>H347</f>
         <v>JOMBANG</v>
       </c>
-      <c r="I385" s="354"/>
-      <c r="J385" s="354"/>
-      <c r="K385" s="355"/>
+      <c r="I385" s="306"/>
+      <c r="J385" s="306"/>
+      <c r="K385" s="307"/>
       <c r="L385" s="132"/>
     </row>
     <row r="386" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -26561,10 +26561,10 @@
       <c r="E386" s="122"/>
       <c r="F386" s="133"/>
       <c r="G386" s="134"/>
-      <c r="H386" s="356"/>
-      <c r="I386" s="356"/>
-      <c r="J386" s="356"/>
-      <c r="K386" s="357"/>
+      <c r="H386" s="308"/>
+      <c r="I386" s="308"/>
+      <c r="J386" s="308"/>
+      <c r="K386" s="309"/>
       <c r="L386" s="132"/>
     </row>
     <row r="387" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -27289,8 +27289,8 @@
       <c r="G407" s="173"/>
       <c r="H407" s="173"/>
       <c r="I407" s="174"/>
-      <c r="J407" s="332"/>
-      <c r="K407" s="311"/>
+      <c r="J407" s="365"/>
+      <c r="K407" s="317"/>
       <c r="L407" s="123"/>
     </row>
     <row r="408" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -27305,11 +27305,11 @@
       <c r="I408" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="J408" s="307">
+      <c r="J408" s="366">
         <f>SUM(K390:K405)</f>
         <v>12993645</v>
       </c>
-      <c r="K408" s="308"/>
+      <c r="K408" s="367"/>
       <c r="L408" s="148"/>
     </row>
     <row r="409" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -27322,8 +27322,8 @@
       <c r="G409" s="123"/>
       <c r="H409" s="123"/>
       <c r="I409" s="177"/>
-      <c r="J409" s="364"/>
-      <c r="K409" s="364"/>
+      <c r="J409" s="316"/>
+      <c r="K409" s="316"/>
       <c r="L409" s="123"/>
     </row>
     <row r="410" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -27358,8 +27358,8 @@
       <c r="G411" s="123"/>
       <c r="H411" s="123"/>
       <c r="I411" s="177"/>
-      <c r="J411" s="311"/>
-      <c r="K411" s="311"/>
+      <c r="J411" s="317"/>
+      <c r="K411" s="317"/>
       <c r="L411" s="123"/>
     </row>
     <row r="412" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -27378,11 +27378,11 @@
       <c r="I412" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="J412" s="309">
+      <c r="J412" s="350">
         <f>((J408/1.11)+(K410/1.11))*11%</f>
         <v>1287658.5135135134</v>
       </c>
-      <c r="K412" s="310"/>
+      <c r="K412" s="351"/>
       <c r="L412" s="182"/>
     </row>
     <row r="413" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -27395,8 +27395,8 @@
       <c r="G413" s="123"/>
       <c r="H413" s="123"/>
       <c r="I413" s="177"/>
-      <c r="J413" s="311"/>
-      <c r="K413" s="311"/>
+      <c r="J413" s="317"/>
+      <c r="K413" s="317"/>
       <c r="L413" s="123"/>
     </row>
     <row r="414" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -27446,11 +27446,11 @@
       <c r="I416" s="278" t="s">
         <v>29</v>
       </c>
-      <c r="J416" s="312" t="str">
+      <c r="J416" s="352" t="str">
         <f>J378</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K416" s="313"/>
+      <c r="K416" s="353"/>
       <c r="L416" s="123"/>
     </row>
     <row r="417" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27465,11 +27465,11 @@
       <c r="I417" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="J417" s="312">
+      <c r="J417" s="352">
         <f>J379</f>
         <v>0</v>
       </c>
-      <c r="K417" s="313"/>
+      <c r="K417" s="353"/>
       <c r="L417" s="173"/>
     </row>
     <row r="418" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27518,13 +27518,13 @@
       <c r="G420" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="H420" s="303" t="str">
+      <c r="H420" s="346" t="str">
         <f>H382</f>
         <v>LILY JULIAWATI</v>
       </c>
-      <c r="I420" s="303"/>
-      <c r="J420" s="303"/>
-      <c r="K420" s="304"/>
+      <c r="I420" s="346"/>
+      <c r="J420" s="346"/>
+      <c r="K420" s="347"/>
       <c r="L420" s="202"/>
     </row>
     <row r="421" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -27533,14 +27533,14 @@
       <c r="C421" s="204"/>
       <c r="D421" s="205"/>
       <c r="E421" s="206"/>
-      <c r="F421" s="314" t="s">
+      <c r="F421" s="325" t="s">
         <v>3</v>
       </c>
       <c r="G421" s="207"/>
-      <c r="H421" s="305"/>
-      <c r="I421" s="305"/>
-      <c r="J421" s="305"/>
-      <c r="K421" s="306"/>
+      <c r="H421" s="348"/>
+      <c r="I421" s="348"/>
+      <c r="J421" s="348"/>
+      <c r="K421" s="349"/>
       <c r="L421" s="202"/>
     </row>
     <row r="422" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -27549,20 +27549,20 @@
         <v>4</v>
       </c>
       <c r="C422" s="197"/>
-      <c r="D422" s="315">
+      <c r="D422" s="326">
         <f>D384</f>
         <v>45024</v>
       </c>
-      <c r="E422" s="316"/>
-      <c r="F422" s="314"/>
+      <c r="E422" s="327"/>
+      <c r="F422" s="325"/>
       <c r="G422" s="208"/>
-      <c r="H422" s="317" t="str">
+      <c r="H422" s="328" t="str">
         <f>H384</f>
         <v>(REJO AGUNG)</v>
       </c>
-      <c r="I422" s="317"/>
-      <c r="J422" s="317"/>
-      <c r="K422" s="318"/>
+      <c r="I422" s="328"/>
+      <c r="J422" s="328"/>
+      <c r="K422" s="329"/>
       <c r="L422" s="208"/>
     </row>
     <row r="423" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -27571,15 +27571,15 @@
       <c r="C423" s="204"/>
       <c r="D423" s="205"/>
       <c r="E423" s="206"/>
-      <c r="F423" s="314"/>
+      <c r="F423" s="325"/>
       <c r="G423" s="208"/>
-      <c r="H423" s="319" t="str">
+      <c r="H423" s="330" t="str">
         <f>H385</f>
         <v>JOMBANG</v>
       </c>
-      <c r="I423" s="319"/>
-      <c r="J423" s="319"/>
-      <c r="K423" s="320"/>
+      <c r="I423" s="330"/>
+      <c r="J423" s="330"/>
+      <c r="K423" s="331"/>
       <c r="L423" s="209"/>
     </row>
     <row r="424" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -27595,10 +27595,10 @@
       <c r="E424" s="199"/>
       <c r="F424" s="210"/>
       <c r="G424" s="211"/>
-      <c r="H424" s="321"/>
-      <c r="I424" s="321"/>
-      <c r="J424" s="321"/>
-      <c r="K424" s="322"/>
+      <c r="H424" s="332"/>
+      <c r="I424" s="332"/>
+      <c r="J424" s="332"/>
+      <c r="K424" s="333"/>
       <c r="L424" s="209"/>
     </row>
     <row r="425" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -28323,8 +28323,8 @@
       <c r="G445" s="250"/>
       <c r="H445" s="250"/>
       <c r="I445" s="251"/>
-      <c r="J445" s="323"/>
-      <c r="K445" s="302"/>
+      <c r="J445" s="318"/>
+      <c r="K445" s="319"/>
       <c r="L445" s="200"/>
     </row>
     <row r="446" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -28339,11 +28339,11 @@
       <c r="I446" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="J446" s="324">
+      <c r="J446" s="320">
         <f>SUM(K428:K443)</f>
         <v>12993645</v>
       </c>
-      <c r="K446" s="325"/>
+      <c r="K446" s="321"/>
       <c r="L446" s="225"/>
     </row>
     <row r="447" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -28356,8 +28356,8 @@
       <c r="G447" s="200"/>
       <c r="H447" s="200"/>
       <c r="I447" s="254"/>
-      <c r="J447" s="335"/>
-      <c r="K447" s="335"/>
+      <c r="J447" s="322"/>
+      <c r="K447" s="322"/>
       <c r="L447" s="200"/>
     </row>
     <row r="448" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -28392,8 +28392,8 @@
       <c r="G449" s="200"/>
       <c r="H449" s="200"/>
       <c r="I449" s="254"/>
-      <c r="J449" s="302"/>
-      <c r="K449" s="302"/>
+      <c r="J449" s="319"/>
+      <c r="K449" s="319"/>
       <c r="L449" s="200"/>
     </row>
     <row r="450" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -28412,11 +28412,11 @@
       <c r="I450" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="J450" s="326">
+      <c r="J450" s="323">
         <f>((J446/1.11)+(K448/1.11))*11%</f>
         <v>1287658.5135135134</v>
       </c>
-      <c r="K450" s="327"/>
+      <c r="K450" s="324"/>
       <c r="L450" s="259"/>
     </row>
     <row r="451" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -28429,8 +28429,8 @@
       <c r="G451" s="200"/>
       <c r="H451" s="200"/>
       <c r="I451" s="254"/>
-      <c r="J451" s="302"/>
-      <c r="K451" s="302"/>
+      <c r="J451" s="319"/>
+      <c r="K451" s="319"/>
       <c r="L451" s="200"/>
     </row>
     <row r="452" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -28480,11 +28480,11 @@
       <c r="I454" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="J454" s="328" t="str">
+      <c r="J454" s="314" t="str">
         <f>J416</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K454" s="329"/>
+      <c r="K454" s="315"/>
       <c r="L454" s="200"/>
     </row>
     <row r="455" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -28499,11 +28499,11 @@
       <c r="I455" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="J455" s="328">
+      <c r="J455" s="314">
         <f>J417</f>
         <v>0</v>
       </c>
-      <c r="K455" s="329"/>
+      <c r="K455" s="315"/>
       <c r="L455" s="250"/>
     </row>
     <row r="456" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -28542,12 +28542,12 @@
       <c r="G458" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H458" s="336" t="s">
+      <c r="H458" s="360" t="s">
         <v>30</v>
       </c>
-      <c r="I458" s="336"/>
-      <c r="J458" s="336"/>
-      <c r="K458" s="337"/>
+      <c r="I458" s="360"/>
+      <c r="J458" s="360"/>
+      <c r="K458" s="361"/>
       <c r="L458" s="12"/>
     </row>
     <row r="459" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -28556,14 +28556,14 @@
       <c r="C459" s="14"/>
       <c r="D459" s="15"/>
       <c r="E459" s="16"/>
-      <c r="F459" s="340" t="s">
+      <c r="F459" s="364" t="s">
         <v>3</v>
       </c>
       <c r="G459" s="17"/>
-      <c r="H459" s="338"/>
-      <c r="I459" s="338"/>
-      <c r="J459" s="338"/>
-      <c r="K459" s="339"/>
+      <c r="H459" s="362"/>
+      <c r="I459" s="362"/>
+      <c r="J459" s="362"/>
+      <c r="K459" s="363"/>
       <c r="L459" s="12"/>
     </row>
     <row r="460" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -28572,18 +28572,18 @@
         <v>4</v>
       </c>
       <c r="C460" s="7"/>
-      <c r="D460" s="341">
+      <c r="D460" s="334">
         <v>45027</v>
       </c>
-      <c r="E460" s="342"/>
-      <c r="F460" s="340"/>
+      <c r="E460" s="335"/>
+      <c r="F460" s="364"/>
       <c r="G460" s="18"/>
-      <c r="H460" s="343" t="s">
+      <c r="H460" s="336" t="s">
         <v>31</v>
       </c>
-      <c r="I460" s="343"/>
-      <c r="J460" s="343"/>
-      <c r="K460" s="344"/>
+      <c r="I460" s="336"/>
+      <c r="J460" s="336"/>
+      <c r="K460" s="337"/>
       <c r="L460" s="18"/>
     </row>
     <row r="461" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -28592,14 +28592,14 @@
       <c r="C461" s="14"/>
       <c r="D461" s="15"/>
       <c r="E461" s="16"/>
-      <c r="F461" s="340"/>
+      <c r="F461" s="364"/>
       <c r="G461" s="18"/>
-      <c r="H461" s="345" t="s">
+      <c r="H461" s="338" t="s">
         <v>32</v>
       </c>
-      <c r="I461" s="345"/>
-      <c r="J461" s="345"/>
-      <c r="K461" s="346"/>
+      <c r="I461" s="338"/>
+      <c r="J461" s="338"/>
+      <c r="K461" s="339"/>
       <c r="L461" s="19"/>
     </row>
     <row r="462" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -28614,10 +28614,10 @@
       <c r="E462" s="9"/>
       <c r="F462" s="21"/>
       <c r="G462" s="22"/>
-      <c r="H462" s="347"/>
-      <c r="I462" s="347"/>
-      <c r="J462" s="347"/>
-      <c r="K462" s="348"/>
+      <c r="H462" s="340"/>
+      <c r="I462" s="340"/>
+      <c r="J462" s="340"/>
+      <c r="K462" s="341"/>
       <c r="L462" s="19"/>
     </row>
     <row r="463" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -29014,8 +29014,8 @@
       <c r="G483" s="63"/>
       <c r="H483" s="63"/>
       <c r="I483" s="64"/>
-      <c r="J483" s="363"/>
-      <c r="K483" s="362"/>
+      <c r="J483" s="305"/>
+      <c r="K483" s="302"/>
     </row>
     <row r="484" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="5"/>
@@ -29025,11 +29025,11 @@
       <c r="I484" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J484" s="333">
+      <c r="J484" s="342">
         <f>SUM(K466:K481)</f>
         <v>3819840</v>
       </c>
-      <c r="K484" s="334"/>
+      <c r="K484" s="343"/>
       <c r="L484" s="36"/>
     </row>
     <row r="485" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -29038,8 +29038,8 @@
       <c r="C485" s="65"/>
       <c r="D485" s="25"/>
       <c r="I485" s="67"/>
-      <c r="J485" s="367"/>
-      <c r="K485" s="367"/>
+      <c r="J485" s="344"/>
+      <c r="K485" s="344"/>
     </row>
     <row r="486" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="5"/>
@@ -29062,8 +29062,8 @@
       <c r="C487" s="65"/>
       <c r="D487" s="25"/>
       <c r="I487" s="67"/>
-      <c r="J487" s="362"/>
-      <c r="K487" s="362"/>
+      <c r="J487" s="302"/>
+      <c r="K487" s="302"/>
     </row>
     <row r="488" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="5"/>
@@ -29078,11 +29078,11 @@
       <c r="I488" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="J488" s="365">
+      <c r="J488" s="303">
         <f>((J484/1.11)+(K486/1.11))*11%</f>
         <v>378542.70270270266</v>
       </c>
-      <c r="K488" s="366"/>
+      <c r="K488" s="304"/>
       <c r="L488" s="72"/>
     </row>
     <row r="489" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -29091,8 +29091,8 @@
       <c r="C489" s="65"/>
       <c r="D489" s="25"/>
       <c r="I489" s="67"/>
-      <c r="J489" s="362"/>
-      <c r="K489" s="362"/>
+      <c r="J489" s="302"/>
+      <c r="K489" s="302"/>
     </row>
     <row r="490" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="5"/>
@@ -29133,10 +29133,10 @@
       <c r="I492" s="270" t="s">
         <v>29</v>
       </c>
-      <c r="J492" s="330" t="s">
+      <c r="J492" s="354" t="s">
         <v>36</v>
       </c>
-      <c r="K492" s="331"/>
+      <c r="K492" s="355"/>
     </row>
     <row r="493" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="78"/>
@@ -29146,8 +29146,8 @@
       <c r="I493" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="J493" s="330"/>
-      <c r="K493" s="331"/>
+      <c r="J493" s="354"/>
+      <c r="K493" s="355"/>
       <c r="L493" s="63"/>
     </row>
     <row r="494" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29192,13 +29192,13 @@
       <c r="G496" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="H496" s="358" t="str">
+      <c r="H496" s="356" t="str">
         <f>H458</f>
         <v>CV PELITA JAYA</v>
       </c>
-      <c r="I496" s="358"/>
-      <c r="J496" s="358"/>
-      <c r="K496" s="359"/>
+      <c r="I496" s="356"/>
+      <c r="J496" s="356"/>
+      <c r="K496" s="357"/>
       <c r="L496" s="125"/>
     </row>
     <row r="497" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -29207,14 +29207,14 @@
       <c r="C497" s="127"/>
       <c r="D497" s="128"/>
       <c r="E497" s="129"/>
-      <c r="F497" s="349" t="s">
+      <c r="F497" s="345" t="s">
         <v>3</v>
       </c>
       <c r="G497" s="130"/>
-      <c r="H497" s="360"/>
-      <c r="I497" s="360"/>
-      <c r="J497" s="360"/>
-      <c r="K497" s="361"/>
+      <c r="H497" s="358"/>
+      <c r="I497" s="358"/>
+      <c r="J497" s="358"/>
+      <c r="K497" s="359"/>
       <c r="L497" s="125"/>
     </row>
     <row r="498" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -29223,20 +29223,20 @@
         <v>4</v>
       </c>
       <c r="C498" s="120"/>
-      <c r="D498" s="350">
+      <c r="D498" s="310">
         <f>D460</f>
         <v>45027</v>
       </c>
-      <c r="E498" s="351"/>
-      <c r="F498" s="349"/>
+      <c r="E498" s="311"/>
+      <c r="F498" s="345"/>
       <c r="G498" s="131"/>
-      <c r="H498" s="352" t="str">
+      <c r="H498" s="312" t="str">
         <f>H460</f>
         <v>(ANUGERAH SEJAHTERA)</v>
       </c>
-      <c r="I498" s="352"/>
-      <c r="J498" s="352"/>
-      <c r="K498" s="353"/>
+      <c r="I498" s="312"/>
+      <c r="J498" s="312"/>
+      <c r="K498" s="313"/>
       <c r="L498" s="131"/>
     </row>
     <row r="499" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -29245,15 +29245,15 @@
       <c r="C499" s="127"/>
       <c r="D499" s="128"/>
       <c r="E499" s="129"/>
-      <c r="F499" s="349"/>
+      <c r="F499" s="345"/>
       <c r="G499" s="131"/>
-      <c r="H499" s="354" t="str">
+      <c r="H499" s="306" t="str">
         <f>H461</f>
         <v>PURWOKERTO</v>
       </c>
-      <c r="I499" s="354"/>
-      <c r="J499" s="354"/>
-      <c r="K499" s="355"/>
+      <c r="I499" s="306"/>
+      <c r="J499" s="306"/>
+      <c r="K499" s="307"/>
       <c r="L499" s="132"/>
     </row>
     <row r="500" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -29269,10 +29269,10 @@
       <c r="E500" s="122"/>
       <c r="F500" s="133"/>
       <c r="G500" s="134"/>
-      <c r="H500" s="356"/>
-      <c r="I500" s="356"/>
-      <c r="J500" s="356"/>
-      <c r="K500" s="357"/>
+      <c r="H500" s="308"/>
+      <c r="I500" s="308"/>
+      <c r="J500" s="308"/>
+      <c r="K500" s="309"/>
       <c r="L500" s="132"/>
     </row>
     <row r="501" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -29997,8 +29997,8 @@
       <c r="G521" s="173"/>
       <c r="H521" s="173"/>
       <c r="I521" s="174"/>
-      <c r="J521" s="332"/>
-      <c r="K521" s="311"/>
+      <c r="J521" s="365"/>
+      <c r="K521" s="317"/>
       <c r="L521" s="123"/>
     </row>
     <row r="522" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -30013,11 +30013,11 @@
       <c r="I522" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="J522" s="307">
+      <c r="J522" s="366">
         <f>SUM(K504:K519)</f>
         <v>3819840</v>
       </c>
-      <c r="K522" s="308"/>
+      <c r="K522" s="367"/>
       <c r="L522" s="148"/>
     </row>
     <row r="523" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -30030,8 +30030,8 @@
       <c r="G523" s="123"/>
       <c r="H523" s="123"/>
       <c r="I523" s="177"/>
-      <c r="J523" s="364"/>
-      <c r="K523" s="364"/>
+      <c r="J523" s="316"/>
+      <c r="K523" s="316"/>
       <c r="L523" s="123"/>
     </row>
     <row r="524" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -30066,8 +30066,8 @@
       <c r="G525" s="123"/>
       <c r="H525" s="123"/>
       <c r="I525" s="177"/>
-      <c r="J525" s="311"/>
-      <c r="K525" s="311"/>
+      <c r="J525" s="317"/>
+      <c r="K525" s="317"/>
       <c r="L525" s="123"/>
     </row>
     <row r="526" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -30086,11 +30086,11 @@
       <c r="I526" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="J526" s="309">
+      <c r="J526" s="350">
         <f>((J522/1.11)+(K524/1.11))*11%</f>
         <v>378542.70270270266</v>
       </c>
-      <c r="K526" s="310"/>
+      <c r="K526" s="351"/>
       <c r="L526" s="182"/>
     </row>
     <row r="527" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -30103,8 +30103,8 @@
       <c r="G527" s="123"/>
       <c r="H527" s="123"/>
       <c r="I527" s="177"/>
-      <c r="J527" s="311"/>
-      <c r="K527" s="311"/>
+      <c r="J527" s="317"/>
+      <c r="K527" s="317"/>
       <c r="L527" s="123"/>
     </row>
     <row r="528" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -30154,11 +30154,11 @@
       <c r="I530" s="278" t="s">
         <v>29</v>
       </c>
-      <c r="J530" s="312" t="str">
+      <c r="J530" s="352" t="str">
         <f>J492</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K530" s="313"/>
+      <c r="K530" s="353"/>
       <c r="L530" s="123"/>
     </row>
     <row r="531" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -30173,11 +30173,11 @@
       <c r="I531" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="J531" s="312">
+      <c r="J531" s="352">
         <f>J493</f>
         <v>0</v>
       </c>
-      <c r="K531" s="313"/>
+      <c r="K531" s="353"/>
       <c r="L531" s="173"/>
     </row>
     <row r="532" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -30226,13 +30226,13 @@
       <c r="G534" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="H534" s="303" t="str">
+      <c r="H534" s="346" t="str">
         <f>H496</f>
         <v>CV PELITA JAYA</v>
       </c>
-      <c r="I534" s="303"/>
-      <c r="J534" s="303"/>
-      <c r="K534" s="304"/>
+      <c r="I534" s="346"/>
+      <c r="J534" s="346"/>
+      <c r="K534" s="347"/>
       <c r="L534" s="202"/>
     </row>
     <row r="535" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -30241,14 +30241,14 @@
       <c r="C535" s="204"/>
       <c r="D535" s="205"/>
       <c r="E535" s="206"/>
-      <c r="F535" s="314" t="s">
+      <c r="F535" s="325" t="s">
         <v>3</v>
       </c>
       <c r="G535" s="207"/>
-      <c r="H535" s="305"/>
-      <c r="I535" s="305"/>
-      <c r="J535" s="305"/>
-      <c r="K535" s="306"/>
+      <c r="H535" s="348"/>
+      <c r="I535" s="348"/>
+      <c r="J535" s="348"/>
+      <c r="K535" s="349"/>
       <c r="L535" s="202"/>
     </row>
     <row r="536" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -30257,20 +30257,20 @@
         <v>4</v>
       </c>
       <c r="C536" s="197"/>
-      <c r="D536" s="315">
+      <c r="D536" s="326">
         <f>D498</f>
         <v>45027</v>
       </c>
-      <c r="E536" s="316"/>
-      <c r="F536" s="314"/>
+      <c r="E536" s="327"/>
+      <c r="F536" s="325"/>
       <c r="G536" s="208"/>
-      <c r="H536" s="317" t="str">
+      <c r="H536" s="328" t="str">
         <f>H498</f>
         <v>(ANUGERAH SEJAHTERA)</v>
       </c>
-      <c r="I536" s="317"/>
-      <c r="J536" s="317"/>
-      <c r="K536" s="318"/>
+      <c r="I536" s="328"/>
+      <c r="J536" s="328"/>
+      <c r="K536" s="329"/>
       <c r="L536" s="208"/>
     </row>
     <row r="537" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -30279,15 +30279,15 @@
       <c r="C537" s="204"/>
       <c r="D537" s="205"/>
       <c r="E537" s="206"/>
-      <c r="F537" s="314"/>
+      <c r="F537" s="325"/>
       <c r="G537" s="208"/>
-      <c r="H537" s="319" t="str">
+      <c r="H537" s="330" t="str">
         <f>H499</f>
         <v>PURWOKERTO</v>
       </c>
-      <c r="I537" s="319"/>
-      <c r="J537" s="319"/>
-      <c r="K537" s="320"/>
+      <c r="I537" s="330"/>
+      <c r="J537" s="330"/>
+      <c r="K537" s="331"/>
       <c r="L537" s="209"/>
     </row>
     <row r="538" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -30303,10 +30303,10 @@
       <c r="E538" s="199"/>
       <c r="F538" s="210"/>
       <c r="G538" s="211"/>
-      <c r="H538" s="321"/>
-      <c r="I538" s="321"/>
-      <c r="J538" s="321"/>
-      <c r="K538" s="322"/>
+      <c r="H538" s="332"/>
+      <c r="I538" s="332"/>
+      <c r="J538" s="332"/>
+      <c r="K538" s="333"/>
       <c r="L538" s="209"/>
     </row>
     <row r="539" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -31031,8 +31031,8 @@
       <c r="G559" s="250"/>
       <c r="H559" s="250"/>
       <c r="I559" s="251"/>
-      <c r="J559" s="323"/>
-      <c r="K559" s="302"/>
+      <c r="J559" s="318"/>
+      <c r="K559" s="319"/>
       <c r="L559" s="200"/>
     </row>
     <row r="560" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -31047,11 +31047,11 @@
       <c r="I560" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="J560" s="324">
+      <c r="J560" s="320">
         <f>SUM(K542:K557)</f>
         <v>3819840</v>
       </c>
-      <c r="K560" s="325"/>
+      <c r="K560" s="321"/>
       <c r="L560" s="225"/>
     </row>
     <row r="561" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -31064,8 +31064,8 @@
       <c r="G561" s="200"/>
       <c r="H561" s="200"/>
       <c r="I561" s="254"/>
-      <c r="J561" s="335"/>
-      <c r="K561" s="335"/>
+      <c r="J561" s="322"/>
+      <c r="K561" s="322"/>
       <c r="L561" s="200"/>
     </row>
     <row r="562" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -31100,8 +31100,8 @@
       <c r="G563" s="200"/>
       <c r="H563" s="200"/>
       <c r="I563" s="254"/>
-      <c r="J563" s="302"/>
-      <c r="K563" s="302"/>
+      <c r="J563" s="319"/>
+      <c r="K563" s="319"/>
       <c r="L563" s="200"/>
     </row>
     <row r="564" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -31120,11 +31120,11 @@
       <c r="I564" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="J564" s="326">
+      <c r="J564" s="323">
         <f>((J560/1.11)+(K562/1.11))*11%</f>
         <v>378542.70270270266</v>
       </c>
-      <c r="K564" s="327"/>
+      <c r="K564" s="324"/>
       <c r="L564" s="259"/>
     </row>
     <row r="565" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -31137,8 +31137,8 @@
       <c r="G565" s="200"/>
       <c r="H565" s="200"/>
       <c r="I565" s="254"/>
-      <c r="J565" s="302"/>
-      <c r="K565" s="302"/>
+      <c r="J565" s="319"/>
+      <c r="K565" s="319"/>
       <c r="L565" s="200"/>
     </row>
     <row r="566" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -31188,11 +31188,11 @@
       <c r="I568" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="J568" s="328" t="str">
+      <c r="J568" s="314" t="str">
         <f>J530</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K568" s="329"/>
+      <c r="K568" s="315"/>
       <c r="L568" s="200"/>
     </row>
     <row r="569" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -31207,11 +31207,11 @@
       <c r="I569" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="J569" s="328">
+      <c r="J569" s="314">
         <f>J531</f>
         <v>0</v>
       </c>
-      <c r="K569" s="329"/>
+      <c r="K569" s="315"/>
       <c r="L569" s="250"/>
     </row>
     <row r="570" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -31250,12 +31250,12 @@
       <c r="G572" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H572" s="336" t="s">
+      <c r="H572" s="360" t="s">
         <v>49</v>
       </c>
-      <c r="I572" s="336"/>
-      <c r="J572" s="336"/>
-      <c r="K572" s="337"/>
+      <c r="I572" s="360"/>
+      <c r="J572" s="360"/>
+      <c r="K572" s="361"/>
       <c r="L572" s="12"/>
     </row>
     <row r="573" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -31264,14 +31264,14 @@
       <c r="C573" s="14"/>
       <c r="D573" s="15"/>
       <c r="E573" s="16"/>
-      <c r="F573" s="340" t="s">
+      <c r="F573" s="364" t="s">
         <v>3</v>
       </c>
       <c r="G573" s="17"/>
-      <c r="H573" s="338"/>
-      <c r="I573" s="338"/>
-      <c r="J573" s="338"/>
-      <c r="K573" s="339"/>
+      <c r="H573" s="362"/>
+      <c r="I573" s="362"/>
+      <c r="J573" s="362"/>
+      <c r="K573" s="363"/>
       <c r="L573" s="12"/>
     </row>
     <row r="574" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -31280,18 +31280,18 @@
         <v>4</v>
       </c>
       <c r="C574" s="7"/>
-      <c r="D574" s="341">
+      <c r="D574" s="334">
         <v>45028</v>
       </c>
-      <c r="E574" s="342"/>
-      <c r="F574" s="340"/>
+      <c r="E574" s="335"/>
+      <c r="F574" s="364"/>
       <c r="G574" s="18"/>
-      <c r="H574" s="343" t="s">
+      <c r="H574" s="336" t="s">
         <v>50</v>
       </c>
-      <c r="I574" s="343"/>
-      <c r="J574" s="343"/>
-      <c r="K574" s="344"/>
+      <c r="I574" s="336"/>
+      <c r="J574" s="336"/>
+      <c r="K574" s="337"/>
       <c r="L574" s="18"/>
     </row>
     <row r="575" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -31300,14 +31300,14 @@
       <c r="C575" s="14"/>
       <c r="D575" s="15"/>
       <c r="E575" s="16"/>
-      <c r="F575" s="340"/>
+      <c r="F575" s="364"/>
       <c r="G575" s="18"/>
-      <c r="H575" s="345" t="s">
+      <c r="H575" s="338" t="s">
         <v>51</v>
       </c>
-      <c r="I575" s="345"/>
-      <c r="J575" s="345"/>
-      <c r="K575" s="346"/>
+      <c r="I575" s="338"/>
+      <c r="J575" s="338"/>
+      <c r="K575" s="339"/>
       <c r="L575" s="19"/>
     </row>
     <row r="576" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -31322,10 +31322,10 @@
       <c r="E576" s="9"/>
       <c r="F576" s="21"/>
       <c r="G576" s="22"/>
-      <c r="H576" s="347"/>
-      <c r="I576" s="347"/>
-      <c r="J576" s="347"/>
-      <c r="K576" s="348"/>
+      <c r="H576" s="340"/>
+      <c r="I576" s="340"/>
+      <c r="J576" s="340"/>
+      <c r="K576" s="341"/>
       <c r="L576" s="19"/>
     </row>
     <row r="577" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -31724,8 +31724,8 @@
       <c r="G597" s="63"/>
       <c r="H597" s="63"/>
       <c r="I597" s="64"/>
-      <c r="J597" s="363"/>
-      <c r="K597" s="362"/>
+      <c r="J597" s="305"/>
+      <c r="K597" s="302"/>
     </row>
     <row r="598" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="5"/>
@@ -31735,11 +31735,11 @@
       <c r="I598" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J598" s="333">
+      <c r="J598" s="342">
         <f>SUM(K580:K595)</f>
         <v>14544180</v>
       </c>
-      <c r="K598" s="334"/>
+      <c r="K598" s="343"/>
       <c r="L598" s="36"/>
     </row>
     <row r="599" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -31748,8 +31748,8 @@
       <c r="C599" s="65"/>
       <c r="D599" s="25"/>
       <c r="I599" s="67"/>
-      <c r="J599" s="367"/>
-      <c r="K599" s="367"/>
+      <c r="J599" s="344"/>
+      <c r="K599" s="344"/>
     </row>
     <row r="600" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="5"/>
@@ -31772,8 +31772,8 @@
       <c r="C601" s="65"/>
       <c r="D601" s="25"/>
       <c r="I601" s="67"/>
-      <c r="J601" s="362"/>
-      <c r="K601" s="362"/>
+      <c r="J601" s="302"/>
+      <c r="K601" s="302"/>
     </row>
     <row r="602" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="5"/>
@@ -31788,11 +31788,11 @@
       <c r="I602" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="J602" s="365">
+      <c r="J602" s="303">
         <f>((J598/1.11)+(K600/1.11))*11%</f>
         <v>1441315.1351351349</v>
       </c>
-      <c r="K602" s="366"/>
+      <c r="K602" s="304"/>
       <c r="L602" s="72"/>
     </row>
     <row r="603" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -31801,8 +31801,8 @@
       <c r="C603" s="65"/>
       <c r="D603" s="25"/>
       <c r="I603" s="67"/>
-      <c r="J603" s="362"/>
-      <c r="K603" s="362"/>
+      <c r="J603" s="302"/>
+      <c r="K603" s="302"/>
     </row>
     <row r="604" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="5"/>
@@ -31843,10 +31843,10 @@
       <c r="I606" s="270" t="s">
         <v>29</v>
       </c>
-      <c r="J606" s="330" t="s">
+      <c r="J606" s="354" t="s">
         <v>36</v>
       </c>
-      <c r="K606" s="331"/>
+      <c r="K606" s="355"/>
     </row>
     <row r="607" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="78"/>
@@ -31856,8 +31856,8 @@
       <c r="I607" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="J607" s="330"/>
-      <c r="K607" s="331"/>
+      <c r="J607" s="354"/>
+      <c r="K607" s="355"/>
       <c r="L607" s="63"/>
     </row>
     <row r="608" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -31902,13 +31902,13 @@
       <c r="G610" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="H610" s="358" t="str">
+      <c r="H610" s="356" t="str">
         <f>H572</f>
         <v>LILY JULIAWATI</v>
       </c>
-      <c r="I610" s="358"/>
-      <c r="J610" s="358"/>
-      <c r="K610" s="359"/>
+      <c r="I610" s="356"/>
+      <c r="J610" s="356"/>
+      <c r="K610" s="357"/>
       <c r="L610" s="125"/>
     </row>
     <row r="611" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -31917,14 +31917,14 @@
       <c r="C611" s="127"/>
       <c r="D611" s="128"/>
       <c r="E611" s="129"/>
-      <c r="F611" s="349" t="s">
+      <c r="F611" s="345" t="s">
         <v>3</v>
       </c>
       <c r="G611" s="130"/>
-      <c r="H611" s="360"/>
-      <c r="I611" s="360"/>
-      <c r="J611" s="360"/>
-      <c r="K611" s="361"/>
+      <c r="H611" s="358"/>
+      <c r="I611" s="358"/>
+      <c r="J611" s="358"/>
+      <c r="K611" s="359"/>
       <c r="L611" s="125"/>
     </row>
     <row r="612" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -31933,20 +31933,20 @@
         <v>4</v>
       </c>
       <c r="C612" s="120"/>
-      <c r="D612" s="350">
+      <c r="D612" s="310">
         <f>D574</f>
         <v>45028</v>
       </c>
-      <c r="E612" s="351"/>
-      <c r="F612" s="349"/>
+      <c r="E612" s="311"/>
+      <c r="F612" s="345"/>
       <c r="G612" s="131"/>
-      <c r="H612" s="352" t="str">
+      <c r="H612" s="312" t="str">
         <f>H574</f>
         <v>(REJO AGUNG)</v>
       </c>
-      <c r="I612" s="352"/>
-      <c r="J612" s="352"/>
-      <c r="K612" s="353"/>
+      <c r="I612" s="312"/>
+      <c r="J612" s="312"/>
+      <c r="K612" s="313"/>
       <c r="L612" s="131"/>
     </row>
     <row r="613" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -31955,15 +31955,15 @@
       <c r="C613" s="127"/>
       <c r="D613" s="128"/>
       <c r="E613" s="129"/>
-      <c r="F613" s="349"/>
+      <c r="F613" s="345"/>
       <c r="G613" s="131"/>
-      <c r="H613" s="354" t="str">
+      <c r="H613" s="306" t="str">
         <f>H575</f>
         <v>JOMBANG</v>
       </c>
-      <c r="I613" s="354"/>
-      <c r="J613" s="354"/>
-      <c r="K613" s="355"/>
+      <c r="I613" s="306"/>
+      <c r="J613" s="306"/>
+      <c r="K613" s="307"/>
       <c r="L613" s="132"/>
     </row>
     <row r="614" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -31979,10 +31979,10 @@
       <c r="E614" s="122"/>
       <c r="F614" s="133"/>
       <c r="G614" s="134"/>
-      <c r="H614" s="356"/>
-      <c r="I614" s="356"/>
-      <c r="J614" s="356"/>
-      <c r="K614" s="357"/>
+      <c r="H614" s="308"/>
+      <c r="I614" s="308"/>
+      <c r="J614" s="308"/>
+      <c r="K614" s="309"/>
       <c r="L614" s="132"/>
     </row>
     <row r="615" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -32707,8 +32707,8 @@
       <c r="G635" s="173"/>
       <c r="H635" s="173"/>
       <c r="I635" s="174"/>
-      <c r="J635" s="332"/>
-      <c r="K635" s="311"/>
+      <c r="J635" s="365"/>
+      <c r="K635" s="317"/>
       <c r="L635" s="123"/>
     </row>
     <row r="636" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -32723,11 +32723,11 @@
       <c r="I636" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="J636" s="307">
+      <c r="J636" s="366">
         <f>SUM(K618:K633)</f>
         <v>14544180</v>
       </c>
-      <c r="K636" s="308"/>
+      <c r="K636" s="367"/>
       <c r="L636" s="148"/>
     </row>
     <row r="637" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -32740,8 +32740,8 @@
       <c r="G637" s="123"/>
       <c r="H637" s="123"/>
       <c r="I637" s="177"/>
-      <c r="J637" s="364"/>
-      <c r="K637" s="364"/>
+      <c r="J637" s="316"/>
+      <c r="K637" s="316"/>
       <c r="L637" s="123"/>
     </row>
     <row r="638" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -32776,8 +32776,8 @@
       <c r="G639" s="123"/>
       <c r="H639" s="123"/>
       <c r="I639" s="177"/>
-      <c r="J639" s="311"/>
-      <c r="K639" s="311"/>
+      <c r="J639" s="317"/>
+      <c r="K639" s="317"/>
       <c r="L639" s="123"/>
     </row>
     <row r="640" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -32796,11 +32796,11 @@
       <c r="I640" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="J640" s="309">
+      <c r="J640" s="350">
         <f>((J636/1.11)+(K638/1.11))*11%</f>
         <v>1441315.1351351349</v>
       </c>
-      <c r="K640" s="310"/>
+      <c r="K640" s="351"/>
       <c r="L640" s="182"/>
     </row>
     <row r="641" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -32813,8 +32813,8 @@
       <c r="G641" s="123"/>
       <c r="H641" s="123"/>
       <c r="I641" s="177"/>
-      <c r="J641" s="311"/>
-      <c r="K641" s="311"/>
+      <c r="J641" s="317"/>
+      <c r="K641" s="317"/>
       <c r="L641" s="123"/>
     </row>
     <row r="642" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -32864,11 +32864,11 @@
       <c r="I644" s="278" t="s">
         <v>29</v>
       </c>
-      <c r="J644" s="312" t="str">
+      <c r="J644" s="352" t="str">
         <f>J606</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K644" s="313"/>
+      <c r="K644" s="353"/>
       <c r="L644" s="123"/>
     </row>
     <row r="645" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -32883,11 +32883,11 @@
       <c r="I645" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="J645" s="312">
+      <c r="J645" s="352">
         <f>J607</f>
         <v>0</v>
       </c>
-      <c r="K645" s="313"/>
+      <c r="K645" s="353"/>
       <c r="L645" s="173"/>
     </row>
     <row r="646" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -32936,13 +32936,13 @@
       <c r="G648" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="H648" s="303" t="str">
+      <c r="H648" s="346" t="str">
         <f>H610</f>
         <v>LILY JULIAWATI</v>
       </c>
-      <c r="I648" s="303"/>
-      <c r="J648" s="303"/>
-      <c r="K648" s="304"/>
+      <c r="I648" s="346"/>
+      <c r="J648" s="346"/>
+      <c r="K648" s="347"/>
       <c r="L648" s="202"/>
     </row>
     <row r="649" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -32951,14 +32951,14 @@
       <c r="C649" s="204"/>
       <c r="D649" s="205"/>
       <c r="E649" s="206"/>
-      <c r="F649" s="314" t="s">
+      <c r="F649" s="325" t="s">
         <v>3</v>
       </c>
       <c r="G649" s="207"/>
-      <c r="H649" s="305"/>
-      <c r="I649" s="305"/>
-      <c r="J649" s="305"/>
-      <c r="K649" s="306"/>
+      <c r="H649" s="348"/>
+      <c r="I649" s="348"/>
+      <c r="J649" s="348"/>
+      <c r="K649" s="349"/>
       <c r="L649" s="202"/>
     </row>
     <row r="650" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -32967,20 +32967,20 @@
         <v>4</v>
       </c>
       <c r="C650" s="197"/>
-      <c r="D650" s="315">
+      <c r="D650" s="326">
         <f>D612</f>
         <v>45028</v>
       </c>
-      <c r="E650" s="316"/>
-      <c r="F650" s="314"/>
+      <c r="E650" s="327"/>
+      <c r="F650" s="325"/>
       <c r="G650" s="208"/>
-      <c r="H650" s="317" t="str">
+      <c r="H650" s="328" t="str">
         <f>H612</f>
         <v>(REJO AGUNG)</v>
       </c>
-      <c r="I650" s="317"/>
-      <c r="J650" s="317"/>
-      <c r="K650" s="318"/>
+      <c r="I650" s="328"/>
+      <c r="J650" s="328"/>
+      <c r="K650" s="329"/>
       <c r="L650" s="208"/>
     </row>
     <row r="651" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -32989,15 +32989,15 @@
       <c r="C651" s="204"/>
       <c r="D651" s="205"/>
       <c r="E651" s="206"/>
-      <c r="F651" s="314"/>
+      <c r="F651" s="325"/>
       <c r="G651" s="208"/>
-      <c r="H651" s="319" t="str">
+      <c r="H651" s="330" t="str">
         <f>H613</f>
         <v>JOMBANG</v>
       </c>
-      <c r="I651" s="319"/>
-      <c r="J651" s="319"/>
-      <c r="K651" s="320"/>
+      <c r="I651" s="330"/>
+      <c r="J651" s="330"/>
+      <c r="K651" s="331"/>
       <c r="L651" s="209"/>
     </row>
     <row r="652" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -33013,10 +33013,10 @@
       <c r="E652" s="199"/>
       <c r="F652" s="210"/>
       <c r="G652" s="211"/>
-      <c r="H652" s="321"/>
-      <c r="I652" s="321"/>
-      <c r="J652" s="321"/>
-      <c r="K652" s="322"/>
+      <c r="H652" s="332"/>
+      <c r="I652" s="332"/>
+      <c r="J652" s="332"/>
+      <c r="K652" s="333"/>
       <c r="L652" s="209"/>
     </row>
     <row r="653" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -33741,8 +33741,8 @@
       <c r="G673" s="250"/>
       <c r="H673" s="250"/>
       <c r="I673" s="251"/>
-      <c r="J673" s="323"/>
-      <c r="K673" s="302"/>
+      <c r="J673" s="318"/>
+      <c r="K673" s="319"/>
       <c r="L673" s="200"/>
     </row>
     <row r="674" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -33757,11 +33757,11 @@
       <c r="I674" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="J674" s="324">
+      <c r="J674" s="320">
         <f>SUM(K656:K671)</f>
         <v>14544180</v>
       </c>
-      <c r="K674" s="325"/>
+      <c r="K674" s="321"/>
       <c r="L674" s="225"/>
     </row>
     <row r="675" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -33774,8 +33774,8 @@
       <c r="G675" s="200"/>
       <c r="H675" s="200"/>
       <c r="I675" s="254"/>
-      <c r="J675" s="335"/>
-      <c r="K675" s="335"/>
+      <c r="J675" s="322"/>
+      <c r="K675" s="322"/>
       <c r="L675" s="200"/>
     </row>
     <row r="676" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -33810,8 +33810,8 @@
       <c r="G677" s="200"/>
       <c r="H677" s="200"/>
       <c r="I677" s="254"/>
-      <c r="J677" s="302"/>
-      <c r="K677" s="302"/>
+      <c r="J677" s="319"/>
+      <c r="K677" s="319"/>
       <c r="L677" s="200"/>
     </row>
     <row r="678" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -33830,11 +33830,11 @@
       <c r="I678" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="J678" s="326">
+      <c r="J678" s="323">
         <f>((J674/1.11)+(K676/1.11))*11%</f>
         <v>1441315.1351351349</v>
       </c>
-      <c r="K678" s="327"/>
+      <c r="K678" s="324"/>
       <c r="L678" s="259"/>
     </row>
     <row r="679" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -33847,8 +33847,8 @@
       <c r="G679" s="200"/>
       <c r="H679" s="200"/>
       <c r="I679" s="254"/>
-      <c r="J679" s="302"/>
-      <c r="K679" s="302"/>
+      <c r="J679" s="319"/>
+      <c r="K679" s="319"/>
       <c r="L679" s="200"/>
     </row>
     <row r="680" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -33898,11 +33898,11 @@
       <c r="I682" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="J682" s="328" t="str">
+      <c r="J682" s="314" t="str">
         <f>J644</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K682" s="329"/>
+      <c r="K682" s="315"/>
       <c r="L682" s="200"/>
     </row>
     <row r="683" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -33917,11 +33917,11 @@
       <c r="I683" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="J683" s="328">
+      <c r="J683" s="314">
         <f>J645</f>
         <v>0</v>
       </c>
-      <c r="K683" s="329"/>
+      <c r="K683" s="315"/>
       <c r="L683" s="250"/>
     </row>
     <row r="684" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -33960,12 +33960,12 @@
       <c r="G686" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H686" s="336" t="s">
+      <c r="H686" s="360" t="s">
         <v>61</v>
       </c>
-      <c r="I686" s="336"/>
-      <c r="J686" s="336"/>
-      <c r="K686" s="337"/>
+      <c r="I686" s="360"/>
+      <c r="J686" s="360"/>
+      <c r="K686" s="361"/>
       <c r="L686" s="12"/>
     </row>
     <row r="687" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -33974,14 +33974,14 @@
       <c r="C687" s="14"/>
       <c r="D687" s="15"/>
       <c r="E687" s="16"/>
-      <c r="F687" s="340" t="s">
+      <c r="F687" s="364" t="s">
         <v>3</v>
       </c>
       <c r="G687" s="17"/>
-      <c r="H687" s="338"/>
-      <c r="I687" s="338"/>
-      <c r="J687" s="338"/>
-      <c r="K687" s="339"/>
+      <c r="H687" s="362"/>
+      <c r="I687" s="362"/>
+      <c r="J687" s="362"/>
+      <c r="K687" s="363"/>
       <c r="L687" s="12"/>
     </row>
     <row r="688" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -33990,18 +33990,18 @@
         <v>4</v>
       </c>
       <c r="C688" s="7"/>
-      <c r="D688" s="341">
+      <c r="D688" s="334">
         <v>45028</v>
       </c>
-      <c r="E688" s="342"/>
-      <c r="F688" s="340"/>
+      <c r="E688" s="335"/>
+      <c r="F688" s="364"/>
       <c r="G688" s="18"/>
-      <c r="H688" s="343" t="s">
+      <c r="H688" s="336" t="s">
         <v>62</v>
       </c>
-      <c r="I688" s="343"/>
-      <c r="J688" s="343"/>
-      <c r="K688" s="344"/>
+      <c r="I688" s="336"/>
+      <c r="J688" s="336"/>
+      <c r="K688" s="337"/>
       <c r="L688" s="18"/>
     </row>
     <row r="689" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -34010,14 +34010,14 @@
       <c r="C689" s="14"/>
       <c r="D689" s="15"/>
       <c r="E689" s="16"/>
-      <c r="F689" s="340"/>
+      <c r="F689" s="364"/>
       <c r="G689" s="18"/>
-      <c r="H689" s="345" t="s">
+      <c r="H689" s="338" t="s">
         <v>63</v>
       </c>
-      <c r="I689" s="345"/>
-      <c r="J689" s="345"/>
-      <c r="K689" s="346"/>
+      <c r="I689" s="338"/>
+      <c r="J689" s="338"/>
+      <c r="K689" s="339"/>
       <c r="L689" s="19"/>
     </row>
     <row r="690" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -34032,10 +34032,10 @@
       <c r="E690" s="9"/>
       <c r="F690" s="21"/>
       <c r="G690" s="22"/>
-      <c r="H690" s="347"/>
-      <c r="I690" s="347"/>
-      <c r="J690" s="347"/>
-      <c r="K690" s="348"/>
+      <c r="H690" s="340"/>
+      <c r="I690" s="340"/>
+      <c r="J690" s="340"/>
+      <c r="K690" s="341"/>
       <c r="L690" s="19"/>
     </row>
     <row r="691" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -34504,8 +34504,8 @@
       <c r="G711" s="63"/>
       <c r="H711" s="63"/>
       <c r="I711" s="64"/>
-      <c r="J711" s="363"/>
-      <c r="K711" s="362"/>
+      <c r="J711" s="305"/>
+      <c r="K711" s="302"/>
     </row>
     <row r="712" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="5"/>
@@ -34515,11 +34515,11 @@
       <c r="I712" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J712" s="333">
+      <c r="J712" s="342">
         <f>SUM(K694:K709)</f>
         <v>19674550</v>
       </c>
-      <c r="K712" s="334"/>
+      <c r="K712" s="343"/>
       <c r="L712" s="36"/>
     </row>
     <row r="713" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -34528,8 +34528,8 @@
       <c r="C713" s="65"/>
       <c r="D713" s="25"/>
       <c r="I713" s="67"/>
-      <c r="J713" s="367"/>
-      <c r="K713" s="367"/>
+      <c r="J713" s="344"/>
+      <c r="K713" s="344"/>
     </row>
     <row r="714" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="5"/>
@@ -34552,8 +34552,8 @@
       <c r="C715" s="65"/>
       <c r="D715" s="25"/>
       <c r="I715" s="67"/>
-      <c r="J715" s="362"/>
-      <c r="K715" s="362"/>
+      <c r="J715" s="302"/>
+      <c r="K715" s="302"/>
     </row>
     <row r="716" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="5"/>
@@ -34568,11 +34568,11 @@
       <c r="I716" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="J716" s="365">
+      <c r="J716" s="303">
         <f>((J712/1.11)+(K714/1.11))*11%</f>
         <v>1949730.1801801801</v>
       </c>
-      <c r="K716" s="366"/>
+      <c r="K716" s="304"/>
       <c r="L716" s="72"/>
     </row>
     <row r="717" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -34581,8 +34581,8 @@
       <c r="C717" s="65"/>
       <c r="D717" s="25"/>
       <c r="I717" s="67"/>
-      <c r="J717" s="362"/>
-      <c r="K717" s="362"/>
+      <c r="J717" s="302"/>
+      <c r="K717" s="302"/>
     </row>
     <row r="718" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="5"/>
@@ -34623,10 +34623,10 @@
       <c r="I720" s="270" t="s">
         <v>29</v>
       </c>
-      <c r="J720" s="330" t="s">
+      <c r="J720" s="354" t="s">
         <v>36</v>
       </c>
-      <c r="K720" s="331"/>
+      <c r="K720" s="355"/>
     </row>
     <row r="721" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="78"/>
@@ -34636,8 +34636,8 @@
       <c r="I721" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="J721" s="330"/>
-      <c r="K721" s="331"/>
+      <c r="J721" s="354"/>
+      <c r="K721" s="355"/>
       <c r="L721" s="63"/>
     </row>
     <row r="722" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -34682,13 +34682,13 @@
       <c r="G724" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="H724" s="358" t="str">
+      <c r="H724" s="356" t="str">
         <f>H686</f>
         <v>SOEYANTO LOPULUSI</v>
       </c>
-      <c r="I724" s="358"/>
-      <c r="J724" s="358"/>
-      <c r="K724" s="359"/>
+      <c r="I724" s="356"/>
+      <c r="J724" s="356"/>
+      <c r="K724" s="357"/>
       <c r="L724" s="125"/>
     </row>
     <row r="725" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -34697,14 +34697,14 @@
       <c r="C725" s="127"/>
       <c r="D725" s="128"/>
       <c r="E725" s="129"/>
-      <c r="F725" s="349" t="s">
+      <c r="F725" s="345" t="s">
         <v>3</v>
       </c>
       <c r="G725" s="130"/>
-      <c r="H725" s="360"/>
-      <c r="I725" s="360"/>
-      <c r="J725" s="360"/>
-      <c r="K725" s="361"/>
+      <c r="H725" s="358"/>
+      <c r="I725" s="358"/>
+      <c r="J725" s="358"/>
+      <c r="K725" s="359"/>
       <c r="L725" s="125"/>
     </row>
     <row r="726" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -34713,20 +34713,20 @@
         <v>4</v>
       </c>
       <c r="C726" s="120"/>
-      <c r="D726" s="350">
+      <c r="D726" s="310">
         <f>D688</f>
         <v>45028</v>
       </c>
-      <c r="E726" s="351"/>
-      <c r="F726" s="349"/>
+      <c r="E726" s="311"/>
+      <c r="F726" s="345"/>
       <c r="G726" s="131"/>
-      <c r="H726" s="352" t="str">
+      <c r="H726" s="312" t="str">
         <f>H688</f>
         <v>( LANCAR )</v>
       </c>
-      <c r="I726" s="352"/>
-      <c r="J726" s="352"/>
-      <c r="K726" s="353"/>
+      <c r="I726" s="312"/>
+      <c r="J726" s="312"/>
+      <c r="K726" s="313"/>
       <c r="L726" s="131"/>
     </row>
     <row r="727" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -34735,15 +34735,15 @@
       <c r="C727" s="127"/>
       <c r="D727" s="128"/>
       <c r="E727" s="129"/>
-      <c r="F727" s="349"/>
+      <c r="F727" s="345"/>
       <c r="G727" s="131"/>
-      <c r="H727" s="354" t="str">
+      <c r="H727" s="306" t="str">
         <f>H689</f>
         <v>MALANG</v>
       </c>
-      <c r="I727" s="354"/>
-      <c r="J727" s="354"/>
-      <c r="K727" s="355"/>
+      <c r="I727" s="306"/>
+      <c r="J727" s="306"/>
+      <c r="K727" s="307"/>
       <c r="L727" s="132"/>
     </row>
     <row r="728" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -34759,10 +34759,10 @@
       <c r="E728" s="122"/>
       <c r="F728" s="133"/>
       <c r="G728" s="134"/>
-      <c r="H728" s="356"/>
-      <c r="I728" s="356"/>
-      <c r="J728" s="356"/>
-      <c r="K728" s="357"/>
+      <c r="H728" s="308"/>
+      <c r="I728" s="308"/>
+      <c r="J728" s="308"/>
+      <c r="K728" s="309"/>
       <c r="L728" s="132"/>
     </row>
     <row r="729" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -35487,8 +35487,8 @@
       <c r="G749" s="173"/>
       <c r="H749" s="173"/>
       <c r="I749" s="174"/>
-      <c r="J749" s="332"/>
-      <c r="K749" s="311"/>
+      <c r="J749" s="365"/>
+      <c r="K749" s="317"/>
       <c r="L749" s="123"/>
     </row>
     <row r="750" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -35503,11 +35503,11 @@
       <c r="I750" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="J750" s="307">
+      <c r="J750" s="366">
         <f>SUM(K732:K747)</f>
         <v>19674550</v>
       </c>
-      <c r="K750" s="308"/>
+      <c r="K750" s="367"/>
       <c r="L750" s="148"/>
     </row>
     <row r="751" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -35520,8 +35520,8 @@
       <c r="G751" s="123"/>
       <c r="H751" s="123"/>
       <c r="I751" s="177"/>
-      <c r="J751" s="364"/>
-      <c r="K751" s="364"/>
+      <c r="J751" s="316"/>
+      <c r="K751" s="316"/>
       <c r="L751" s="123"/>
     </row>
     <row r="752" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -35556,8 +35556,8 @@
       <c r="G753" s="123"/>
       <c r="H753" s="123"/>
       <c r="I753" s="177"/>
-      <c r="J753" s="311"/>
-      <c r="K753" s="311"/>
+      <c r="J753" s="317"/>
+      <c r="K753" s="317"/>
       <c r="L753" s="123"/>
     </row>
     <row r="754" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -35576,11 +35576,11 @@
       <c r="I754" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="J754" s="309">
+      <c r="J754" s="350">
         <f>((J750/1.11)+(K752/1.11))*11%</f>
         <v>1949730.1801801801</v>
       </c>
-      <c r="K754" s="310"/>
+      <c r="K754" s="351"/>
       <c r="L754" s="182"/>
     </row>
     <row r="755" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -35593,8 +35593,8 @@
       <c r="G755" s="123"/>
       <c r="H755" s="123"/>
       <c r="I755" s="177"/>
-      <c r="J755" s="311"/>
-      <c r="K755" s="311"/>
+      <c r="J755" s="317"/>
+      <c r="K755" s="317"/>
       <c r="L755" s="123"/>
     </row>
     <row r="756" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -35644,11 +35644,11 @@
       <c r="I758" s="278" t="s">
         <v>29</v>
       </c>
-      <c r="J758" s="312" t="str">
+      <c r="J758" s="352" t="str">
         <f>J720</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K758" s="313"/>
+      <c r="K758" s="353"/>
       <c r="L758" s="123"/>
     </row>
     <row r="759" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -35663,11 +35663,11 @@
       <c r="I759" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="J759" s="312">
+      <c r="J759" s="352">
         <f>J721</f>
         <v>0</v>
       </c>
-      <c r="K759" s="313"/>
+      <c r="K759" s="353"/>
       <c r="L759" s="173"/>
     </row>
     <row r="760" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -35716,13 +35716,13 @@
       <c r="G762" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="H762" s="303" t="str">
+      <c r="H762" s="346" t="str">
         <f>H724</f>
         <v>SOEYANTO LOPULUSI</v>
       </c>
-      <c r="I762" s="303"/>
-      <c r="J762" s="303"/>
-      <c r="K762" s="304"/>
+      <c r="I762" s="346"/>
+      <c r="J762" s="346"/>
+      <c r="K762" s="347"/>
       <c r="L762" s="202"/>
     </row>
     <row r="763" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -35731,14 +35731,14 @@
       <c r="C763" s="204"/>
       <c r="D763" s="205"/>
       <c r="E763" s="206"/>
-      <c r="F763" s="314" t="s">
+      <c r="F763" s="325" t="s">
         <v>3</v>
       </c>
       <c r="G763" s="207"/>
-      <c r="H763" s="305"/>
-      <c r="I763" s="305"/>
-      <c r="J763" s="305"/>
-      <c r="K763" s="306"/>
+      <c r="H763" s="348"/>
+      <c r="I763" s="348"/>
+      <c r="J763" s="348"/>
+      <c r="K763" s="349"/>
       <c r="L763" s="202"/>
     </row>
     <row r="764" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -35747,20 +35747,20 @@
         <v>4</v>
       </c>
       <c r="C764" s="197"/>
-      <c r="D764" s="315">
+      <c r="D764" s="326">
         <f>D726</f>
         <v>45028</v>
       </c>
-      <c r="E764" s="316"/>
-      <c r="F764" s="314"/>
+      <c r="E764" s="327"/>
+      <c r="F764" s="325"/>
       <c r="G764" s="208"/>
-      <c r="H764" s="317" t="str">
+      <c r="H764" s="328" t="str">
         <f>H726</f>
         <v>( LANCAR )</v>
       </c>
-      <c r="I764" s="317"/>
-      <c r="J764" s="317"/>
-      <c r="K764" s="318"/>
+      <c r="I764" s="328"/>
+      <c r="J764" s="328"/>
+      <c r="K764" s="329"/>
       <c r="L764" s="208"/>
     </row>
     <row r="765" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -35769,15 +35769,15 @@
       <c r="C765" s="204"/>
       <c r="D765" s="205"/>
       <c r="E765" s="206"/>
-      <c r="F765" s="314"/>
+      <c r="F765" s="325"/>
       <c r="G765" s="208"/>
-      <c r="H765" s="319" t="str">
+      <c r="H765" s="330" t="str">
         <f>H727</f>
         <v>MALANG</v>
       </c>
-      <c r="I765" s="319"/>
-      <c r="J765" s="319"/>
-      <c r="K765" s="320"/>
+      <c r="I765" s="330"/>
+      <c r="J765" s="330"/>
+      <c r="K765" s="331"/>
       <c r="L765" s="209"/>
     </row>
     <row r="766" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -35793,10 +35793,10 @@
       <c r="E766" s="199"/>
       <c r="F766" s="210"/>
       <c r="G766" s="211"/>
-      <c r="H766" s="321"/>
-      <c r="I766" s="321"/>
-      <c r="J766" s="321"/>
-      <c r="K766" s="322"/>
+      <c r="H766" s="332"/>
+      <c r="I766" s="332"/>
+      <c r="J766" s="332"/>
+      <c r="K766" s="333"/>
       <c r="L766" s="209"/>
     </row>
     <row r="767" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -36521,8 +36521,8 @@
       <c r="G787" s="250"/>
       <c r="H787" s="250"/>
       <c r="I787" s="251"/>
-      <c r="J787" s="323"/>
-      <c r="K787" s="302"/>
+      <c r="J787" s="318"/>
+      <c r="K787" s="319"/>
       <c r="L787" s="200"/>
     </row>
     <row r="788" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -36537,11 +36537,11 @@
       <c r="I788" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="J788" s="324">
+      <c r="J788" s="320">
         <f>SUM(K770:K785)</f>
         <v>19674550</v>
       </c>
-      <c r="K788" s="325"/>
+      <c r="K788" s="321"/>
       <c r="L788" s="225"/>
     </row>
     <row r="789" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -36554,8 +36554,8 @@
       <c r="G789" s="200"/>
       <c r="H789" s="200"/>
       <c r="I789" s="254"/>
-      <c r="J789" s="335"/>
-      <c r="K789" s="335"/>
+      <c r="J789" s="322"/>
+      <c r="K789" s="322"/>
       <c r="L789" s="200"/>
     </row>
     <row r="790" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -36590,8 +36590,8 @@
       <c r="G791" s="200"/>
       <c r="H791" s="200"/>
       <c r="I791" s="254"/>
-      <c r="J791" s="302"/>
-      <c r="K791" s="302"/>
+      <c r="J791" s="319"/>
+      <c r="K791" s="319"/>
       <c r="L791" s="200"/>
     </row>
     <row r="792" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -36610,11 +36610,11 @@
       <c r="I792" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="J792" s="326">
+      <c r="J792" s="323">
         <f>((J788/1.11)+(K790/1.11))*11%</f>
         <v>1949730.1801801801</v>
       </c>
-      <c r="K792" s="327"/>
+      <c r="K792" s="324"/>
       <c r="L792" s="259"/>
     </row>
     <row r="793" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -36627,8 +36627,8 @@
       <c r="G793" s="200"/>
       <c r="H793" s="200"/>
       <c r="I793" s="254"/>
-      <c r="J793" s="302"/>
-      <c r="K793" s="302"/>
+      <c r="J793" s="319"/>
+      <c r="K793" s="319"/>
       <c r="L793" s="200"/>
     </row>
     <row r="794" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -36678,11 +36678,11 @@
       <c r="I796" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="J796" s="328" t="str">
+      <c r="J796" s="314" t="str">
         <f>J758</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K796" s="329"/>
+      <c r="K796" s="315"/>
       <c r="L796" s="200"/>
     </row>
     <row r="797" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -36697,11 +36697,11 @@
       <c r="I797" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="J797" s="328">
+      <c r="J797" s="314">
         <f>J759</f>
         <v>0</v>
       </c>
-      <c r="K797" s="329"/>
+      <c r="K797" s="315"/>
       <c r="L797" s="250"/>
     </row>
     <row r="798" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -36740,12 +36740,12 @@
       <c r="G800" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H800" s="336" t="s">
+      <c r="H800" s="360" t="s">
         <v>30</v>
       </c>
-      <c r="I800" s="336"/>
-      <c r="J800" s="336"/>
-      <c r="K800" s="337"/>
+      <c r="I800" s="360"/>
+      <c r="J800" s="360"/>
+      <c r="K800" s="361"/>
       <c r="L800" s="12"/>
     </row>
     <row r="801" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -36754,14 +36754,14 @@
       <c r="C801" s="14"/>
       <c r="D801" s="15"/>
       <c r="E801" s="16"/>
-      <c r="F801" s="340" t="s">
+      <c r="F801" s="364" t="s">
         <v>3</v>
       </c>
       <c r="G801" s="17"/>
-      <c r="H801" s="338"/>
-      <c r="I801" s="338"/>
-      <c r="J801" s="338"/>
-      <c r="K801" s="339"/>
+      <c r="H801" s="362"/>
+      <c r="I801" s="362"/>
+      <c r="J801" s="362"/>
+      <c r="K801" s="363"/>
       <c r="L801" s="12"/>
     </row>
     <row r="802" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -36770,18 +36770,18 @@
         <v>4</v>
       </c>
       <c r="C802" s="7"/>
-      <c r="D802" s="341">
+      <c r="D802" s="334">
         <v>45028</v>
       </c>
-      <c r="E802" s="342"/>
-      <c r="F802" s="340"/>
+      <c r="E802" s="335"/>
+      <c r="F802" s="364"/>
       <c r="G802" s="18"/>
-      <c r="H802" s="343" t="s">
+      <c r="H802" s="336" t="s">
         <v>31</v>
       </c>
-      <c r="I802" s="343"/>
-      <c r="J802" s="343"/>
-      <c r="K802" s="344"/>
+      <c r="I802" s="336"/>
+      <c r="J802" s="336"/>
+      <c r="K802" s="337"/>
       <c r="L802" s="18"/>
     </row>
     <row r="803" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -36790,14 +36790,14 @@
       <c r="C803" s="14"/>
       <c r="D803" s="15"/>
       <c r="E803" s="16"/>
-      <c r="F803" s="340"/>
+      <c r="F803" s="364"/>
       <c r="G803" s="18"/>
-      <c r="H803" s="345" t="s">
+      <c r="H803" s="338" t="s">
         <v>32</v>
       </c>
-      <c r="I803" s="345"/>
-      <c r="J803" s="345"/>
-      <c r="K803" s="346"/>
+      <c r="I803" s="338"/>
+      <c r="J803" s="338"/>
+      <c r="K803" s="339"/>
       <c r="L803" s="19"/>
     </row>
     <row r="804" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -36812,10 +36812,10 @@
       <c r="E804" s="9"/>
       <c r="F804" s="21"/>
       <c r="G804" s="22"/>
-      <c r="H804" s="347"/>
-      <c r="I804" s="347"/>
-      <c r="J804" s="347"/>
-      <c r="K804" s="348"/>
+      <c r="H804" s="340"/>
+      <c r="I804" s="340"/>
+      <c r="J804" s="340"/>
+      <c r="K804" s="341"/>
       <c r="L804" s="19"/>
     </row>
     <row r="805" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -37236,8 +37236,8 @@
       <c r="G825" s="63"/>
       <c r="H825" s="63"/>
       <c r="I825" s="64"/>
-      <c r="J825" s="363"/>
-      <c r="K825" s="362"/>
+      <c r="J825" s="305"/>
+      <c r="K825" s="302"/>
     </row>
     <row r="826" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="5"/>
@@ -37247,11 +37247,11 @@
       <c r="I826" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J826" s="333">
+      <c r="J826" s="342">
         <f>SUM(K808:K823)</f>
         <v>4268256</v>
       </c>
-      <c r="K826" s="334"/>
+      <c r="K826" s="343"/>
       <c r="L826" s="36"/>
     </row>
     <row r="827" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -37260,8 +37260,8 @@
       <c r="C827" s="65"/>
       <c r="D827" s="25"/>
       <c r="I827" s="67"/>
-      <c r="J827" s="367"/>
-      <c r="K827" s="367"/>
+      <c r="J827" s="344"/>
+      <c r="K827" s="344"/>
     </row>
     <row r="828" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="5"/>
@@ -37284,8 +37284,8 @@
       <c r="C829" s="65"/>
       <c r="D829" s="25"/>
       <c r="I829" s="67"/>
-      <c r="J829" s="362"/>
-      <c r="K829" s="362"/>
+      <c r="J829" s="302"/>
+      <c r="K829" s="302"/>
     </row>
     <row r="830" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="5"/>
@@ -37300,11 +37300,11 @@
       <c r="I830" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="J830" s="365">
+      <c r="J830" s="303">
         <f>((J826/1.11)+(K828/1.11))*11%</f>
         <v>422980.32432432426</v>
       </c>
-      <c r="K830" s="366"/>
+      <c r="K830" s="304"/>
       <c r="L830" s="72"/>
     </row>
     <row r="831" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -37313,8 +37313,8 @@
       <c r="C831" s="65"/>
       <c r="D831" s="25"/>
       <c r="I831" s="67"/>
-      <c r="J831" s="362"/>
-      <c r="K831" s="362"/>
+      <c r="J831" s="302"/>
+      <c r="K831" s="302"/>
     </row>
     <row r="832" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="5"/>
@@ -37355,10 +37355,10 @@
       <c r="I834" s="270" t="s">
         <v>29</v>
       </c>
-      <c r="J834" s="330" t="s">
+      <c r="J834" s="354" t="s">
         <v>36</v>
       </c>
-      <c r="K834" s="331"/>
+      <c r="K834" s="355"/>
     </row>
     <row r="835" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="78"/>
@@ -37368,8 +37368,8 @@
       <c r="I835" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="J835" s="330"/>
-      <c r="K835" s="331"/>
+      <c r="J835" s="354"/>
+      <c r="K835" s="355"/>
       <c r="L835" s="63"/>
     </row>
     <row r="836" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -37414,13 +37414,13 @@
       <c r="G838" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="H838" s="358" t="str">
+      <c r="H838" s="356" t="str">
         <f>H800</f>
         <v>CV PELITA JAYA</v>
       </c>
-      <c r="I838" s="358"/>
-      <c r="J838" s="358"/>
-      <c r="K838" s="359"/>
+      <c r="I838" s="356"/>
+      <c r="J838" s="356"/>
+      <c r="K838" s="357"/>
       <c r="L838" s="125"/>
     </row>
     <row r="839" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37429,14 +37429,14 @@
       <c r="C839" s="127"/>
       <c r="D839" s="128"/>
       <c r="E839" s="129"/>
-      <c r="F839" s="349" t="s">
+      <c r="F839" s="345" t="s">
         <v>3</v>
       </c>
       <c r="G839" s="130"/>
-      <c r="H839" s="360"/>
-      <c r="I839" s="360"/>
-      <c r="J839" s="360"/>
-      <c r="K839" s="361"/>
+      <c r="H839" s="358"/>
+      <c r="I839" s="358"/>
+      <c r="J839" s="358"/>
+      <c r="K839" s="359"/>
       <c r="L839" s="125"/>
     </row>
     <row r="840" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37445,20 +37445,20 @@
         <v>4</v>
       </c>
       <c r="C840" s="120"/>
-      <c r="D840" s="350">
+      <c r="D840" s="310">
         <f>D802</f>
         <v>45028</v>
       </c>
-      <c r="E840" s="351"/>
-      <c r="F840" s="349"/>
+      <c r="E840" s="311"/>
+      <c r="F840" s="345"/>
       <c r="G840" s="131"/>
-      <c r="H840" s="352" t="str">
+      <c r="H840" s="312" t="str">
         <f>H802</f>
         <v>(ANUGERAH SEJAHTERA)</v>
       </c>
-      <c r="I840" s="352"/>
-      <c r="J840" s="352"/>
-      <c r="K840" s="353"/>
+      <c r="I840" s="312"/>
+      <c r="J840" s="312"/>
+      <c r="K840" s="313"/>
       <c r="L840" s="131"/>
     </row>
     <row r="841" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37467,15 +37467,15 @@
       <c r="C841" s="127"/>
       <c r="D841" s="128"/>
       <c r="E841" s="129"/>
-      <c r="F841" s="349"/>
+      <c r="F841" s="345"/>
       <c r="G841" s="131"/>
-      <c r="H841" s="354" t="str">
+      <c r="H841" s="306" t="str">
         <f>H803</f>
         <v>PURWOKERTO</v>
       </c>
-      <c r="I841" s="354"/>
-      <c r="J841" s="354"/>
-      <c r="K841" s="355"/>
+      <c r="I841" s="306"/>
+      <c r="J841" s="306"/>
+      <c r="K841" s="307"/>
       <c r="L841" s="132"/>
     </row>
     <row r="842" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -37491,10 +37491,10 @@
       <c r="E842" s="122"/>
       <c r="F842" s="133"/>
       <c r="G842" s="134"/>
-      <c r="H842" s="356"/>
-      <c r="I842" s="356"/>
-      <c r="J842" s="356"/>
-      <c r="K842" s="357"/>
+      <c r="H842" s="308"/>
+      <c r="I842" s="308"/>
+      <c r="J842" s="308"/>
+      <c r="K842" s="309"/>
       <c r="L842" s="132"/>
     </row>
     <row r="843" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -38219,8 +38219,8 @@
       <c r="G863" s="173"/>
       <c r="H863" s="173"/>
       <c r="I863" s="174"/>
-      <c r="J863" s="332"/>
-      <c r="K863" s="311"/>
+      <c r="J863" s="365"/>
+      <c r="K863" s="317"/>
       <c r="L863" s="123"/>
     </row>
     <row r="864" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -38235,11 +38235,11 @@
       <c r="I864" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="J864" s="307">
+      <c r="J864" s="366">
         <f>SUM(K846:K861)</f>
         <v>4268256</v>
       </c>
-      <c r="K864" s="308"/>
+      <c r="K864" s="367"/>
       <c r="L864" s="148"/>
     </row>
     <row r="865" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -38252,8 +38252,8 @@
       <c r="G865" s="123"/>
       <c r="H865" s="123"/>
       <c r="I865" s="177"/>
-      <c r="J865" s="364"/>
-      <c r="K865" s="364"/>
+      <c r="J865" s="316"/>
+      <c r="K865" s="316"/>
       <c r="L865" s="123"/>
     </row>
     <row r="866" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -38288,8 +38288,8 @@
       <c r="G867" s="123"/>
       <c r="H867" s="123"/>
       <c r="I867" s="177"/>
-      <c r="J867" s="311"/>
-      <c r="K867" s="311"/>
+      <c r="J867" s="317"/>
+      <c r="K867" s="317"/>
       <c r="L867" s="123"/>
     </row>
     <row r="868" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -38308,11 +38308,11 @@
       <c r="I868" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="J868" s="309">
+      <c r="J868" s="350">
         <f>((J864/1.11)+(K866/1.11))*11%</f>
         <v>422980.32432432426</v>
       </c>
-      <c r="K868" s="310"/>
+      <c r="K868" s="351"/>
       <c r="L868" s="182"/>
     </row>
     <row r="869" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -38325,8 +38325,8 @@
       <c r="G869" s="123"/>
       <c r="H869" s="123"/>
       <c r="I869" s="177"/>
-      <c r="J869" s="311"/>
-      <c r="K869" s="311"/>
+      <c r="J869" s="317"/>
+      <c r="K869" s="317"/>
       <c r="L869" s="123"/>
     </row>
     <row r="870" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -38376,11 +38376,11 @@
       <c r="I872" s="278" t="s">
         <v>29</v>
       </c>
-      <c r="J872" s="312" t="str">
+      <c r="J872" s="352" t="str">
         <f>J834</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K872" s="313"/>
+      <c r="K872" s="353"/>
       <c r="L872" s="123"/>
     </row>
     <row r="873" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -38395,11 +38395,11 @@
       <c r="I873" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="J873" s="312">
+      <c r="J873" s="352">
         <f>J835</f>
         <v>0</v>
       </c>
-      <c r="K873" s="313"/>
+      <c r="K873" s="353"/>
       <c r="L873" s="173"/>
     </row>
     <row r="874" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -38448,13 +38448,13 @@
       <c r="G876" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="H876" s="303" t="str">
+      <c r="H876" s="346" t="str">
         <f>H838</f>
         <v>CV PELITA JAYA</v>
       </c>
-      <c r="I876" s="303"/>
-      <c r="J876" s="303"/>
-      <c r="K876" s="304"/>
+      <c r="I876" s="346"/>
+      <c r="J876" s="346"/>
+      <c r="K876" s="347"/>
       <c r="L876" s="202"/>
     </row>
     <row r="877" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -38463,14 +38463,14 @@
       <c r="C877" s="204"/>
       <c r="D877" s="205"/>
       <c r="E877" s="206"/>
-      <c r="F877" s="314" t="s">
+      <c r="F877" s="325" t="s">
         <v>3</v>
       </c>
       <c r="G877" s="207"/>
-      <c r="H877" s="305"/>
-      <c r="I877" s="305"/>
-      <c r="J877" s="305"/>
-      <c r="K877" s="306"/>
+      <c r="H877" s="348"/>
+      <c r="I877" s="348"/>
+      <c r="J877" s="348"/>
+      <c r="K877" s="349"/>
       <c r="L877" s="202"/>
     </row>
     <row r="878" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -38479,20 +38479,20 @@
         <v>4</v>
       </c>
       <c r="C878" s="197"/>
-      <c r="D878" s="315">
+      <c r="D878" s="326">
         <f>D840</f>
         <v>45028</v>
       </c>
-      <c r="E878" s="316"/>
-      <c r="F878" s="314"/>
+      <c r="E878" s="327"/>
+      <c r="F878" s="325"/>
       <c r="G878" s="208"/>
-      <c r="H878" s="317" t="str">
+      <c r="H878" s="328" t="str">
         <f>H840</f>
         <v>(ANUGERAH SEJAHTERA)</v>
       </c>
-      <c r="I878" s="317"/>
-      <c r="J878" s="317"/>
-      <c r="K878" s="318"/>
+      <c r="I878" s="328"/>
+      <c r="J878" s="328"/>
+      <c r="K878" s="329"/>
       <c r="L878" s="208"/>
     </row>
     <row r="879" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -38501,15 +38501,15 @@
       <c r="C879" s="204"/>
       <c r="D879" s="205"/>
       <c r="E879" s="206"/>
-      <c r="F879" s="314"/>
+      <c r="F879" s="325"/>
       <c r="G879" s="208"/>
-      <c r="H879" s="319" t="str">
+      <c r="H879" s="330" t="str">
         <f>H841</f>
         <v>PURWOKERTO</v>
       </c>
-      <c r="I879" s="319"/>
-      <c r="J879" s="319"/>
-      <c r="K879" s="320"/>
+      <c r="I879" s="330"/>
+      <c r="J879" s="330"/>
+      <c r="K879" s="331"/>
       <c r="L879" s="209"/>
     </row>
     <row r="880" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -38525,10 +38525,10 @@
       <c r="E880" s="199"/>
       <c r="F880" s="210"/>
       <c r="G880" s="211"/>
-      <c r="H880" s="321"/>
-      <c r="I880" s="321"/>
-      <c r="J880" s="321"/>
-      <c r="K880" s="322"/>
+      <c r="H880" s="332"/>
+      <c r="I880" s="332"/>
+      <c r="J880" s="332"/>
+      <c r="K880" s="333"/>
       <c r="L880" s="209"/>
     </row>
     <row r="881" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -39253,8 +39253,8 @@
       <c r="G901" s="250"/>
       <c r="H901" s="250"/>
       <c r="I901" s="251"/>
-      <c r="J901" s="323"/>
-      <c r="K901" s="302"/>
+      <c r="J901" s="318"/>
+      <c r="K901" s="319"/>
       <c r="L901" s="200"/>
     </row>
     <row r="902" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -39269,11 +39269,11 @@
       <c r="I902" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="J902" s="324">
+      <c r="J902" s="320">
         <f>SUM(K884:K899)</f>
         <v>4268256</v>
       </c>
-      <c r="K902" s="325"/>
+      <c r="K902" s="321"/>
       <c r="L902" s="225"/>
     </row>
     <row r="903" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -39286,8 +39286,8 @@
       <c r="G903" s="200"/>
       <c r="H903" s="200"/>
       <c r="I903" s="254"/>
-      <c r="J903" s="335"/>
-      <c r="K903" s="335"/>
+      <c r="J903" s="322"/>
+      <c r="K903" s="322"/>
       <c r="L903" s="200"/>
     </row>
     <row r="904" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -39322,8 +39322,8 @@
       <c r="G905" s="200"/>
       <c r="H905" s="200"/>
       <c r="I905" s="254"/>
-      <c r="J905" s="302"/>
-      <c r="K905" s="302"/>
+      <c r="J905" s="319"/>
+      <c r="K905" s="319"/>
       <c r="L905" s="200"/>
     </row>
     <row r="906" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -39342,11 +39342,11 @@
       <c r="I906" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="J906" s="326">
+      <c r="J906" s="323">
         <f>((J902/1.11)+(K904/1.11))*11%</f>
         <v>422980.32432432426</v>
       </c>
-      <c r="K906" s="327"/>
+      <c r="K906" s="324"/>
       <c r="L906" s="259"/>
     </row>
     <row r="907" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -39359,8 +39359,8 @@
       <c r="G907" s="200"/>
       <c r="H907" s="200"/>
       <c r="I907" s="254"/>
-      <c r="J907" s="302"/>
-      <c r="K907" s="302"/>
+      <c r="J907" s="319"/>
+      <c r="K907" s="319"/>
       <c r="L907" s="200"/>
     </row>
     <row r="908" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -39410,11 +39410,11 @@
       <c r="I910" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="J910" s="328" t="str">
+      <c r="J910" s="314" t="str">
         <f>J872</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K910" s="329"/>
+      <c r="K910" s="315"/>
       <c r="L910" s="200"/>
     </row>
     <row r="911" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -39429,11 +39429,11 @@
       <c r="I911" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="J911" s="328">
+      <c r="J911" s="314">
         <f>J873</f>
         <v>0</v>
       </c>
-      <c r="K911" s="329"/>
+      <c r="K911" s="315"/>
       <c r="L911" s="250"/>
     </row>
     <row r="912" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -39472,12 +39472,12 @@
       <c r="G914" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H914" s="336" t="s">
+      <c r="H914" s="360" t="s">
         <v>74</v>
       </c>
-      <c r="I914" s="336"/>
-      <c r="J914" s="336"/>
-      <c r="K914" s="337"/>
+      <c r="I914" s="360"/>
+      <c r="J914" s="360"/>
+      <c r="K914" s="361"/>
       <c r="L914" s="12"/>
     </row>
     <row r="915" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -39486,14 +39486,14 @@
       <c r="C915" s="14"/>
       <c r="D915" s="15"/>
       <c r="E915" s="16"/>
-      <c r="F915" s="340" t="s">
+      <c r="F915" s="364" t="s">
         <v>3</v>
       </c>
       <c r="G915" s="17"/>
-      <c r="H915" s="338"/>
-      <c r="I915" s="338"/>
-      <c r="J915" s="338"/>
-      <c r="K915" s="339"/>
+      <c r="H915" s="362"/>
+      <c r="I915" s="362"/>
+      <c r="J915" s="362"/>
+      <c r="K915" s="363"/>
       <c r="L915" s="12"/>
     </row>
     <row r="916" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -39502,18 +39502,18 @@
         <v>4</v>
       </c>
       <c r="C916" s="7"/>
-      <c r="D916" s="341">
+      <c r="D916" s="334">
         <v>45030</v>
       </c>
-      <c r="E916" s="342"/>
-      <c r="F916" s="340"/>
+      <c r="E916" s="335"/>
+      <c r="F916" s="364"/>
       <c r="G916" s="18"/>
-      <c r="H916" s="343" t="s">
+      <c r="H916" s="336" t="s">
         <v>75</v>
       </c>
-      <c r="I916" s="343"/>
-      <c r="J916" s="343"/>
-      <c r="K916" s="344"/>
+      <c r="I916" s="336"/>
+      <c r="J916" s="336"/>
+      <c r="K916" s="337"/>
       <c r="L916" s="18"/>
     </row>
     <row r="917" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -39522,14 +39522,14 @@
       <c r="C917" s="14"/>
       <c r="D917" s="15"/>
       <c r="E917" s="16"/>
-      <c r="F917" s="340"/>
+      <c r="F917" s="364"/>
       <c r="G917" s="18"/>
-      <c r="H917" s="345" t="s">
+      <c r="H917" s="338" t="s">
         <v>32</v>
       </c>
-      <c r="I917" s="345"/>
-      <c r="J917" s="345"/>
-      <c r="K917" s="346"/>
+      <c r="I917" s="338"/>
+      <c r="J917" s="338"/>
+      <c r="K917" s="339"/>
       <c r="L917" s="19"/>
     </row>
     <row r="918" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -39544,10 +39544,10 @@
       <c r="E918" s="9"/>
       <c r="F918" s="21"/>
       <c r="G918" s="22"/>
-      <c r="H918" s="347"/>
-      <c r="I918" s="347"/>
-      <c r="J918" s="347"/>
-      <c r="K918" s="348"/>
+      <c r="H918" s="340"/>
+      <c r="I918" s="340"/>
+      <c r="J918" s="340"/>
+      <c r="K918" s="341"/>
       <c r="L918" s="19"/>
     </row>
     <row r="919" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -39942,8 +39942,8 @@
       <c r="G939" s="63"/>
       <c r="H939" s="63"/>
       <c r="I939" s="64"/>
-      <c r="J939" s="363"/>
-      <c r="K939" s="362"/>
+      <c r="J939" s="305"/>
+      <c r="K939" s="302"/>
     </row>
     <row r="940" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="5"/>
@@ -39953,11 +39953,11 @@
       <c r="I940" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J940" s="333">
+      <c r="J940" s="342">
         <f>SUM(K922:K937)</f>
         <v>1800000</v>
       </c>
-      <c r="K940" s="334"/>
+      <c r="K940" s="343"/>
       <c r="L940" s="36"/>
     </row>
     <row r="941" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -39966,8 +39966,8 @@
       <c r="C941" s="65"/>
       <c r="D941" s="25"/>
       <c r="I941" s="67"/>
-      <c r="J941" s="367"/>
-      <c r="K941" s="367"/>
+      <c r="J941" s="344"/>
+      <c r="K941" s="344"/>
     </row>
     <row r="942" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="5"/>
@@ -39990,8 +39990,8 @@
       <c r="C943" s="65"/>
       <c r="D943" s="25"/>
       <c r="I943" s="67"/>
-      <c r="J943" s="362"/>
-      <c r="K943" s="362"/>
+      <c r="J943" s="302"/>
+      <c r="K943" s="302"/>
     </row>
     <row r="944" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="5"/>
@@ -40006,11 +40006,11 @@
       <c r="I944" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="J944" s="365">
+      <c r="J944" s="303">
         <f>((J940/1.11)+(K942/1.11))*11%</f>
         <v>178378.37837837837</v>
       </c>
-      <c r="K944" s="366"/>
+      <c r="K944" s="304"/>
       <c r="L944" s="72"/>
     </row>
     <row r="945" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -40019,8 +40019,8 @@
       <c r="C945" s="65"/>
       <c r="D945" s="25"/>
       <c r="I945" s="67"/>
-      <c r="J945" s="362"/>
-      <c r="K945" s="362"/>
+      <c r="J945" s="302"/>
+      <c r="K945" s="302"/>
     </row>
     <row r="946" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="5"/>
@@ -40061,10 +40061,10 @@
       <c r="I948" s="270" t="s">
         <v>29</v>
       </c>
-      <c r="J948" s="330" t="s">
+      <c r="J948" s="354" t="s">
         <v>78</v>
       </c>
-      <c r="K948" s="331"/>
+      <c r="K948" s="355"/>
     </row>
     <row r="949" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="78"/>
@@ -40074,8 +40074,8 @@
       <c r="I949" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="J949" s="330"/>
-      <c r="K949" s="331"/>
+      <c r="J949" s="354"/>
+      <c r="K949" s="355"/>
       <c r="L949" s="63"/>
     </row>
     <row r="950" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -40120,13 +40120,13 @@
       <c r="G952" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="H952" s="358" t="str">
+      <c r="H952" s="356" t="str">
         <f>H914</f>
         <v>CV TRINITY CENTRAAL</v>
       </c>
-      <c r="I952" s="358"/>
-      <c r="J952" s="358"/>
-      <c r="K952" s="359"/>
+      <c r="I952" s="356"/>
+      <c r="J952" s="356"/>
+      <c r="K952" s="357"/>
       <c r="L952" s="125"/>
     </row>
     <row r="953" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -40135,14 +40135,14 @@
       <c r="C953" s="127"/>
       <c r="D953" s="128"/>
       <c r="E953" s="129"/>
-      <c r="F953" s="349" t="s">
+      <c r="F953" s="345" t="s">
         <v>3</v>
       </c>
       <c r="G953" s="130"/>
-      <c r="H953" s="360"/>
-      <c r="I953" s="360"/>
-      <c r="J953" s="360"/>
-      <c r="K953" s="361"/>
+      <c r="H953" s="358"/>
+      <c r="I953" s="358"/>
+      <c r="J953" s="358"/>
+      <c r="K953" s="359"/>
       <c r="L953" s="125"/>
     </row>
     <row r="954" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -40151,20 +40151,20 @@
         <v>4</v>
       </c>
       <c r="C954" s="120"/>
-      <c r="D954" s="350">
+      <c r="D954" s="310">
         <f>D916</f>
         <v>45030</v>
       </c>
-      <c r="E954" s="351"/>
-      <c r="F954" s="349"/>
+      <c r="E954" s="311"/>
+      <c r="F954" s="345"/>
       <c r="G954" s="131"/>
-      <c r="H954" s="352" t="str">
+      <c r="H954" s="312" t="str">
         <f>H916</f>
         <v/>
       </c>
-      <c r="I954" s="352"/>
-      <c r="J954" s="352"/>
-      <c r="K954" s="353"/>
+      <c r="I954" s="312"/>
+      <c r="J954" s="312"/>
+      <c r="K954" s="313"/>
       <c r="L954" s="131"/>
     </row>
     <row r="955" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -40173,15 +40173,15 @@
       <c r="C955" s="127"/>
       <c r="D955" s="128"/>
       <c r="E955" s="129"/>
-      <c r="F955" s="349"/>
+      <c r="F955" s="345"/>
       <c r="G955" s="131"/>
-      <c r="H955" s="354" t="str">
+      <c r="H955" s="306" t="str">
         <f>H917</f>
         <v>PURWOKERTO</v>
       </c>
-      <c r="I955" s="354"/>
-      <c r="J955" s="354"/>
-      <c r="K955" s="355"/>
+      <c r="I955" s="306"/>
+      <c r="J955" s="306"/>
+      <c r="K955" s="307"/>
       <c r="L955" s="132"/>
     </row>
     <row r="956" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -40197,10 +40197,10 @@
       <c r="E956" s="122"/>
       <c r="F956" s="133"/>
       <c r="G956" s="134"/>
-      <c r="H956" s="356"/>
-      <c r="I956" s="356"/>
-      <c r="J956" s="356"/>
-      <c r="K956" s="357"/>
+      <c r="H956" s="308"/>
+      <c r="I956" s="308"/>
+      <c r="J956" s="308"/>
+      <c r="K956" s="309"/>
       <c r="L956" s="132"/>
     </row>
     <row r="957" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -40925,8 +40925,8 @@
       <c r="G977" s="173"/>
       <c r="H977" s="173"/>
       <c r="I977" s="174"/>
-      <c r="J977" s="332"/>
-      <c r="K977" s="311"/>
+      <c r="J977" s="365"/>
+      <c r="K977" s="317"/>
       <c r="L977" s="123"/>
     </row>
     <row r="978" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -40941,11 +40941,11 @@
       <c r="I978" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="J978" s="307">
+      <c r="J978" s="366">
         <f>SUM(K960:K975)</f>
         <v>1800000</v>
       </c>
-      <c r="K978" s="308"/>
+      <c r="K978" s="367"/>
       <c r="L978" s="148"/>
     </row>
     <row r="979" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -40958,8 +40958,8 @@
       <c r="G979" s="123"/>
       <c r="H979" s="123"/>
       <c r="I979" s="177"/>
-      <c r="J979" s="364"/>
-      <c r="K979" s="364"/>
+      <c r="J979" s="316"/>
+      <c r="K979" s="316"/>
       <c r="L979" s="123"/>
     </row>
     <row r="980" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -40994,8 +40994,8 @@
       <c r="G981" s="123"/>
       <c r="H981" s="123"/>
       <c r="I981" s="177"/>
-      <c r="J981" s="311"/>
-      <c r="K981" s="311"/>
+      <c r="J981" s="317"/>
+      <c r="K981" s="317"/>
       <c r="L981" s="123"/>
     </row>
     <row r="982" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41014,11 +41014,11 @@
       <c r="I982" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="J982" s="309">
+      <c r="J982" s="350">
         <f>((J978/1.11)+(K980/1.11))*11%</f>
         <v>178378.37837837837</v>
       </c>
-      <c r="K982" s="310"/>
+      <c r="K982" s="351"/>
       <c r="L982" s="182"/>
     </row>
     <row r="983" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -41031,8 +41031,8 @@
       <c r="G983" s="123"/>
       <c r="H983" s="123"/>
       <c r="I983" s="177"/>
-      <c r="J983" s="311"/>
-      <c r="K983" s="311"/>
+      <c r="J983" s="317"/>
+      <c r="K983" s="317"/>
       <c r="L983" s="123"/>
     </row>
     <row r="984" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41082,11 +41082,11 @@
       <c r="I986" s="278" t="s">
         <v>29</v>
       </c>
-      <c r="J986" s="312" t="str">
+      <c r="J986" s="352" t="str">
         <f>J948</f>
         <v>NOVI / YO</v>
       </c>
-      <c r="K986" s="313"/>
+      <c r="K986" s="353"/>
       <c r="L986" s="123"/>
     </row>
     <row r="987" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -41101,11 +41101,11 @@
       <c r="I987" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="J987" s="312">
+      <c r="J987" s="352">
         <f>J949</f>
         <v>0</v>
       </c>
-      <c r="K987" s="313"/>
+      <c r="K987" s="353"/>
       <c r="L987" s="173"/>
     </row>
     <row r="988" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -41154,13 +41154,13 @@
       <c r="G990" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="H990" s="303" t="str">
+      <c r="H990" s="346" t="str">
         <f>H952</f>
         <v>CV TRINITY CENTRAAL</v>
       </c>
-      <c r="I990" s="303"/>
-      <c r="J990" s="303"/>
-      <c r="K990" s="304"/>
+      <c r="I990" s="346"/>
+      <c r="J990" s="346"/>
+      <c r="K990" s="347"/>
       <c r="L990" s="202"/>
     </row>
     <row r="991" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41169,14 +41169,14 @@
       <c r="C991" s="204"/>
       <c r="D991" s="205"/>
       <c r="E991" s="206"/>
-      <c r="F991" s="314" t="s">
+      <c r="F991" s="325" t="s">
         <v>3</v>
       </c>
       <c r="G991" s="207"/>
-      <c r="H991" s="305"/>
-      <c r="I991" s="305"/>
-      <c r="J991" s="305"/>
-      <c r="K991" s="306"/>
+      <c r="H991" s="348"/>
+      <c r="I991" s="348"/>
+      <c r="J991" s="348"/>
+      <c r="K991" s="349"/>
       <c r="L991" s="202"/>
     </row>
     <row r="992" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41185,20 +41185,20 @@
         <v>4</v>
       </c>
       <c r="C992" s="197"/>
-      <c r="D992" s="315">
+      <c r="D992" s="326">
         <f>D954</f>
         <v>45030</v>
       </c>
-      <c r="E992" s="316"/>
-      <c r="F992" s="314"/>
+      <c r="E992" s="327"/>
+      <c r="F992" s="325"/>
       <c r="G992" s="208"/>
-      <c r="H992" s="317" t="str">
+      <c r="H992" s="328" t="str">
         <f>H954</f>
         <v/>
       </c>
-      <c r="I992" s="317"/>
-      <c r="J992" s="317"/>
-      <c r="K992" s="318"/>
+      <c r="I992" s="328"/>
+      <c r="J992" s="328"/>
+      <c r="K992" s="329"/>
       <c r="L992" s="208"/>
     </row>
     <row r="993" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41207,15 +41207,15 @@
       <c r="C993" s="204"/>
       <c r="D993" s="205"/>
       <c r="E993" s="206"/>
-      <c r="F993" s="314"/>
+      <c r="F993" s="325"/>
       <c r="G993" s="208"/>
-      <c r="H993" s="319" t="str">
+      <c r="H993" s="330" t="str">
         <f>H955</f>
         <v>PURWOKERTO</v>
       </c>
-      <c r="I993" s="319"/>
-      <c r="J993" s="319"/>
-      <c r="K993" s="320"/>
+      <c r="I993" s="330"/>
+      <c r="J993" s="330"/>
+      <c r="K993" s="331"/>
       <c r="L993" s="209"/>
     </row>
     <row r="994" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -41231,10 +41231,10 @@
       <c r="E994" s="199"/>
       <c r="F994" s="210"/>
       <c r="G994" s="211"/>
-      <c r="H994" s="321"/>
-      <c r="I994" s="321"/>
-      <c r="J994" s="321"/>
-      <c r="K994" s="322"/>
+      <c r="H994" s="332"/>
+      <c r="I994" s="332"/>
+      <c r="J994" s="332"/>
+      <c r="K994" s="333"/>
       <c r="L994" s="209"/>
     </row>
     <row r="995" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -41959,8 +41959,8 @@
       <c r="G1015" s="250"/>
       <c r="H1015" s="250"/>
       <c r="I1015" s="251"/>
-      <c r="J1015" s="323"/>
-      <c r="K1015" s="302"/>
+      <c r="J1015" s="318"/>
+      <c r="K1015" s="319"/>
       <c r="L1015" s="200"/>
     </row>
     <row r="1016" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41975,11 +41975,11 @@
       <c r="I1016" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="J1016" s="324">
+      <c r="J1016" s="320">
         <f>SUM(K998:K1013)</f>
         <v>1800000</v>
       </c>
-      <c r="K1016" s="325"/>
+      <c r="K1016" s="321"/>
       <c r="L1016" s="225"/>
     </row>
     <row r="1017" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -41992,8 +41992,8 @@
       <c r="G1017" s="200"/>
       <c r="H1017" s="200"/>
       <c r="I1017" s="254"/>
-      <c r="J1017" s="335"/>
-      <c r="K1017" s="335"/>
+      <c r="J1017" s="322"/>
+      <c r="K1017" s="322"/>
       <c r="L1017" s="200"/>
     </row>
     <row r="1018" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42028,8 +42028,8 @@
       <c r="G1019" s="200"/>
       <c r="H1019" s="200"/>
       <c r="I1019" s="254"/>
-      <c r="J1019" s="302"/>
-      <c r="K1019" s="302"/>
+      <c r="J1019" s="319"/>
+      <c r="K1019" s="319"/>
       <c r="L1019" s="200"/>
     </row>
     <row r="1020" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42048,11 +42048,11 @@
       <c r="I1020" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="J1020" s="326">
+      <c r="J1020" s="323">
         <f>((J1016/1.11)+(K1018/1.11))*11%</f>
         <v>178378.37837837837</v>
       </c>
-      <c r="K1020" s="327"/>
+      <c r="K1020" s="324"/>
       <c r="L1020" s="259"/>
     </row>
     <row r="1021" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -42065,8 +42065,8 @@
       <c r="G1021" s="200"/>
       <c r="H1021" s="200"/>
       <c r="I1021" s="254"/>
-      <c r="J1021" s="302"/>
-      <c r="K1021" s="302"/>
+      <c r="J1021" s="319"/>
+      <c r="K1021" s="319"/>
       <c r="L1021" s="200"/>
     </row>
     <row r="1022" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42116,11 +42116,11 @@
       <c r="I1024" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="J1024" s="328" t="str">
+      <c r="J1024" s="314" t="str">
         <f>J986</f>
         <v>NOVI / YO</v>
       </c>
-      <c r="K1024" s="329"/>
+      <c r="K1024" s="315"/>
       <c r="L1024" s="200"/>
     </row>
     <row r="1025" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -42135,11 +42135,11 @@
       <c r="I1025" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="J1025" s="328">
+      <c r="J1025" s="314">
         <f>J987</f>
         <v>0</v>
       </c>
-      <c r="K1025" s="329"/>
+      <c r="K1025" s="315"/>
       <c r="L1025" s="250"/>
     </row>
     <row r="1026" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -42178,12 +42178,12 @@
       <c r="G1028" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1028" s="336" t="s">
+      <c r="H1028" s="360" t="s">
         <v>80</v>
       </c>
-      <c r="I1028" s="336"/>
-      <c r="J1028" s="336"/>
-      <c r="K1028" s="337"/>
+      <c r="I1028" s="360"/>
+      <c r="J1028" s="360"/>
+      <c r="K1028" s="361"/>
       <c r="L1028" s="12"/>
     </row>
     <row r="1029" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42192,14 +42192,14 @@
       <c r="C1029" s="14"/>
       <c r="D1029" s="15"/>
       <c r="E1029" s="16"/>
-      <c r="F1029" s="340" t="s">
+      <c r="F1029" s="364" t="s">
         <v>3</v>
       </c>
       <c r="G1029" s="17"/>
-      <c r="H1029" s="338"/>
-      <c r="I1029" s="338"/>
-      <c r="J1029" s="338"/>
-      <c r="K1029" s="339"/>
+      <c r="H1029" s="362"/>
+      <c r="I1029" s="362"/>
+      <c r="J1029" s="362"/>
+      <c r="K1029" s="363"/>
       <c r="L1029" s="12"/>
     </row>
     <row r="1030" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42208,18 +42208,18 @@
         <v>4</v>
       </c>
       <c r="C1030" s="7"/>
-      <c r="D1030" s="341">
+      <c r="D1030" s="334">
         <v>45030</v>
       </c>
-      <c r="E1030" s="342"/>
-      <c r="F1030" s="340"/>
+      <c r="E1030" s="335"/>
+      <c r="F1030" s="364"/>
       <c r="G1030" s="18"/>
-      <c r="H1030" s="343" t="s">
+      <c r="H1030" s="336" t="s">
         <v>75</v>
       </c>
-      <c r="I1030" s="343"/>
-      <c r="J1030" s="343"/>
-      <c r="K1030" s="344"/>
+      <c r="I1030" s="336"/>
+      <c r="J1030" s="336"/>
+      <c r="K1030" s="337"/>
       <c r="L1030" s="18"/>
     </row>
     <row r="1031" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42228,14 +42228,14 @@
       <c r="C1031" s="14"/>
       <c r="D1031" s="15"/>
       <c r="E1031" s="16"/>
-      <c r="F1031" s="340"/>
+      <c r="F1031" s="364"/>
       <c r="G1031" s="18"/>
-      <c r="H1031" s="345" t="s">
+      <c r="H1031" s="338" t="s">
         <v>81</v>
       </c>
-      <c r="I1031" s="345"/>
-      <c r="J1031" s="345"/>
-      <c r="K1031" s="346"/>
+      <c r="I1031" s="338"/>
+      <c r="J1031" s="338"/>
+      <c r="K1031" s="339"/>
       <c r="L1031" s="19"/>
     </row>
     <row r="1032" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -42250,10 +42250,10 @@
       <c r="E1032" s="9"/>
       <c r="F1032" s="21"/>
       <c r="G1032" s="22"/>
-      <c r="H1032" s="347"/>
-      <c r="I1032" s="347"/>
-      <c r="J1032" s="347"/>
-      <c r="K1032" s="348"/>
+      <c r="H1032" s="340"/>
+      <c r="I1032" s="340"/>
+      <c r="J1032" s="340"/>
+      <c r="K1032" s="341"/>
       <c r="L1032" s="19"/>
     </row>
     <row r="1033" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -42704,8 +42704,8 @@
       <c r="G1053" s="63"/>
       <c r="H1053" s="63"/>
       <c r="I1053" s="64"/>
-      <c r="J1053" s="363"/>
-      <c r="K1053" s="362"/>
+      <c r="J1053" s="305"/>
+      <c r="K1053" s="302"/>
     </row>
     <row r="1054" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1054" s="5"/>
@@ -42715,11 +42715,11 @@
       <c r="I1054" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J1054" s="333">
+      <c r="J1054" s="342">
         <f>SUM(K1036:K1051)</f>
         <v>1524500</v>
       </c>
-      <c r="K1054" s="334"/>
+      <c r="K1054" s="343"/>
       <c r="L1054" s="36"/>
     </row>
     <row r="1055" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -42728,8 +42728,8 @@
       <c r="C1055" s="65"/>
       <c r="D1055" s="25"/>
       <c r="I1055" s="67"/>
-      <c r="J1055" s="367"/>
-      <c r="K1055" s="367"/>
+      <c r="J1055" s="344"/>
+      <c r="K1055" s="344"/>
     </row>
     <row r="1056" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1056" s="5"/>
@@ -42752,8 +42752,8 @@
       <c r="C1057" s="65"/>
       <c r="D1057" s="25"/>
       <c r="I1057" s="67"/>
-      <c r="J1057" s="362"/>
-      <c r="K1057" s="362"/>
+      <c r="J1057" s="302"/>
+      <c r="K1057" s="302"/>
     </row>
     <row r="1058" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1058" s="5"/>
@@ -42768,11 +42768,11 @@
       <c r="I1058" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="J1058" s="365">
+      <c r="J1058" s="303">
         <f>((J1054/1.11)+(K1056/1.11))*11%</f>
         <v>151076.57657657654</v>
       </c>
-      <c r="K1058" s="366"/>
+      <c r="K1058" s="304"/>
       <c r="L1058" s="72"/>
     </row>
     <row r="1059" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -42781,8 +42781,8 @@
       <c r="C1059" s="65"/>
       <c r="D1059" s="25"/>
       <c r="I1059" s="67"/>
-      <c r="J1059" s="362"/>
-      <c r="K1059" s="362"/>
+      <c r="J1059" s="302"/>
+      <c r="K1059" s="302"/>
     </row>
     <row r="1060" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1060" s="5"/>
@@ -42823,10 +42823,10 @@
       <c r="I1062" s="270" t="s">
         <v>29</v>
       </c>
-      <c r="J1062" s="330" t="s">
+      <c r="J1062" s="354" t="s">
         <v>91</v>
       </c>
-      <c r="K1062" s="331"/>
+      <c r="K1062" s="355"/>
     </row>
     <row r="1063" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1063" s="78"/>
@@ -42836,8 +42836,8 @@
       <c r="I1063" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="J1063" s="330"/>
-      <c r="K1063" s="331"/>
+      <c r="J1063" s="354"/>
+      <c r="K1063" s="355"/>
       <c r="L1063" s="63"/>
     </row>
     <row r="1064" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -42882,13 +42882,13 @@
       <c r="G1066" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="H1066" s="358" t="str">
+      <c r="H1066" s="356" t="str">
         <f>H1028</f>
         <v>SINAR BHAKTI</v>
       </c>
-      <c r="I1066" s="358"/>
-      <c r="J1066" s="358"/>
-      <c r="K1066" s="359"/>
+      <c r="I1066" s="356"/>
+      <c r="J1066" s="356"/>
+      <c r="K1066" s="357"/>
       <c r="L1066" s="125"/>
     </row>
     <row r="1067" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42897,14 +42897,14 @@
       <c r="C1067" s="127"/>
       <c r="D1067" s="128"/>
       <c r="E1067" s="129"/>
-      <c r="F1067" s="349" t="s">
+      <c r="F1067" s="345" t="s">
         <v>3</v>
       </c>
       <c r="G1067" s="130"/>
-      <c r="H1067" s="360"/>
-      <c r="I1067" s="360"/>
-      <c r="J1067" s="360"/>
-      <c r="K1067" s="361"/>
+      <c r="H1067" s="358"/>
+      <c r="I1067" s="358"/>
+      <c r="J1067" s="358"/>
+      <c r="K1067" s="359"/>
       <c r="L1067" s="125"/>
     </row>
     <row r="1068" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42913,20 +42913,20 @@
         <v>4</v>
       </c>
       <c r="C1068" s="120"/>
-      <c r="D1068" s="350">
+      <c r="D1068" s="310">
         <f>D1030</f>
         <v>45030</v>
       </c>
-      <c r="E1068" s="351"/>
-      <c r="F1068" s="349"/>
+      <c r="E1068" s="311"/>
+      <c r="F1068" s="345"/>
       <c r="G1068" s="131"/>
-      <c r="H1068" s="352" t="str">
+      <c r="H1068" s="312" t="str">
         <f>H1030</f>
         <v/>
       </c>
-      <c r="I1068" s="352"/>
-      <c r="J1068" s="352"/>
-      <c r="K1068" s="353"/>
+      <c r="I1068" s="312"/>
+      <c r="J1068" s="312"/>
+      <c r="K1068" s="313"/>
       <c r="L1068" s="131"/>
     </row>
     <row r="1069" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42935,15 +42935,15 @@
       <c r="C1069" s="127"/>
       <c r="D1069" s="128"/>
       <c r="E1069" s="129"/>
-      <c r="F1069" s="349"/>
+      <c r="F1069" s="345"/>
       <c r="G1069" s="131"/>
-      <c r="H1069" s="354" t="str">
+      <c r="H1069" s="306" t="str">
         <f>H1031</f>
         <v>YOGYAKARTA</v>
       </c>
-      <c r="I1069" s="354"/>
-      <c r="J1069" s="354"/>
-      <c r="K1069" s="355"/>
+      <c r="I1069" s="306"/>
+      <c r="J1069" s="306"/>
+      <c r="K1069" s="307"/>
       <c r="L1069" s="132"/>
     </row>
     <row r="1070" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -42959,10 +42959,10 @@
       <c r="E1070" s="122"/>
       <c r="F1070" s="133"/>
       <c r="G1070" s="134"/>
-      <c r="H1070" s="356"/>
-      <c r="I1070" s="356"/>
-      <c r="J1070" s="356"/>
-      <c r="K1070" s="357"/>
+      <c r="H1070" s="308"/>
+      <c r="I1070" s="308"/>
+      <c r="J1070" s="308"/>
+      <c r="K1070" s="309"/>
       <c r="L1070" s="132"/>
     </row>
     <row r="1071" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -43687,8 +43687,8 @@
       <c r="G1091" s="173"/>
       <c r="H1091" s="173"/>
       <c r="I1091" s="174"/>
-      <c r="J1091" s="332"/>
-      <c r="K1091" s="311"/>
+      <c r="J1091" s="365"/>
+      <c r="K1091" s="317"/>
       <c r="L1091" s="123"/>
     </row>
     <row r="1092" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43703,11 +43703,11 @@
       <c r="I1092" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="J1092" s="307">
+      <c r="J1092" s="366">
         <f>SUM(K1074:K1089)</f>
         <v>1524500</v>
       </c>
-      <c r="K1092" s="308"/>
+      <c r="K1092" s="367"/>
       <c r="L1092" s="148"/>
     </row>
     <row r="1093" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -43720,8 +43720,8 @@
       <c r="G1093" s="123"/>
       <c r="H1093" s="123"/>
       <c r="I1093" s="177"/>
-      <c r="J1093" s="364"/>
-      <c r="K1093" s="364"/>
+      <c r="J1093" s="316"/>
+      <c r="K1093" s="316"/>
       <c r="L1093" s="123"/>
     </row>
     <row r="1094" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43756,8 +43756,8 @@
       <c r="G1095" s="123"/>
       <c r="H1095" s="123"/>
       <c r="I1095" s="177"/>
-      <c r="J1095" s="311"/>
-      <c r="K1095" s="311"/>
+      <c r="J1095" s="317"/>
+      <c r="K1095" s="317"/>
       <c r="L1095" s="123"/>
     </row>
     <row r="1096" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43776,11 +43776,11 @@
       <c r="I1096" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="J1096" s="309">
+      <c r="J1096" s="350">
         <f>((J1092/1.11)+(K1094/1.11))*11%</f>
         <v>151076.57657657654</v>
       </c>
-      <c r="K1096" s="310"/>
+      <c r="K1096" s="351"/>
       <c r="L1096" s="182"/>
     </row>
     <row r="1097" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -43793,8 +43793,8 @@
       <c r="G1097" s="123"/>
       <c r="H1097" s="123"/>
       <c r="I1097" s="177"/>
-      <c r="J1097" s="311"/>
-      <c r="K1097" s="311"/>
+      <c r="J1097" s="317"/>
+      <c r="K1097" s="317"/>
       <c r="L1097" s="123"/>
     </row>
     <row r="1098" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43844,11 +43844,11 @@
       <c r="I1100" s="278" t="s">
         <v>29</v>
       </c>
-      <c r="J1100" s="312" t="str">
+      <c r="J1100" s="352" t="str">
         <f>J1062</f>
         <v>RISMA / YO</v>
       </c>
-      <c r="K1100" s="313"/>
+      <c r="K1100" s="353"/>
       <c r="L1100" s="123"/>
     </row>
     <row r="1101" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -43863,11 +43863,11 @@
       <c r="I1101" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="J1101" s="312">
+      <c r="J1101" s="352">
         <f>J1063</f>
         <v>0</v>
       </c>
-      <c r="K1101" s="313"/>
+      <c r="K1101" s="353"/>
       <c r="L1101" s="173"/>
     </row>
     <row r="1102" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -43916,13 +43916,13 @@
       <c r="G1104" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="H1104" s="303" t="str">
+      <c r="H1104" s="346" t="str">
         <f>H1066</f>
         <v>SINAR BHAKTI</v>
       </c>
-      <c r="I1104" s="303"/>
-      <c r="J1104" s="303"/>
-      <c r="K1104" s="304"/>
+      <c r="I1104" s="346"/>
+      <c r="J1104" s="346"/>
+      <c r="K1104" s="347"/>
       <c r="L1104" s="202"/>
     </row>
     <row r="1105" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43931,14 +43931,14 @@
       <c r="C1105" s="204"/>
       <c r="D1105" s="205"/>
       <c r="E1105" s="206"/>
-      <c r="F1105" s="314" t="s">
+      <c r="F1105" s="325" t="s">
         <v>3</v>
       </c>
       <c r="G1105" s="207"/>
-      <c r="H1105" s="305"/>
-      <c r="I1105" s="305"/>
-      <c r="J1105" s="305"/>
-      <c r="K1105" s="306"/>
+      <c r="H1105" s="348"/>
+      <c r="I1105" s="348"/>
+      <c r="J1105" s="348"/>
+      <c r="K1105" s="349"/>
       <c r="L1105" s="202"/>
     </row>
     <row r="1106" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43947,20 +43947,20 @@
         <v>4</v>
       </c>
       <c r="C1106" s="197"/>
-      <c r="D1106" s="315">
+      <c r="D1106" s="326">
         <f>D1068</f>
         <v>45030</v>
       </c>
-      <c r="E1106" s="316"/>
-      <c r="F1106" s="314"/>
+      <c r="E1106" s="327"/>
+      <c r="F1106" s="325"/>
       <c r="G1106" s="208"/>
-      <c r="H1106" s="317" t="str">
+      <c r="H1106" s="328" t="str">
         <f>H1068</f>
         <v/>
       </c>
-      <c r="I1106" s="317"/>
-      <c r="J1106" s="317"/>
-      <c r="K1106" s="318"/>
+      <c r="I1106" s="328"/>
+      <c r="J1106" s="328"/>
+      <c r="K1106" s="329"/>
       <c r="L1106" s="208"/>
     </row>
     <row r="1107" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43969,15 +43969,15 @@
       <c r="C1107" s="204"/>
       <c r="D1107" s="205"/>
       <c r="E1107" s="206"/>
-      <c r="F1107" s="314"/>
+      <c r="F1107" s="325"/>
       <c r="G1107" s="208"/>
-      <c r="H1107" s="319" t="str">
+      <c r="H1107" s="330" t="str">
         <f>H1069</f>
         <v>YOGYAKARTA</v>
       </c>
-      <c r="I1107" s="319"/>
-      <c r="J1107" s="319"/>
-      <c r="K1107" s="320"/>
+      <c r="I1107" s="330"/>
+      <c r="J1107" s="330"/>
+      <c r="K1107" s="331"/>
       <c r="L1107" s="209"/>
     </row>
     <row r="1108" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -43993,10 +43993,10 @@
       <c r="E1108" s="199"/>
       <c r="F1108" s="210"/>
       <c r="G1108" s="211"/>
-      <c r="H1108" s="321"/>
-      <c r="I1108" s="321"/>
-      <c r="J1108" s="321"/>
-      <c r="K1108" s="322"/>
+      <c r="H1108" s="332"/>
+      <c r="I1108" s="332"/>
+      <c r="J1108" s="332"/>
+      <c r="K1108" s="333"/>
       <c r="L1108" s="209"/>
     </row>
     <row r="1109" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -44721,8 +44721,8 @@
       <c r="G1129" s="250"/>
       <c r="H1129" s="250"/>
       <c r="I1129" s="251"/>
-      <c r="J1129" s="323"/>
-      <c r="K1129" s="302"/>
+      <c r="J1129" s="318"/>
+      <c r="K1129" s="319"/>
       <c r="L1129" s="200"/>
     </row>
     <row r="1130" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -44737,11 +44737,11 @@
       <c r="I1130" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="J1130" s="324">
+      <c r="J1130" s="320">
         <f>SUM(K1112:K1127)</f>
         <v>1524500</v>
       </c>
-      <c r="K1130" s="325"/>
+      <c r="K1130" s="321"/>
       <c r="L1130" s="225"/>
     </row>
     <row r="1131" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -44754,8 +44754,8 @@
       <c r="G1131" s="200"/>
       <c r="H1131" s="200"/>
       <c r="I1131" s="254"/>
-      <c r="J1131" s="335"/>
-      <c r="K1131" s="335"/>
+      <c r="J1131" s="322"/>
+      <c r="K1131" s="322"/>
       <c r="L1131" s="200"/>
     </row>
     <row r="1132" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -44790,8 +44790,8 @@
       <c r="G1133" s="200"/>
       <c r="H1133" s="200"/>
       <c r="I1133" s="254"/>
-      <c r="J1133" s="302"/>
-      <c r="K1133" s="302"/>
+      <c r="J1133" s="319"/>
+      <c r="K1133" s="319"/>
       <c r="L1133" s="200"/>
     </row>
     <row r="1134" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -44810,11 +44810,11 @@
       <c r="I1134" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="J1134" s="326">
+      <c r="J1134" s="323">
         <f>((J1130/1.11)+(K1132/1.11))*11%</f>
         <v>151076.57657657654</v>
       </c>
-      <c r="K1134" s="327"/>
+      <c r="K1134" s="324"/>
       <c r="L1134" s="259"/>
     </row>
     <row r="1135" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -44827,8 +44827,8 @@
       <c r="G1135" s="200"/>
       <c r="H1135" s="200"/>
       <c r="I1135" s="254"/>
-      <c r="J1135" s="302"/>
-      <c r="K1135" s="302"/>
+      <c r="J1135" s="319"/>
+      <c r="K1135" s="319"/>
       <c r="L1135" s="200"/>
     </row>
     <row r="1136" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -44878,11 +44878,11 @@
       <c r="I1138" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="J1138" s="328" t="str">
+      <c r="J1138" s="314" t="str">
         <f>J1100</f>
         <v>RISMA / YO</v>
       </c>
-      <c r="K1138" s="329"/>
+      <c r="K1138" s="315"/>
       <c r="L1138" s="200"/>
     </row>
     <row r="1139" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -44897,11 +44897,11 @@
       <c r="I1139" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="J1139" s="328">
+      <c r="J1139" s="314">
         <f>J1101</f>
         <v>0</v>
       </c>
-      <c r="K1139" s="329"/>
+      <c r="K1139" s="315"/>
       <c r="L1139" s="250"/>
     </row>
     <row r="1140" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -44940,12 +44940,12 @@
       <c r="G1142" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1142" s="336" t="s">
+      <c r="H1142" s="360" t="s">
         <v>92</v>
       </c>
-      <c r="I1142" s="336"/>
-      <c r="J1142" s="336"/>
-      <c r="K1142" s="337"/>
+      <c r="I1142" s="360"/>
+      <c r="J1142" s="360"/>
+      <c r="K1142" s="361"/>
       <c r="L1142" s="12"/>
     </row>
     <row r="1143" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -44954,14 +44954,14 @@
       <c r="C1143" s="14"/>
       <c r="D1143" s="15"/>
       <c r="E1143" s="16"/>
-      <c r="F1143" s="340" t="s">
+      <c r="F1143" s="364" t="s">
         <v>3</v>
       </c>
       <c r="G1143" s="17"/>
-      <c r="H1143" s="338"/>
-      <c r="I1143" s="338"/>
-      <c r="J1143" s="338"/>
-      <c r="K1143" s="339"/>
+      <c r="H1143" s="362"/>
+      <c r="I1143" s="362"/>
+      <c r="J1143" s="362"/>
+      <c r="K1143" s="363"/>
       <c r="L1143" s="12"/>
     </row>
     <row r="1144" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -44970,18 +44970,18 @@
         <v>4</v>
       </c>
       <c r="C1144" s="7"/>
-      <c r="D1144" s="341">
+      <c r="D1144" s="334">
         <v>45031</v>
       </c>
-      <c r="E1144" s="342"/>
-      <c r="F1144" s="340"/>
+      <c r="E1144" s="335"/>
+      <c r="F1144" s="364"/>
       <c r="G1144" s="18"/>
-      <c r="H1144" s="343" t="s">
+      <c r="H1144" s="336" t="s">
         <v>75</v>
       </c>
-      <c r="I1144" s="343"/>
-      <c r="J1144" s="343"/>
-      <c r="K1144" s="344"/>
+      <c r="I1144" s="336"/>
+      <c r="J1144" s="336"/>
+      <c r="K1144" s="337"/>
       <c r="L1144" s="18"/>
     </row>
     <row r="1145" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -44990,14 +44990,14 @@
       <c r="C1145" s="14"/>
       <c r="D1145" s="15"/>
       <c r="E1145" s="16"/>
-      <c r="F1145" s="340"/>
+      <c r="F1145" s="364"/>
       <c r="G1145" s="18"/>
-      <c r="H1145" s="345" t="s">
+      <c r="H1145" s="338" t="s">
         <v>81</v>
       </c>
-      <c r="I1145" s="345"/>
-      <c r="J1145" s="345"/>
-      <c r="K1145" s="346"/>
+      <c r="I1145" s="338"/>
+      <c r="J1145" s="338"/>
+      <c r="K1145" s="339"/>
       <c r="L1145" s="19"/>
     </row>
     <row r="1146" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -45012,10 +45012,10 @@
       <c r="E1146" s="9"/>
       <c r="F1146" s="21"/>
       <c r="G1146" s="22"/>
-      <c r="H1146" s="347"/>
-      <c r="I1146" s="347"/>
-      <c r="J1146" s="347"/>
-      <c r="K1146" s="348"/>
+      <c r="H1146" s="340"/>
+      <c r="I1146" s="340"/>
+      <c r="J1146" s="340"/>
+      <c r="K1146" s="341"/>
       <c r="L1146" s="19"/>
     </row>
     <row r="1147" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -45424,8 +45424,8 @@
       <c r="G1167" s="63"/>
       <c r="H1167" s="63"/>
       <c r="I1167" s="64"/>
-      <c r="J1167" s="363"/>
-      <c r="K1167" s="362"/>
+      <c r="J1167" s="305"/>
+      <c r="K1167" s="302"/>
     </row>
     <row r="1168" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1168" s="5"/>
@@ -45435,11 +45435,11 @@
       <c r="I1168" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J1168" s="333">
+      <c r="J1168" s="342">
         <f>SUM(K1150:K1165)</f>
         <v>1026000</v>
       </c>
-      <c r="K1168" s="334"/>
+      <c r="K1168" s="343"/>
       <c r="L1168" s="36"/>
     </row>
     <row r="1169" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -45448,8 +45448,8 @@
       <c r="C1169" s="65"/>
       <c r="D1169" s="25"/>
       <c r="I1169" s="67"/>
-      <c r="J1169" s="367"/>
-      <c r="K1169" s="367"/>
+      <c r="J1169" s="344"/>
+      <c r="K1169" s="344"/>
     </row>
     <row r="1170" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1170" s="5"/>
@@ -45472,8 +45472,8 @@
       <c r="C1171" s="65"/>
       <c r="D1171" s="25"/>
       <c r="I1171" s="67"/>
-      <c r="J1171" s="362"/>
-      <c r="K1171" s="362"/>
+      <c r="J1171" s="302"/>
+      <c r="K1171" s="302"/>
     </row>
     <row r="1172" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1172" s="5"/>
@@ -45488,11 +45488,11 @@
       <c r="I1172" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="J1172" s="365">
+      <c r="J1172" s="303">
         <f>((J1168/1.11)+(K1170/1.11))*11%</f>
         <v>101675.67567567567</v>
       </c>
-      <c r="K1172" s="366"/>
+      <c r="K1172" s="304"/>
       <c r="L1172" s="72"/>
     </row>
     <row r="1173" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -45501,8 +45501,8 @@
       <c r="C1173" s="65"/>
       <c r="D1173" s="25"/>
       <c r="I1173" s="67"/>
-      <c r="J1173" s="362"/>
-      <c r="K1173" s="362"/>
+      <c r="J1173" s="302"/>
+      <c r="K1173" s="302"/>
     </row>
     <row r="1174" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1174" s="5"/>
@@ -45543,10 +45543,10 @@
       <c r="I1176" s="270" t="s">
         <v>29</v>
       </c>
-      <c r="J1176" s="330" t="s">
+      <c r="J1176" s="354" t="s">
         <v>36</v>
       </c>
-      <c r="K1176" s="331"/>
+      <c r="K1176" s="355"/>
     </row>
     <row r="1177" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1177" s="78"/>
@@ -45556,8 +45556,8 @@
       <c r="I1177" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="J1177" s="330"/>
-      <c r="K1177" s="331"/>
+      <c r="J1177" s="354"/>
+      <c r="K1177" s="355"/>
       <c r="L1177" s="63"/>
     </row>
     <row r="1178" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -45602,13 +45602,13 @@
       <c r="G1180" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="H1180" s="358" t="str">
+      <c r="H1180" s="356" t="str">
         <f>H1142</f>
         <v>CV DWI JAYA</v>
       </c>
-      <c r="I1180" s="358"/>
-      <c r="J1180" s="358"/>
-      <c r="K1180" s="359"/>
+      <c r="I1180" s="356"/>
+      <c r="J1180" s="356"/>
+      <c r="K1180" s="357"/>
       <c r="L1180" s="125"/>
     </row>
     <row r="1181" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -45617,14 +45617,14 @@
       <c r="C1181" s="127"/>
       <c r="D1181" s="128"/>
       <c r="E1181" s="129"/>
-      <c r="F1181" s="349" t="s">
+      <c r="F1181" s="345" t="s">
         <v>3</v>
       </c>
       <c r="G1181" s="130"/>
-      <c r="H1181" s="360"/>
-      <c r="I1181" s="360"/>
-      <c r="J1181" s="360"/>
-      <c r="K1181" s="361"/>
+      <c r="H1181" s="358"/>
+      <c r="I1181" s="358"/>
+      <c r="J1181" s="358"/>
+      <c r="K1181" s="359"/>
       <c r="L1181" s="125"/>
     </row>
     <row r="1182" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -45633,20 +45633,20 @@
         <v>4</v>
       </c>
       <c r="C1182" s="120"/>
-      <c r="D1182" s="350">
+      <c r="D1182" s="310">
         <f>D1144</f>
         <v>45031</v>
       </c>
-      <c r="E1182" s="351"/>
-      <c r="F1182" s="349"/>
+      <c r="E1182" s="311"/>
+      <c r="F1182" s="345"/>
       <c r="G1182" s="131"/>
-      <c r="H1182" s="352" t="str">
+      <c r="H1182" s="312" t="str">
         <f>H1144</f>
         <v/>
       </c>
-      <c r="I1182" s="352"/>
-      <c r="J1182" s="352"/>
-      <c r="K1182" s="353"/>
+      <c r="I1182" s="312"/>
+      <c r="J1182" s="312"/>
+      <c r="K1182" s="313"/>
       <c r="L1182" s="131"/>
     </row>
     <row r="1183" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -45655,15 +45655,15 @@
       <c r="C1183" s="127"/>
       <c r="D1183" s="128"/>
       <c r="E1183" s="129"/>
-      <c r="F1183" s="349"/>
+      <c r="F1183" s="345"/>
       <c r="G1183" s="131"/>
-      <c r="H1183" s="354" t="str">
+      <c r="H1183" s="306" t="str">
         <f>H1145</f>
         <v>YOGYAKARTA</v>
       </c>
-      <c r="I1183" s="354"/>
-      <c r="J1183" s="354"/>
-      <c r="K1183" s="355"/>
+      <c r="I1183" s="306"/>
+      <c r="J1183" s="306"/>
+      <c r="K1183" s="307"/>
       <c r="L1183" s="132"/>
     </row>
     <row r="1184" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -45679,10 +45679,10 @@
       <c r="E1184" s="122"/>
       <c r="F1184" s="133"/>
       <c r="G1184" s="134"/>
-      <c r="H1184" s="356"/>
-      <c r="I1184" s="356"/>
-      <c r="J1184" s="356"/>
-      <c r="K1184" s="357"/>
+      <c r="H1184" s="308"/>
+      <c r="I1184" s="308"/>
+      <c r="J1184" s="308"/>
+      <c r="K1184" s="309"/>
       <c r="L1184" s="132"/>
     </row>
     <row r="1185" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -46407,8 +46407,8 @@
       <c r="G1205" s="173"/>
       <c r="H1205" s="173"/>
       <c r="I1205" s="174"/>
-      <c r="J1205" s="332"/>
-      <c r="K1205" s="311"/>
+      <c r="J1205" s="365"/>
+      <c r="K1205" s="317"/>
       <c r="L1205" s="123"/>
     </row>
     <row r="1206" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -46423,11 +46423,11 @@
       <c r="I1206" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="J1206" s="307">
+      <c r="J1206" s="366">
         <f>SUM(K1188:K1203)</f>
         <v>1026000</v>
       </c>
-      <c r="K1206" s="308"/>
+      <c r="K1206" s="367"/>
       <c r="L1206" s="148"/>
     </row>
     <row r="1207" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -46440,8 +46440,8 @@
       <c r="G1207" s="123"/>
       <c r="H1207" s="123"/>
       <c r="I1207" s="177"/>
-      <c r="J1207" s="364"/>
-      <c r="K1207" s="364"/>
+      <c r="J1207" s="316"/>
+      <c r="K1207" s="316"/>
       <c r="L1207" s="123"/>
     </row>
     <row r="1208" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -46476,8 +46476,8 @@
       <c r="G1209" s="123"/>
       <c r="H1209" s="123"/>
       <c r="I1209" s="177"/>
-      <c r="J1209" s="311"/>
-      <c r="K1209" s="311"/>
+      <c r="J1209" s="317"/>
+      <c r="K1209" s="317"/>
       <c r="L1209" s="123"/>
     </row>
     <row r="1210" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -46496,11 +46496,11 @@
       <c r="I1210" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="J1210" s="309">
+      <c r="J1210" s="350">
         <f>((J1206/1.11)+(K1208/1.11))*11%</f>
         <v>101675.67567567567</v>
       </c>
-      <c r="K1210" s="310"/>
+      <c r="K1210" s="351"/>
       <c r="L1210" s="182"/>
     </row>
     <row r="1211" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -46513,8 +46513,8 @@
       <c r="G1211" s="123"/>
       <c r="H1211" s="123"/>
       <c r="I1211" s="177"/>
-      <c r="J1211" s="311"/>
-      <c r="K1211" s="311"/>
+      <c r="J1211" s="317"/>
+      <c r="K1211" s="317"/>
       <c r="L1211" s="123"/>
     </row>
     <row r="1212" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -46564,11 +46564,11 @@
       <c r="I1214" s="278" t="s">
         <v>29</v>
       </c>
-      <c r="J1214" s="312" t="str">
+      <c r="J1214" s="352" t="str">
         <f>J1176</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K1214" s="313"/>
+      <c r="K1214" s="353"/>
       <c r="L1214" s="123"/>
     </row>
     <row r="1215" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -46583,11 +46583,11 @@
       <c r="I1215" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="J1215" s="312">
+      <c r="J1215" s="352">
         <f>J1177</f>
         <v>0</v>
       </c>
-      <c r="K1215" s="313"/>
+      <c r="K1215" s="353"/>
       <c r="L1215" s="173"/>
     </row>
     <row r="1216" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -46636,13 +46636,13 @@
       <c r="G1218" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="H1218" s="303" t="str">
+      <c r="H1218" s="346" t="str">
         <f>H1180</f>
         <v>CV DWI JAYA</v>
       </c>
-      <c r="I1218" s="303"/>
-      <c r="J1218" s="303"/>
-      <c r="K1218" s="304"/>
+      <c r="I1218" s="346"/>
+      <c r="J1218" s="346"/>
+      <c r="K1218" s="347"/>
       <c r="L1218" s="202"/>
     </row>
     <row r="1219" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -46651,14 +46651,14 @@
       <c r="C1219" s="204"/>
       <c r="D1219" s="205"/>
       <c r="E1219" s="206"/>
-      <c r="F1219" s="314" t="s">
+      <c r="F1219" s="325" t="s">
         <v>3</v>
       </c>
       <c r="G1219" s="207"/>
-      <c r="H1219" s="305"/>
-      <c r="I1219" s="305"/>
-      <c r="J1219" s="305"/>
-      <c r="K1219" s="306"/>
+      <c r="H1219" s="348"/>
+      <c r="I1219" s="348"/>
+      <c r="J1219" s="348"/>
+      <c r="K1219" s="349"/>
       <c r="L1219" s="202"/>
     </row>
     <row r="1220" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -46667,20 +46667,20 @@
         <v>4</v>
       </c>
       <c r="C1220" s="197"/>
-      <c r="D1220" s="315">
+      <c r="D1220" s="326">
         <f>D1182</f>
         <v>45031</v>
       </c>
-      <c r="E1220" s="316"/>
-      <c r="F1220" s="314"/>
+      <c r="E1220" s="327"/>
+      <c r="F1220" s="325"/>
       <c r="G1220" s="208"/>
-      <c r="H1220" s="317" t="str">
+      <c r="H1220" s="328" t="str">
         <f>H1182</f>
         <v/>
       </c>
-      <c r="I1220" s="317"/>
-      <c r="J1220" s="317"/>
-      <c r="K1220" s="318"/>
+      <c r="I1220" s="328"/>
+      <c r="J1220" s="328"/>
+      <c r="K1220" s="329"/>
       <c r="L1220" s="208"/>
     </row>
     <row r="1221" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -46689,15 +46689,15 @@
       <c r="C1221" s="204"/>
       <c r="D1221" s="205"/>
       <c r="E1221" s="206"/>
-      <c r="F1221" s="314"/>
+      <c r="F1221" s="325"/>
       <c r="G1221" s="208"/>
-      <c r="H1221" s="319" t="str">
+      <c r="H1221" s="330" t="str">
         <f>H1183</f>
         <v>YOGYAKARTA</v>
       </c>
-      <c r="I1221" s="319"/>
-      <c r="J1221" s="319"/>
-      <c r="K1221" s="320"/>
+      <c r="I1221" s="330"/>
+      <c r="J1221" s="330"/>
+      <c r="K1221" s="331"/>
       <c r="L1221" s="209"/>
     </row>
     <row r="1222" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -46713,10 +46713,10 @@
       <c r="E1222" s="199"/>
       <c r="F1222" s="210"/>
       <c r="G1222" s="211"/>
-      <c r="H1222" s="321"/>
-      <c r="I1222" s="321"/>
-      <c r="J1222" s="321"/>
-      <c r="K1222" s="322"/>
+      <c r="H1222" s="332"/>
+      <c r="I1222" s="332"/>
+      <c r="J1222" s="332"/>
+      <c r="K1222" s="333"/>
       <c r="L1222" s="209"/>
     </row>
     <row r="1223" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -47441,8 +47441,8 @@
       <c r="G1243" s="250"/>
       <c r="H1243" s="250"/>
       <c r="I1243" s="251"/>
-      <c r="J1243" s="323"/>
-      <c r="K1243" s="302"/>
+      <c r="J1243" s="318"/>
+      <c r="K1243" s="319"/>
       <c r="L1243" s="200"/>
     </row>
     <row r="1244" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -47457,11 +47457,11 @@
       <c r="I1244" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="J1244" s="324">
+      <c r="J1244" s="320">
         <f>SUM(K1226:K1241)</f>
         <v>1026000</v>
       </c>
-      <c r="K1244" s="325"/>
+      <c r="K1244" s="321"/>
       <c r="L1244" s="225"/>
     </row>
     <row r="1245" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -47474,8 +47474,8 @@
       <c r="G1245" s="200"/>
       <c r="H1245" s="200"/>
       <c r="I1245" s="254"/>
-      <c r="J1245" s="335"/>
-      <c r="K1245" s="335"/>
+      <c r="J1245" s="322"/>
+      <c r="K1245" s="322"/>
       <c r="L1245" s="200"/>
     </row>
     <row r="1246" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -47510,8 +47510,8 @@
       <c r="G1247" s="200"/>
       <c r="H1247" s="200"/>
       <c r="I1247" s="254"/>
-      <c r="J1247" s="302"/>
-      <c r="K1247" s="302"/>
+      <c r="J1247" s="319"/>
+      <c r="K1247" s="319"/>
       <c r="L1247" s="200"/>
     </row>
     <row r="1248" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -47530,11 +47530,11 @@
       <c r="I1248" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="J1248" s="326">
+      <c r="J1248" s="323">
         <f>((J1244/1.11)+(K1246/1.11))*11%</f>
         <v>101675.67567567567</v>
       </c>
-      <c r="K1248" s="327"/>
+      <c r="K1248" s="324"/>
       <c r="L1248" s="259"/>
     </row>
     <row r="1249" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -47547,8 +47547,8 @@
       <c r="G1249" s="200"/>
       <c r="H1249" s="200"/>
       <c r="I1249" s="254"/>
-      <c r="J1249" s="302"/>
-      <c r="K1249" s="302"/>
+      <c r="J1249" s="319"/>
+      <c r="K1249" s="319"/>
       <c r="L1249" s="200"/>
     </row>
     <row r="1250" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -47598,11 +47598,11 @@
       <c r="I1252" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="J1252" s="328" t="str">
+      <c r="J1252" s="314" t="str">
         <f>J1214</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K1252" s="329"/>
+      <c r="K1252" s="315"/>
       <c r="L1252" s="200"/>
     </row>
     <row r="1253" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -47617,11 +47617,11 @@
       <c r="I1253" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="J1253" s="328">
+      <c r="J1253" s="314">
         <f>J1215</f>
         <v>0</v>
       </c>
-      <c r="K1253" s="329"/>
+      <c r="K1253" s="315"/>
       <c r="L1253" s="250"/>
     </row>
     <row r="1254" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -47660,12 +47660,12 @@
       <c r="G1256" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1256" s="336" t="s">
+      <c r="H1256" s="360" t="s">
         <v>96</v>
       </c>
-      <c r="I1256" s="336"/>
-      <c r="J1256" s="336"/>
-      <c r="K1256" s="337"/>
+      <c r="I1256" s="360"/>
+      <c r="J1256" s="360"/>
+      <c r="K1256" s="361"/>
       <c r="L1256" s="12"/>
     </row>
     <row r="1257" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -47674,14 +47674,14 @@
       <c r="C1257" s="14"/>
       <c r="D1257" s="15"/>
       <c r="E1257" s="16"/>
-      <c r="F1257" s="340" t="s">
+      <c r="F1257" s="364" t="s">
         <v>3</v>
       </c>
       <c r="G1257" s="17"/>
-      <c r="H1257" s="338"/>
-      <c r="I1257" s="338"/>
-      <c r="J1257" s="338"/>
-      <c r="K1257" s="339"/>
+      <c r="H1257" s="362"/>
+      <c r="I1257" s="362"/>
+      <c r="J1257" s="362"/>
+      <c r="K1257" s="363"/>
       <c r="L1257" s="12"/>
     </row>
     <row r="1258" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -47690,18 +47690,18 @@
         <v>4</v>
       </c>
       <c r="C1258" s="7"/>
-      <c r="D1258" s="341">
+      <c r="D1258" s="334">
         <v>45026</v>
       </c>
-      <c r="E1258" s="342"/>
-      <c r="F1258" s="340"/>
+      <c r="E1258" s="335"/>
+      <c r="F1258" s="364"/>
       <c r="G1258" s="18"/>
-      <c r="H1258" s="343" t="s">
+      <c r="H1258" s="336" t="s">
         <v>97</v>
       </c>
-      <c r="I1258" s="343"/>
-      <c r="J1258" s="343"/>
-      <c r="K1258" s="344"/>
+      <c r="I1258" s="336"/>
+      <c r="J1258" s="336"/>
+      <c r="K1258" s="337"/>
       <c r="L1258" s="18"/>
     </row>
     <row r="1259" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -47710,14 +47710,14 @@
       <c r="C1259" s="14"/>
       <c r="D1259" s="15"/>
       <c r="E1259" s="16"/>
-      <c r="F1259" s="340"/>
+      <c r="F1259" s="364"/>
       <c r="G1259" s="18"/>
-      <c r="H1259" s="345" t="s">
+      <c r="H1259" s="338" t="s">
         <v>98</v>
       </c>
-      <c r="I1259" s="345"/>
-      <c r="J1259" s="345"/>
-      <c r="K1259" s="346"/>
+      <c r="I1259" s="338"/>
+      <c r="J1259" s="338"/>
+      <c r="K1259" s="339"/>
       <c r="L1259" s="19"/>
     </row>
     <row r="1260" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -47732,10 +47732,10 @@
       <c r="E1260" s="9"/>
       <c r="F1260" s="21"/>
       <c r="G1260" s="22"/>
-      <c r="H1260" s="347"/>
-      <c r="I1260" s="347"/>
-      <c r="J1260" s="347"/>
-      <c r="K1260" s="348"/>
+      <c r="H1260" s="340"/>
+      <c r="I1260" s="340"/>
+      <c r="J1260" s="340"/>
+      <c r="K1260" s="341"/>
       <c r="L1260" s="19"/>
     </row>
     <row r="1261" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -48132,8 +48132,8 @@
       <c r="G1281" s="63"/>
       <c r="H1281" s="63"/>
       <c r="I1281" s="64"/>
-      <c r="J1281" s="363"/>
-      <c r="K1281" s="362"/>
+      <c r="J1281" s="305"/>
+      <c r="K1281" s="302"/>
     </row>
     <row r="1282" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1282" s="5"/>
@@ -48143,11 +48143,11 @@
       <c r="I1282" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J1282" s="333">
+      <c r="J1282" s="342">
         <f>SUM(K1264:K1279)</f>
         <v>381840</v>
       </c>
-      <c r="K1282" s="334"/>
+      <c r="K1282" s="343"/>
       <c r="L1282" s="36"/>
     </row>
     <row r="1283" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -48156,8 +48156,8 @@
       <c r="C1283" s="65"/>
       <c r="D1283" s="25"/>
       <c r="I1283" s="67"/>
-      <c r="J1283" s="367"/>
-      <c r="K1283" s="367"/>
+      <c r="J1283" s="344"/>
+      <c r="K1283" s="344"/>
     </row>
     <row r="1284" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1284" s="5"/>
@@ -48180,8 +48180,8 @@
       <c r="C1285" s="65"/>
       <c r="D1285" s="25"/>
       <c r="I1285" s="67"/>
-      <c r="J1285" s="362"/>
-      <c r="K1285" s="362"/>
+      <c r="J1285" s="302"/>
+      <c r="K1285" s="302"/>
     </row>
     <row r="1286" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1286" s="5"/>
@@ -48196,11 +48196,11 @@
       <c r="I1286" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="J1286" s="365">
+      <c r="J1286" s="303">
         <f>((J1282/1.11)+(K1284/1.11))*11%</f>
         <v>37839.999999999993</v>
       </c>
-      <c r="K1286" s="366"/>
+      <c r="K1286" s="304"/>
       <c r="L1286" s="72"/>
     </row>
     <row r="1287" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -48209,8 +48209,8 @@
       <c r="C1287" s="65"/>
       <c r="D1287" s="25"/>
       <c r="I1287" s="67"/>
-      <c r="J1287" s="362"/>
-      <c r="K1287" s="362"/>
+      <c r="J1287" s="302"/>
+      <c r="K1287" s="302"/>
     </row>
     <row r="1288" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1288" s="5"/>
@@ -48251,8 +48251,8 @@
       <c r="I1290" s="270" t="s">
         <v>29</v>
       </c>
-      <c r="J1290" s="330"/>
-      <c r="K1290" s="331"/>
+      <c r="J1290" s="354"/>
+      <c r="K1290" s="355"/>
     </row>
     <row r="1291" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1291" s="78"/>
@@ -48262,10 +48262,10 @@
       <c r="I1291" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="J1291" s="330" t="s">
+      <c r="J1291" s="354" t="s">
         <v>101</v>
       </c>
-      <c r="K1291" s="331"/>
+      <c r="K1291" s="355"/>
       <c r="L1291" s="63"/>
     </row>
     <row r="1292" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -48310,13 +48310,13 @@
       <c r="G1294" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="H1294" s="358" t="str">
+      <c r="H1294" s="356" t="str">
         <f>H1256</f>
         <v>HARNOYO</v>
       </c>
-      <c r="I1294" s="358"/>
-      <c r="J1294" s="358"/>
-      <c r="K1294" s="359"/>
+      <c r="I1294" s="356"/>
+      <c r="J1294" s="356"/>
+      <c r="K1294" s="357"/>
       <c r="L1294" s="125"/>
     </row>
     <row r="1295" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -48325,14 +48325,14 @@
       <c r="C1295" s="127"/>
       <c r="D1295" s="128"/>
       <c r="E1295" s="129"/>
-      <c r="F1295" s="349" t="s">
+      <c r="F1295" s="345" t="s">
         <v>3</v>
       </c>
       <c r="G1295" s="130"/>
-      <c r="H1295" s="360"/>
-      <c r="I1295" s="360"/>
-      <c r="J1295" s="360"/>
-      <c r="K1295" s="361"/>
+      <c r="H1295" s="358"/>
+      <c r="I1295" s="358"/>
+      <c r="J1295" s="358"/>
+      <c r="K1295" s="359"/>
       <c r="L1295" s="125"/>
     </row>
     <row r="1296" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -48341,20 +48341,20 @@
         <v>4</v>
       </c>
       <c r="C1296" s="120"/>
-      <c r="D1296" s="350">
+      <c r="D1296" s="310">
         <f>D1258</f>
         <v>45026</v>
       </c>
-      <c r="E1296" s="351"/>
-      <c r="F1296" s="349"/>
+      <c r="E1296" s="311"/>
+      <c r="F1296" s="345"/>
       <c r="G1296" s="131"/>
-      <c r="H1296" s="352" t="str">
+      <c r="H1296" s="312" t="str">
         <f>H1258</f>
         <v>(BENDAN)</v>
       </c>
-      <c r="I1296" s="352"/>
-      <c r="J1296" s="352"/>
-      <c r="K1296" s="353"/>
+      <c r="I1296" s="312"/>
+      <c r="J1296" s="312"/>
+      <c r="K1296" s="313"/>
       <c r="L1296" s="131"/>
     </row>
     <row r="1297" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -48363,15 +48363,15 @@
       <c r="C1297" s="127"/>
       <c r="D1297" s="128"/>
       <c r="E1297" s="129"/>
-      <c r="F1297" s="349"/>
+      <c r="F1297" s="345"/>
       <c r="G1297" s="131"/>
-      <c r="H1297" s="354" t="str">
+      <c r="H1297" s="306" t="str">
         <f>H1259</f>
         <v>PEKALONGAN</v>
       </c>
-      <c r="I1297" s="354"/>
-      <c r="J1297" s="354"/>
-      <c r="K1297" s="355"/>
+      <c r="I1297" s="306"/>
+      <c r="J1297" s="306"/>
+      <c r="K1297" s="307"/>
       <c r="L1297" s="132"/>
     </row>
     <row r="1298" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -48387,10 +48387,10 @@
       <c r="E1298" s="122"/>
       <c r="F1298" s="133"/>
       <c r="G1298" s="134"/>
-      <c r="H1298" s="356"/>
-      <c r="I1298" s="356"/>
-      <c r="J1298" s="356"/>
-      <c r="K1298" s="357"/>
+      <c r="H1298" s="308"/>
+      <c r="I1298" s="308"/>
+      <c r="J1298" s="308"/>
+      <c r="K1298" s="309"/>
       <c r="L1298" s="132"/>
     </row>
     <row r="1299" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -49115,8 +49115,8 @@
       <c r="G1319" s="173"/>
       <c r="H1319" s="173"/>
       <c r="I1319" s="174"/>
-      <c r="J1319" s="332"/>
-      <c r="K1319" s="311"/>
+      <c r="J1319" s="365"/>
+      <c r="K1319" s="317"/>
       <c r="L1319" s="123"/>
     </row>
     <row r="1320" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -49131,11 +49131,11 @@
       <c r="I1320" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="J1320" s="307">
+      <c r="J1320" s="366">
         <f>SUM(K1302:K1317)</f>
         <v>381840</v>
       </c>
-      <c r="K1320" s="308"/>
+      <c r="K1320" s="367"/>
       <c r="L1320" s="148"/>
     </row>
     <row r="1321" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -49148,8 +49148,8 @@
       <c r="G1321" s="123"/>
       <c r="H1321" s="123"/>
       <c r="I1321" s="177"/>
-      <c r="J1321" s="364"/>
-      <c r="K1321" s="364"/>
+      <c r="J1321" s="316"/>
+      <c r="K1321" s="316"/>
       <c r="L1321" s="123"/>
     </row>
     <row r="1322" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -49184,8 +49184,8 @@
       <c r="G1323" s="123"/>
       <c r="H1323" s="123"/>
       <c r="I1323" s="177"/>
-      <c r="J1323" s="311"/>
-      <c r="K1323" s="311"/>
+      <c r="J1323" s="317"/>
+      <c r="K1323" s="317"/>
       <c r="L1323" s="123"/>
     </row>
     <row r="1324" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -49204,11 +49204,11 @@
       <c r="I1324" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="J1324" s="309">
+      <c r="J1324" s="350">
         <f>((J1320/1.11)+(K1322/1.11))*11%</f>
         <v>37839.999999999993</v>
       </c>
-      <c r="K1324" s="310"/>
+      <c r="K1324" s="351"/>
       <c r="L1324" s="182"/>
     </row>
     <row r="1325" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -49221,8 +49221,8 @@
       <c r="G1325" s="123"/>
       <c r="H1325" s="123"/>
       <c r="I1325" s="177"/>
-      <c r="J1325" s="311"/>
-      <c r="K1325" s="311"/>
+      <c r="J1325" s="317"/>
+      <c r="K1325" s="317"/>
       <c r="L1325" s="123"/>
     </row>
     <row r="1326" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -49272,11 +49272,11 @@
       <c r="I1328" s="278" t="s">
         <v>29</v>
       </c>
-      <c r="J1328" s="312">
+      <c r="J1328" s="352">
         <f>J1290</f>
         <v>0</v>
       </c>
-      <c r="K1328" s="313"/>
+      <c r="K1328" s="353"/>
       <c r="L1328" s="123"/>
     </row>
     <row r="1329" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -49291,11 +49291,11 @@
       <c r="I1329" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="J1329" s="312" t="str">
+      <c r="J1329" s="352" t="str">
         <f>J1291</f>
         <v>RISMA / CONDRO</v>
       </c>
-      <c r="K1329" s="313"/>
+      <c r="K1329" s="353"/>
       <c r="L1329" s="173"/>
     </row>
     <row r="1330" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -49344,13 +49344,13 @@
       <c r="G1332" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="H1332" s="303" t="str">
+      <c r="H1332" s="346" t="str">
         <f>H1294</f>
         <v>HARNOYO</v>
       </c>
-      <c r="I1332" s="303"/>
-      <c r="J1332" s="303"/>
-      <c r="K1332" s="304"/>
+      <c r="I1332" s="346"/>
+      <c r="J1332" s="346"/>
+      <c r="K1332" s="347"/>
       <c r="L1332" s="202"/>
     </row>
     <row r="1333" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -49359,14 +49359,14 @@
       <c r="C1333" s="204"/>
       <c r="D1333" s="205"/>
       <c r="E1333" s="206"/>
-      <c r="F1333" s="314" t="s">
+      <c r="F1333" s="325" t="s">
         <v>3</v>
       </c>
       <c r="G1333" s="207"/>
-      <c r="H1333" s="305"/>
-      <c r="I1333" s="305"/>
-      <c r="J1333" s="305"/>
-      <c r="K1333" s="306"/>
+      <c r="H1333" s="348"/>
+      <c r="I1333" s="348"/>
+      <c r="J1333" s="348"/>
+      <c r="K1333" s="349"/>
       <c r="L1333" s="202"/>
     </row>
     <row r="1334" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -49375,20 +49375,20 @@
         <v>4</v>
       </c>
       <c r="C1334" s="197"/>
-      <c r="D1334" s="315">
+      <c r="D1334" s="326">
         <f>D1296</f>
         <v>45026</v>
       </c>
-      <c r="E1334" s="316"/>
-      <c r="F1334" s="314"/>
+      <c r="E1334" s="327"/>
+      <c r="F1334" s="325"/>
       <c r="G1334" s="208"/>
-      <c r="H1334" s="317" t="str">
+      <c r="H1334" s="328" t="str">
         <f>H1296</f>
         <v>(BENDAN)</v>
       </c>
-      <c r="I1334" s="317"/>
-      <c r="J1334" s="317"/>
-      <c r="K1334" s="318"/>
+      <c r="I1334" s="328"/>
+      <c r="J1334" s="328"/>
+      <c r="K1334" s="329"/>
       <c r="L1334" s="208"/>
     </row>
     <row r="1335" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -49397,15 +49397,15 @@
       <c r="C1335" s="204"/>
       <c r="D1335" s="205"/>
       <c r="E1335" s="206"/>
-      <c r="F1335" s="314"/>
+      <c r="F1335" s="325"/>
       <c r="G1335" s="208"/>
-      <c r="H1335" s="319" t="str">
+      <c r="H1335" s="330" t="str">
         <f>H1297</f>
         <v>PEKALONGAN</v>
       </c>
-      <c r="I1335" s="319"/>
-      <c r="J1335" s="319"/>
-      <c r="K1335" s="320"/>
+      <c r="I1335" s="330"/>
+      <c r="J1335" s="330"/>
+      <c r="K1335" s="331"/>
       <c r="L1335" s="209"/>
     </row>
     <row r="1336" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -49421,10 +49421,10 @@
       <c r="E1336" s="199"/>
       <c r="F1336" s="210"/>
       <c r="G1336" s="211"/>
-      <c r="H1336" s="321"/>
-      <c r="I1336" s="321"/>
-      <c r="J1336" s="321"/>
-      <c r="K1336" s="322"/>
+      <c r="H1336" s="332"/>
+      <c r="I1336" s="332"/>
+      <c r="J1336" s="332"/>
+      <c r="K1336" s="333"/>
       <c r="L1336" s="209"/>
     </row>
     <row r="1337" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -50149,8 +50149,8 @@
       <c r="G1357" s="250"/>
       <c r="H1357" s="250"/>
       <c r="I1357" s="251"/>
-      <c r="J1357" s="323"/>
-      <c r="K1357" s="302"/>
+      <c r="J1357" s="318"/>
+      <c r="K1357" s="319"/>
       <c r="L1357" s="200"/>
     </row>
     <row r="1358" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -50165,11 +50165,11 @@
       <c r="I1358" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="J1358" s="324">
+      <c r="J1358" s="320">
         <f>SUM(K1340:K1355)</f>
         <v>381840</v>
       </c>
-      <c r="K1358" s="325"/>
+      <c r="K1358" s="321"/>
       <c r="L1358" s="225"/>
     </row>
     <row r="1359" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -50182,8 +50182,8 @@
       <c r="G1359" s="200"/>
       <c r="H1359" s="200"/>
       <c r="I1359" s="254"/>
-      <c r="J1359" s="335"/>
-      <c r="K1359" s="335"/>
+      <c r="J1359" s="322"/>
+      <c r="K1359" s="322"/>
       <c r="L1359" s="200"/>
     </row>
     <row r="1360" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -50218,8 +50218,8 @@
       <c r="G1361" s="200"/>
       <c r="H1361" s="200"/>
       <c r="I1361" s="254"/>
-      <c r="J1361" s="302"/>
-      <c r="K1361" s="302"/>
+      <c r="J1361" s="319"/>
+      <c r="K1361" s="319"/>
       <c r="L1361" s="200"/>
     </row>
     <row r="1362" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -50238,11 +50238,11 @@
       <c r="I1362" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="J1362" s="326">
+      <c r="J1362" s="323">
         <f>((J1358/1.11)+(K1360/1.11))*11%</f>
         <v>37839.999999999993</v>
       </c>
-      <c r="K1362" s="327"/>
+      <c r="K1362" s="324"/>
       <c r="L1362" s="259"/>
     </row>
     <row r="1363" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -50255,8 +50255,8 @@
       <c r="G1363" s="200"/>
       <c r="H1363" s="200"/>
       <c r="I1363" s="254"/>
-      <c r="J1363" s="302"/>
-      <c r="K1363" s="302"/>
+      <c r="J1363" s="319"/>
+      <c r="K1363" s="319"/>
       <c r="L1363" s="200"/>
     </row>
     <row r="1364" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -50306,11 +50306,11 @@
       <c r="I1366" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="J1366" s="328">
+      <c r="J1366" s="314">
         <f>J1328</f>
         <v>0</v>
       </c>
-      <c r="K1366" s="329"/>
+      <c r="K1366" s="315"/>
       <c r="L1366" s="200"/>
     </row>
     <row r="1367" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -50325,11 +50325,11 @@
       <c r="I1367" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="J1367" s="328" t="str">
+      <c r="J1367" s="314" t="str">
         <f>J1329</f>
         <v>RISMA / CONDRO</v>
       </c>
-      <c r="K1367" s="329"/>
+      <c r="K1367" s="315"/>
       <c r="L1367" s="250"/>
     </row>
     <row r="1368" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -50368,12 +50368,12 @@
       <c r="G1370" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1370" s="336" t="s">
+      <c r="H1370" s="360" t="s">
         <v>96</v>
       </c>
-      <c r="I1370" s="336"/>
-      <c r="J1370" s="336"/>
-      <c r="K1370" s="337"/>
+      <c r="I1370" s="360"/>
+      <c r="J1370" s="360"/>
+      <c r="K1370" s="361"/>
       <c r="L1370" s="12"/>
     </row>
     <row r="1371" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -50382,14 +50382,14 @@
       <c r="C1371" s="14"/>
       <c r="D1371" s="15"/>
       <c r="E1371" s="16"/>
-      <c r="F1371" s="340" t="s">
+      <c r="F1371" s="364" t="s">
         <v>3</v>
       </c>
       <c r="G1371" s="17"/>
-      <c r="H1371" s="338"/>
-      <c r="I1371" s="338"/>
-      <c r="J1371" s="338"/>
-      <c r="K1371" s="339"/>
+      <c r="H1371" s="362"/>
+      <c r="I1371" s="362"/>
+      <c r="J1371" s="362"/>
+      <c r="K1371" s="363"/>
       <c r="L1371" s="12"/>
     </row>
     <row r="1372" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -50398,18 +50398,18 @@
         <v>4</v>
       </c>
       <c r="C1372" s="7"/>
-      <c r="D1372" s="341">
+      <c r="D1372" s="334">
         <v>45026</v>
       </c>
-      <c r="E1372" s="342"/>
-      <c r="F1372" s="340"/>
+      <c r="E1372" s="335"/>
+      <c r="F1372" s="364"/>
       <c r="G1372" s="18"/>
-      <c r="H1372" s="343" t="s">
+      <c r="H1372" s="336" t="s">
         <v>97</v>
       </c>
-      <c r="I1372" s="343"/>
-      <c r="J1372" s="343"/>
-      <c r="K1372" s="344"/>
+      <c r="I1372" s="336"/>
+      <c r="J1372" s="336"/>
+      <c r="K1372" s="337"/>
       <c r="L1372" s="18"/>
     </row>
     <row r="1373" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -50418,14 +50418,14 @@
       <c r="C1373" s="14"/>
       <c r="D1373" s="15"/>
       <c r="E1373" s="16"/>
-      <c r="F1373" s="340"/>
+      <c r="F1373" s="364"/>
       <c r="G1373" s="18"/>
-      <c r="H1373" s="345" t="s">
+      <c r="H1373" s="338" t="s">
         <v>98</v>
       </c>
-      <c r="I1373" s="345"/>
-      <c r="J1373" s="345"/>
-      <c r="K1373" s="346"/>
+      <c r="I1373" s="338"/>
+      <c r="J1373" s="338"/>
+      <c r="K1373" s="339"/>
       <c r="L1373" s="19"/>
     </row>
     <row r="1374" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -50440,10 +50440,10 @@
       <c r="E1374" s="9"/>
       <c r="F1374" s="21"/>
       <c r="G1374" s="22"/>
-      <c r="H1374" s="347"/>
-      <c r="I1374" s="347"/>
-      <c r="J1374" s="347"/>
-      <c r="K1374" s="348"/>
+      <c r="H1374" s="340"/>
+      <c r="I1374" s="340"/>
+      <c r="J1374" s="340"/>
+      <c r="K1374" s="341"/>
       <c r="L1374" s="19"/>
     </row>
     <row r="1375" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -50840,8 +50840,8 @@
       <c r="G1395" s="63"/>
       <c r="H1395" s="63"/>
       <c r="I1395" s="64"/>
-      <c r="J1395" s="363"/>
-      <c r="K1395" s="362"/>
+      <c r="J1395" s="305"/>
+      <c r="K1395" s="302"/>
     </row>
     <row r="1396" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1396" s="5"/>
@@ -50851,11 +50851,11 @@
       <c r="I1396" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J1396" s="333">
+      <c r="J1396" s="342">
         <f>SUM(K1378:K1393)</f>
         <v>190920</v>
       </c>
-      <c r="K1396" s="334"/>
+      <c r="K1396" s="343"/>
       <c r="L1396" s="36"/>
     </row>
     <row r="1397" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -50864,8 +50864,8 @@
       <c r="C1397" s="65"/>
       <c r="D1397" s="25"/>
       <c r="I1397" s="67"/>
-      <c r="J1397" s="367"/>
-      <c r="K1397" s="367"/>
+      <c r="J1397" s="344"/>
+      <c r="K1397" s="344"/>
     </row>
     <row r="1398" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1398" s="5"/>
@@ -50888,8 +50888,8 @@
       <c r="C1399" s="65"/>
       <c r="D1399" s="25"/>
       <c r="I1399" s="67"/>
-      <c r="J1399" s="362"/>
-      <c r="K1399" s="362"/>
+      <c r="J1399" s="302"/>
+      <c r="K1399" s="302"/>
     </row>
     <row r="1400" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1400" s="5"/>
@@ -50904,11 +50904,11 @@
       <c r="I1400" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="J1400" s="365">
+      <c r="J1400" s="303">
         <f>((J1396/1.11)+(K1398/1.11))*11%</f>
         <v>18919.999999999996</v>
       </c>
-      <c r="K1400" s="366"/>
+      <c r="K1400" s="304"/>
       <c r="L1400" s="72"/>
     </row>
     <row r="1401" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -50917,8 +50917,8 @@
       <c r="C1401" s="65"/>
       <c r="D1401" s="25"/>
       <c r="I1401" s="67"/>
-      <c r="J1401" s="362"/>
-      <c r="K1401" s="362"/>
+      <c r="J1401" s="302"/>
+      <c r="K1401" s="302"/>
     </row>
     <row r="1402" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1402" s="5"/>
@@ -50959,10 +50959,10 @@
       <c r="I1404" s="270" t="s">
         <v>29</v>
       </c>
-      <c r="J1404" s="330" t="s">
+      <c r="J1404" s="354" t="s">
         <v>101</v>
       </c>
-      <c r="K1404" s="331"/>
+      <c r="K1404" s="355"/>
     </row>
     <row r="1405" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1405" s="78"/>
@@ -50972,8 +50972,8 @@
       <c r="I1405" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="J1405" s="330"/>
-      <c r="K1405" s="331"/>
+      <c r="J1405" s="354"/>
+      <c r="K1405" s="355"/>
       <c r="L1405" s="63"/>
     </row>
     <row r="1406" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -51018,13 +51018,13 @@
       <c r="G1408" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="H1408" s="358" t="str">
+      <c r="H1408" s="356" t="str">
         <f>H1370</f>
         <v>HARNOYO</v>
       </c>
-      <c r="I1408" s="358"/>
-      <c r="J1408" s="358"/>
-      <c r="K1408" s="359"/>
+      <c r="I1408" s="356"/>
+      <c r="J1408" s="356"/>
+      <c r="K1408" s="357"/>
       <c r="L1408" s="125"/>
     </row>
     <row r="1409" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -51033,14 +51033,14 @@
       <c r="C1409" s="127"/>
       <c r="D1409" s="128"/>
       <c r="E1409" s="129"/>
-      <c r="F1409" s="349" t="s">
+      <c r="F1409" s="345" t="s">
         <v>3</v>
       </c>
       <c r="G1409" s="130"/>
-      <c r="H1409" s="360"/>
-      <c r="I1409" s="360"/>
-      <c r="J1409" s="360"/>
-      <c r="K1409" s="361"/>
+      <c r="H1409" s="358"/>
+      <c r="I1409" s="358"/>
+      <c r="J1409" s="358"/>
+      <c r="K1409" s="359"/>
       <c r="L1409" s="125"/>
     </row>
     <row r="1410" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -51049,20 +51049,20 @@
         <v>4</v>
       </c>
       <c r="C1410" s="120"/>
-      <c r="D1410" s="350">
+      <c r="D1410" s="310">
         <f>D1372</f>
         <v>45026</v>
       </c>
-      <c r="E1410" s="351"/>
-      <c r="F1410" s="349"/>
+      <c r="E1410" s="311"/>
+      <c r="F1410" s="345"/>
       <c r="G1410" s="131"/>
-      <c r="H1410" s="352" t="str">
+      <c r="H1410" s="312" t="str">
         <f>H1372</f>
         <v>(BENDAN)</v>
       </c>
-      <c r="I1410" s="352"/>
-      <c r="J1410" s="352"/>
-      <c r="K1410" s="353"/>
+      <c r="I1410" s="312"/>
+      <c r="J1410" s="312"/>
+      <c r="K1410" s="313"/>
       <c r="L1410" s="131"/>
     </row>
     <row r="1411" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -51071,15 +51071,15 @@
       <c r="C1411" s="127"/>
       <c r="D1411" s="128"/>
       <c r="E1411" s="129"/>
-      <c r="F1411" s="349"/>
+      <c r="F1411" s="345"/>
       <c r="G1411" s="131"/>
-      <c r="H1411" s="354" t="str">
+      <c r="H1411" s="306" t="str">
         <f>H1373</f>
         <v>PEKALONGAN</v>
       </c>
-      <c r="I1411" s="354"/>
-      <c r="J1411" s="354"/>
-      <c r="K1411" s="355"/>
+      <c r="I1411" s="306"/>
+      <c r="J1411" s="306"/>
+      <c r="K1411" s="307"/>
       <c r="L1411" s="132"/>
     </row>
     <row r="1412" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -51095,10 +51095,10 @@
       <c r="E1412" s="122"/>
       <c r="F1412" s="133"/>
       <c r="G1412" s="134"/>
-      <c r="H1412" s="356"/>
-      <c r="I1412" s="356"/>
-      <c r="J1412" s="356"/>
-      <c r="K1412" s="357"/>
+      <c r="H1412" s="308"/>
+      <c r="I1412" s="308"/>
+      <c r="J1412" s="308"/>
+      <c r="K1412" s="309"/>
       <c r="L1412" s="132"/>
     </row>
     <row r="1413" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -51823,8 +51823,8 @@
       <c r="G1433" s="173"/>
       <c r="H1433" s="173"/>
       <c r="I1433" s="174"/>
-      <c r="J1433" s="332"/>
-      <c r="K1433" s="311"/>
+      <c r="J1433" s="365"/>
+      <c r="K1433" s="317"/>
       <c r="L1433" s="123"/>
     </row>
     <row r="1434" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -51839,11 +51839,11 @@
       <c r="I1434" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="J1434" s="307">
+      <c r="J1434" s="366">
         <f>SUM(K1416:K1431)</f>
         <v>190920</v>
       </c>
-      <c r="K1434" s="308"/>
+      <c r="K1434" s="367"/>
       <c r="L1434" s="148"/>
     </row>
     <row r="1435" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -51856,8 +51856,8 @@
       <c r="G1435" s="123"/>
       <c r="H1435" s="123"/>
       <c r="I1435" s="177"/>
-      <c r="J1435" s="364"/>
-      <c r="K1435" s="364"/>
+      <c r="J1435" s="316"/>
+      <c r="K1435" s="316"/>
       <c r="L1435" s="123"/>
     </row>
     <row r="1436" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -51892,8 +51892,8 @@
       <c r="G1437" s="123"/>
       <c r="H1437" s="123"/>
       <c r="I1437" s="177"/>
-      <c r="J1437" s="311"/>
-      <c r="K1437" s="311"/>
+      <c r="J1437" s="317"/>
+      <c r="K1437" s="317"/>
       <c r="L1437" s="123"/>
     </row>
     <row r="1438" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -51912,11 +51912,11 @@
       <c r="I1438" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="J1438" s="309">
+      <c r="J1438" s="350">
         <f>((J1434/1.11)+(K1436/1.11))*11%</f>
         <v>18919.999999999996</v>
       </c>
-      <c r="K1438" s="310"/>
+      <c r="K1438" s="351"/>
       <c r="L1438" s="182"/>
     </row>
     <row r="1439" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -51929,8 +51929,8 @@
       <c r="G1439" s="123"/>
       <c r="H1439" s="123"/>
       <c r="I1439" s="177"/>
-      <c r="J1439" s="311"/>
-      <c r="K1439" s="311"/>
+      <c r="J1439" s="317"/>
+      <c r="K1439" s="317"/>
       <c r="L1439" s="123"/>
     </row>
     <row r="1440" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -51980,11 +51980,11 @@
       <c r="I1442" s="278" t="s">
         <v>29</v>
       </c>
-      <c r="J1442" s="312" t="str">
+      <c r="J1442" s="352" t="str">
         <f>J1404</f>
         <v>RISMA / CONDRO</v>
       </c>
-      <c r="K1442" s="313"/>
+      <c r="K1442" s="353"/>
       <c r="L1442" s="123"/>
     </row>
     <row r="1443" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -51999,11 +51999,11 @@
       <c r="I1443" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="J1443" s="312">
+      <c r="J1443" s="352">
         <f>J1405</f>
         <v>0</v>
       </c>
-      <c r="K1443" s="313"/>
+      <c r="K1443" s="353"/>
       <c r="L1443" s="173"/>
     </row>
     <row r="1444" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -52052,13 +52052,13 @@
       <c r="G1446" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="H1446" s="303" t="str">
+      <c r="H1446" s="346" t="str">
         <f>H1408</f>
         <v>HARNOYO</v>
       </c>
-      <c r="I1446" s="303"/>
-      <c r="J1446" s="303"/>
-      <c r="K1446" s="304"/>
+      <c r="I1446" s="346"/>
+      <c r="J1446" s="346"/>
+      <c r="K1446" s="347"/>
       <c r="L1446" s="202"/>
     </row>
     <row r="1447" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -52067,14 +52067,14 @@
       <c r="C1447" s="204"/>
       <c r="D1447" s="205"/>
       <c r="E1447" s="206"/>
-      <c r="F1447" s="314" t="s">
+      <c r="F1447" s="325" t="s">
         <v>3</v>
       </c>
       <c r="G1447" s="207"/>
-      <c r="H1447" s="305"/>
-      <c r="I1447" s="305"/>
-      <c r="J1447" s="305"/>
-      <c r="K1447" s="306"/>
+      <c r="H1447" s="348"/>
+      <c r="I1447" s="348"/>
+      <c r="J1447" s="348"/>
+      <c r="K1447" s="349"/>
       <c r="L1447" s="202"/>
     </row>
     <row r="1448" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -52083,20 +52083,20 @@
         <v>4</v>
       </c>
       <c r="C1448" s="197"/>
-      <c r="D1448" s="315">
+      <c r="D1448" s="326">
         <f>D1410</f>
         <v>45026</v>
       </c>
-      <c r="E1448" s="316"/>
-      <c r="F1448" s="314"/>
+      <c r="E1448" s="327"/>
+      <c r="F1448" s="325"/>
       <c r="G1448" s="208"/>
-      <c r="H1448" s="317" t="str">
+      <c r="H1448" s="328" t="str">
         <f>H1410</f>
         <v>(BENDAN)</v>
       </c>
-      <c r="I1448" s="317"/>
-      <c r="J1448" s="317"/>
-      <c r="K1448" s="318"/>
+      <c r="I1448" s="328"/>
+      <c r="J1448" s="328"/>
+      <c r="K1448" s="329"/>
       <c r="L1448" s="208"/>
     </row>
     <row r="1449" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -52105,15 +52105,15 @@
       <c r="C1449" s="204"/>
       <c r="D1449" s="205"/>
       <c r="E1449" s="206"/>
-      <c r="F1449" s="314"/>
+      <c r="F1449" s="325"/>
       <c r="G1449" s="208"/>
-      <c r="H1449" s="319" t="str">
+      <c r="H1449" s="330" t="str">
         <f>H1411</f>
         <v>PEKALONGAN</v>
       </c>
-      <c r="I1449" s="319"/>
-      <c r="J1449" s="319"/>
-      <c r="K1449" s="320"/>
+      <c r="I1449" s="330"/>
+      <c r="J1449" s="330"/>
+      <c r="K1449" s="331"/>
       <c r="L1449" s="209"/>
     </row>
     <row r="1450" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -52129,10 +52129,10 @@
       <c r="E1450" s="199"/>
       <c r="F1450" s="210"/>
       <c r="G1450" s="211"/>
-      <c r="H1450" s="321"/>
-      <c r="I1450" s="321"/>
-      <c r="J1450" s="321"/>
-      <c r="K1450" s="322"/>
+      <c r="H1450" s="332"/>
+      <c r="I1450" s="332"/>
+      <c r="J1450" s="332"/>
+      <c r="K1450" s="333"/>
       <c r="L1450" s="209"/>
     </row>
     <row r="1451" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -52857,8 +52857,8 @@
       <c r="G1471" s="250"/>
       <c r="H1471" s="250"/>
       <c r="I1471" s="251"/>
-      <c r="J1471" s="323"/>
-      <c r="K1471" s="302"/>
+      <c r="J1471" s="318"/>
+      <c r="K1471" s="319"/>
       <c r="L1471" s="200"/>
     </row>
     <row r="1472" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -52873,11 +52873,11 @@
       <c r="I1472" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="J1472" s="324">
+      <c r="J1472" s="320">
         <f>SUM(K1454:K1469)</f>
         <v>190920</v>
       </c>
-      <c r="K1472" s="325"/>
+      <c r="K1472" s="321"/>
       <c r="L1472" s="225"/>
     </row>
     <row r="1473" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -52890,8 +52890,8 @@
       <c r="G1473" s="200"/>
       <c r="H1473" s="200"/>
       <c r="I1473" s="254"/>
-      <c r="J1473" s="335"/>
-      <c r="K1473" s="335"/>
+      <c r="J1473" s="322"/>
+      <c r="K1473" s="322"/>
       <c r="L1473" s="200"/>
     </row>
     <row r="1474" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -52926,8 +52926,8 @@
       <c r="G1475" s="200"/>
       <c r="H1475" s="200"/>
       <c r="I1475" s="254"/>
-      <c r="J1475" s="302"/>
-      <c r="K1475" s="302"/>
+      <c r="J1475" s="319"/>
+      <c r="K1475" s="319"/>
       <c r="L1475" s="200"/>
     </row>
     <row r="1476" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -52946,11 +52946,11 @@
       <c r="I1476" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="J1476" s="326">
+      <c r="J1476" s="323">
         <f>((J1472/1.11)+(K1474/1.11))*11%</f>
         <v>18919.999999999996</v>
       </c>
-      <c r="K1476" s="327"/>
+      <c r="K1476" s="324"/>
       <c r="L1476" s="259"/>
     </row>
     <row r="1477" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -52963,8 +52963,8 @@
       <c r="G1477" s="200"/>
       <c r="H1477" s="200"/>
       <c r="I1477" s="254"/>
-      <c r="J1477" s="302"/>
-      <c r="K1477" s="302"/>
+      <c r="J1477" s="319"/>
+      <c r="K1477" s="319"/>
       <c r="L1477" s="200"/>
     </row>
     <row r="1478" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -53014,11 +53014,11 @@
       <c r="I1480" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="J1480" s="328" t="str">
+      <c r="J1480" s="314" t="str">
         <f>J1442</f>
         <v>RISMA / CONDRO</v>
       </c>
-      <c r="K1480" s="329"/>
+      <c r="K1480" s="315"/>
       <c r="L1480" s="200"/>
     </row>
     <row r="1481" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -53033,11 +53033,11 @@
       <c r="I1481" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="J1481" s="328">
+      <c r="J1481" s="314">
         <f>J1443</f>
         <v>0</v>
       </c>
-      <c r="K1481" s="329"/>
+      <c r="K1481" s="315"/>
       <c r="L1481" s="250"/>
     </row>
     <row r="1482" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -53056,6 +53056,489 @@
     </row>
   </sheetData>
   <mergeCells count="507">
+    <mergeCell ref="J1133:K1133"/>
+    <mergeCell ref="H1218:K1219"/>
+    <mergeCell ref="J1434:K1434"/>
+    <mergeCell ref="J1438:K1438"/>
+    <mergeCell ref="J1439:K1439"/>
+    <mergeCell ref="J1442:K1442"/>
+    <mergeCell ref="J1443:K1443"/>
+    <mergeCell ref="H1446:K1447"/>
+    <mergeCell ref="F1447:F1449"/>
+    <mergeCell ref="H1256:K1257"/>
+    <mergeCell ref="F1257:F1259"/>
+    <mergeCell ref="H1410:K1410"/>
+    <mergeCell ref="J1328:K1328"/>
+    <mergeCell ref="J1329:K1329"/>
+    <mergeCell ref="J1319:K1319"/>
+    <mergeCell ref="J1320:K1320"/>
+    <mergeCell ref="J1321:K1321"/>
+    <mergeCell ref="H1332:K1333"/>
+    <mergeCell ref="F1333:F1335"/>
+    <mergeCell ref="J1363:K1363"/>
+    <mergeCell ref="H1370:K1371"/>
+    <mergeCell ref="F1371:F1373"/>
+    <mergeCell ref="J1282:K1282"/>
+    <mergeCell ref="J1283:K1283"/>
+    <mergeCell ref="D1448:E1448"/>
+    <mergeCell ref="H1448:K1448"/>
+    <mergeCell ref="H1449:K1450"/>
+    <mergeCell ref="D1334:E1334"/>
+    <mergeCell ref="H1334:K1334"/>
+    <mergeCell ref="H1335:K1336"/>
+    <mergeCell ref="J1357:K1357"/>
+    <mergeCell ref="J1358:K1358"/>
+    <mergeCell ref="J1362:K1362"/>
+    <mergeCell ref="J1366:K1366"/>
+    <mergeCell ref="J1367:K1367"/>
+    <mergeCell ref="J1404:K1404"/>
+    <mergeCell ref="J1433:K1433"/>
+    <mergeCell ref="J1396:K1396"/>
+    <mergeCell ref="J1359:K1359"/>
+    <mergeCell ref="J1361:K1361"/>
+    <mergeCell ref="J1397:K1397"/>
+    <mergeCell ref="J1399:K1399"/>
+    <mergeCell ref="J1400:K1400"/>
+    <mergeCell ref="J1401:K1401"/>
+    <mergeCell ref="J1405:K1405"/>
+    <mergeCell ref="H1408:K1409"/>
+    <mergeCell ref="F1409:F1411"/>
+    <mergeCell ref="D1410:E1410"/>
+    <mergeCell ref="D1258:E1258"/>
+    <mergeCell ref="H1258:K1258"/>
+    <mergeCell ref="H1259:K1260"/>
+    <mergeCell ref="J1323:K1323"/>
+    <mergeCell ref="J1324:K1324"/>
+    <mergeCell ref="J1325:K1325"/>
+    <mergeCell ref="F991:F993"/>
+    <mergeCell ref="D992:E992"/>
+    <mergeCell ref="H992:K992"/>
+    <mergeCell ref="H993:K994"/>
+    <mergeCell ref="J1025:K1025"/>
+    <mergeCell ref="H1028:K1029"/>
+    <mergeCell ref="F1067:F1069"/>
+    <mergeCell ref="D1068:E1068"/>
+    <mergeCell ref="H1068:K1068"/>
+    <mergeCell ref="H1069:K1070"/>
+    <mergeCell ref="J1019:K1019"/>
+    <mergeCell ref="J1020:K1020"/>
+    <mergeCell ref="J1021:K1021"/>
+    <mergeCell ref="J1024:K1024"/>
+    <mergeCell ref="D1030:E1030"/>
+    <mergeCell ref="J1062:K1062"/>
+    <mergeCell ref="J1063:K1063"/>
+    <mergeCell ref="H1066:K1067"/>
+    <mergeCell ref="J1059:K1059"/>
+    <mergeCell ref="J1015:K1015"/>
+    <mergeCell ref="J1016:K1016"/>
+    <mergeCell ref="J1017:K1017"/>
+    <mergeCell ref="F953:F955"/>
+    <mergeCell ref="D954:E954"/>
+    <mergeCell ref="H954:K954"/>
+    <mergeCell ref="H955:K956"/>
+    <mergeCell ref="J907:K907"/>
+    <mergeCell ref="J910:K910"/>
+    <mergeCell ref="J911:K911"/>
+    <mergeCell ref="H914:K915"/>
+    <mergeCell ref="F915:F917"/>
+    <mergeCell ref="D916:E916"/>
+    <mergeCell ref="H916:K916"/>
+    <mergeCell ref="H917:K918"/>
+    <mergeCell ref="J939:K939"/>
+    <mergeCell ref="J979:K979"/>
+    <mergeCell ref="J981:K981"/>
+    <mergeCell ref="J982:K982"/>
+    <mergeCell ref="J983:K983"/>
+    <mergeCell ref="J978:K978"/>
+    <mergeCell ref="J943:K943"/>
+    <mergeCell ref="J944:K944"/>
+    <mergeCell ref="F877:F879"/>
+    <mergeCell ref="D878:E878"/>
+    <mergeCell ref="H878:K878"/>
+    <mergeCell ref="H879:K880"/>
+    <mergeCell ref="J835:K835"/>
+    <mergeCell ref="H838:K839"/>
+    <mergeCell ref="F839:F841"/>
+    <mergeCell ref="D840:E840"/>
+    <mergeCell ref="H840:K840"/>
+    <mergeCell ref="H841:K842"/>
+    <mergeCell ref="J863:K863"/>
+    <mergeCell ref="J864:K864"/>
+    <mergeCell ref="J865:K865"/>
+    <mergeCell ref="J945:K945"/>
+    <mergeCell ref="J948:K948"/>
+    <mergeCell ref="D802:E802"/>
+    <mergeCell ref="H802:K802"/>
+    <mergeCell ref="H803:K804"/>
+    <mergeCell ref="J826:K826"/>
+    <mergeCell ref="J827:K827"/>
+    <mergeCell ref="J829:K829"/>
+    <mergeCell ref="J750:K750"/>
+    <mergeCell ref="J754:K754"/>
+    <mergeCell ref="J755:K755"/>
+    <mergeCell ref="J758:K758"/>
+    <mergeCell ref="J759:K759"/>
+    <mergeCell ref="H762:K763"/>
+    <mergeCell ref="F763:F765"/>
+    <mergeCell ref="D764:E764"/>
+    <mergeCell ref="H764:K764"/>
+    <mergeCell ref="H765:K766"/>
+    <mergeCell ref="J751:K751"/>
+    <mergeCell ref="J753:K753"/>
+    <mergeCell ref="J787:K787"/>
+    <mergeCell ref="J788:K788"/>
+    <mergeCell ref="J789:K789"/>
+    <mergeCell ref="J791:K791"/>
+    <mergeCell ref="D726:E726"/>
+    <mergeCell ref="H726:K726"/>
+    <mergeCell ref="H727:K728"/>
+    <mergeCell ref="F611:F613"/>
+    <mergeCell ref="D612:E612"/>
+    <mergeCell ref="H612:K612"/>
+    <mergeCell ref="H613:K614"/>
+    <mergeCell ref="J635:K635"/>
+    <mergeCell ref="J636:K636"/>
+    <mergeCell ref="J637:K637"/>
+    <mergeCell ref="H648:K649"/>
+    <mergeCell ref="F649:F651"/>
+    <mergeCell ref="D650:E650"/>
+    <mergeCell ref="H650:K650"/>
+    <mergeCell ref="J715:K715"/>
+    <mergeCell ref="J716:K716"/>
+    <mergeCell ref="J717:K717"/>
+    <mergeCell ref="F573:F575"/>
+    <mergeCell ref="H686:K687"/>
+    <mergeCell ref="D688:E688"/>
+    <mergeCell ref="H688:K688"/>
+    <mergeCell ref="H689:K690"/>
+    <mergeCell ref="J607:K607"/>
+    <mergeCell ref="J597:K597"/>
+    <mergeCell ref="J598:K598"/>
+    <mergeCell ref="J599:K599"/>
+    <mergeCell ref="J601:K601"/>
+    <mergeCell ref="J602:K602"/>
+    <mergeCell ref="J606:K606"/>
+    <mergeCell ref="F687:F689"/>
+    <mergeCell ref="J639:K639"/>
+    <mergeCell ref="J678:K678"/>
+    <mergeCell ref="J682:K682"/>
+    <mergeCell ref="H651:K652"/>
+    <mergeCell ref="J603:K603"/>
+    <mergeCell ref="D460:E460"/>
+    <mergeCell ref="H460:K460"/>
+    <mergeCell ref="H461:K462"/>
+    <mergeCell ref="J483:K483"/>
+    <mergeCell ref="J484:K484"/>
+    <mergeCell ref="J485:K485"/>
+    <mergeCell ref="D574:E574"/>
+    <mergeCell ref="H574:K574"/>
+    <mergeCell ref="F459:F461"/>
+    <mergeCell ref="F535:F537"/>
+    <mergeCell ref="F497:F499"/>
+    <mergeCell ref="D498:E498"/>
+    <mergeCell ref="H498:K498"/>
+    <mergeCell ref="H499:K500"/>
+    <mergeCell ref="J531:K531"/>
+    <mergeCell ref="J521:K521"/>
+    <mergeCell ref="J522:K522"/>
+    <mergeCell ref="J523:K523"/>
+    <mergeCell ref="J525:K525"/>
+    <mergeCell ref="J526:K526"/>
+    <mergeCell ref="J527:K527"/>
+    <mergeCell ref="J530:K530"/>
+    <mergeCell ref="D536:E536"/>
+    <mergeCell ref="J493:K493"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="H194:K194"/>
+    <mergeCell ref="H195:K196"/>
+    <mergeCell ref="F155:F157"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="H156:K156"/>
+    <mergeCell ref="H157:K158"/>
+    <mergeCell ref="J179:K179"/>
+    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="J181:K181"/>
+    <mergeCell ref="J183:K183"/>
+    <mergeCell ref="J184:K184"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="H154:K155"/>
+    <mergeCell ref="J185:K185"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="H116:K117"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="F193:F195"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="H119:K120"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="H270:K270"/>
+    <mergeCell ref="H271:K272"/>
+    <mergeCell ref="F231:F233"/>
+    <mergeCell ref="D232:E232"/>
+    <mergeCell ref="H232:K232"/>
+    <mergeCell ref="H233:K234"/>
+    <mergeCell ref="H230:K231"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="F269:F271"/>
+    <mergeCell ref="H458:K459"/>
+    <mergeCell ref="J332:K332"/>
+    <mergeCell ref="H382:K383"/>
+    <mergeCell ref="J487:K487"/>
+    <mergeCell ref="J488:K488"/>
+    <mergeCell ref="J189:K189"/>
+    <mergeCell ref="H192:K193"/>
+    <mergeCell ref="J223:K223"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="D1106:E1106"/>
+    <mergeCell ref="H1106:K1106"/>
+    <mergeCell ref="H1107:K1108"/>
+    <mergeCell ref="H534:K535"/>
+    <mergeCell ref="J255:K255"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="J260:K260"/>
+    <mergeCell ref="J640:K640"/>
+    <mergeCell ref="J641:K641"/>
+    <mergeCell ref="J644:K644"/>
+    <mergeCell ref="J645:K645"/>
+    <mergeCell ref="J675:K675"/>
+    <mergeCell ref="J677:K677"/>
+    <mergeCell ref="J293:K293"/>
+    <mergeCell ref="J294:K294"/>
+    <mergeCell ref="J295:K295"/>
+    <mergeCell ref="J297:K297"/>
+    <mergeCell ref="J298:K298"/>
+    <mergeCell ref="J559:K559"/>
+    <mergeCell ref="J560:K560"/>
+    <mergeCell ref="J409:K409"/>
+    <mergeCell ref="J333:K333"/>
+    <mergeCell ref="H2:K3"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="H40:K41"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K44"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="J142:K142"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="H81:K82"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="J561:K561"/>
+    <mergeCell ref="J563:K563"/>
+    <mergeCell ref="J564:K564"/>
+    <mergeCell ref="J565:K565"/>
+    <mergeCell ref="H385:K386"/>
+    <mergeCell ref="J407:K407"/>
+    <mergeCell ref="J408:K408"/>
+    <mergeCell ref="J217:K217"/>
+    <mergeCell ref="J218:K218"/>
+    <mergeCell ref="J219:K219"/>
+    <mergeCell ref="J221:K221"/>
+    <mergeCell ref="J222:K222"/>
+    <mergeCell ref="H536:K536"/>
+    <mergeCell ref="H537:K538"/>
+    <mergeCell ref="H496:K497"/>
+    <mergeCell ref="J446:K446"/>
+    <mergeCell ref="J447:K447"/>
+    <mergeCell ref="J449:K449"/>
+    <mergeCell ref="J450:K450"/>
+    <mergeCell ref="J451:K451"/>
+    <mergeCell ref="J454:K454"/>
+    <mergeCell ref="J455:K455"/>
+    <mergeCell ref="J489:K489"/>
+    <mergeCell ref="J492:K492"/>
+    <mergeCell ref="J568:K568"/>
+    <mergeCell ref="J569:K569"/>
+    <mergeCell ref="H610:K611"/>
+    <mergeCell ref="J673:K673"/>
+    <mergeCell ref="J674:K674"/>
+    <mergeCell ref="J749:K749"/>
+    <mergeCell ref="J825:K825"/>
+    <mergeCell ref="J830:K830"/>
+    <mergeCell ref="J831:K831"/>
+    <mergeCell ref="J792:K792"/>
+    <mergeCell ref="J793:K793"/>
+    <mergeCell ref="J796:K796"/>
+    <mergeCell ref="J834:K834"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="F117:F119"/>
+    <mergeCell ref="H78:K79"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="J261:K261"/>
+    <mergeCell ref="J264:K264"/>
+    <mergeCell ref="J265:K265"/>
+    <mergeCell ref="H268:K269"/>
+    <mergeCell ref="H575:K576"/>
+    <mergeCell ref="J720:K720"/>
+    <mergeCell ref="J721:K721"/>
+    <mergeCell ref="H724:K725"/>
+    <mergeCell ref="F725:F727"/>
+    <mergeCell ref="J797:K797"/>
+    <mergeCell ref="H800:K801"/>
+    <mergeCell ref="F801:F803"/>
+    <mergeCell ref="J341:K341"/>
+    <mergeCell ref="F307:F309"/>
+    <mergeCell ref="J445:K445"/>
+    <mergeCell ref="J1096:K1096"/>
+    <mergeCell ref="J1135:K1135"/>
+    <mergeCell ref="J1138:K1138"/>
+    <mergeCell ref="J1139:K1139"/>
+    <mergeCell ref="J683:K683"/>
+    <mergeCell ref="H572:K573"/>
+    <mergeCell ref="J711:K711"/>
+    <mergeCell ref="J712:K712"/>
+    <mergeCell ref="J713:K713"/>
+    <mergeCell ref="J679:K679"/>
+    <mergeCell ref="J901:K901"/>
+    <mergeCell ref="J902:K902"/>
+    <mergeCell ref="J903:K903"/>
+    <mergeCell ref="J905:K905"/>
+    <mergeCell ref="J906:K906"/>
+    <mergeCell ref="J940:K940"/>
+    <mergeCell ref="J941:K941"/>
+    <mergeCell ref="J977:K977"/>
+    <mergeCell ref="J867:K867"/>
+    <mergeCell ref="J868:K868"/>
+    <mergeCell ref="J869:K869"/>
+    <mergeCell ref="J872:K872"/>
+    <mergeCell ref="J873:K873"/>
+    <mergeCell ref="H876:K877"/>
+    <mergeCell ref="J949:K949"/>
+    <mergeCell ref="H952:K953"/>
+    <mergeCell ref="J986:K986"/>
+    <mergeCell ref="J987:K987"/>
+    <mergeCell ref="H990:K991"/>
+    <mergeCell ref="J1129:K1129"/>
+    <mergeCell ref="J1130:K1130"/>
+    <mergeCell ref="J1131:K1131"/>
+    <mergeCell ref="F1295:F1297"/>
+    <mergeCell ref="F1105:F1107"/>
+    <mergeCell ref="H1142:K1143"/>
+    <mergeCell ref="F1143:F1145"/>
+    <mergeCell ref="J1091:K1091"/>
+    <mergeCell ref="J1092:K1092"/>
+    <mergeCell ref="J1093:K1093"/>
+    <mergeCell ref="J1095:K1095"/>
+    <mergeCell ref="J1287:K1287"/>
+    <mergeCell ref="J1291:K1291"/>
+    <mergeCell ref="J1281:K1281"/>
+    <mergeCell ref="J1176:K1176"/>
+    <mergeCell ref="J1177:K1177"/>
+    <mergeCell ref="H1180:K1181"/>
+    <mergeCell ref="F1181:F1183"/>
+    <mergeCell ref="J1253:K1253"/>
+    <mergeCell ref="D1296:E1296"/>
+    <mergeCell ref="H1296:K1296"/>
+    <mergeCell ref="H1297:K1298"/>
+    <mergeCell ref="J1134:K1134"/>
+    <mergeCell ref="F1029:F1031"/>
+    <mergeCell ref="H1030:K1030"/>
+    <mergeCell ref="H1031:K1032"/>
+    <mergeCell ref="J1053:K1053"/>
+    <mergeCell ref="J1054:K1054"/>
+    <mergeCell ref="J1055:K1055"/>
+    <mergeCell ref="J1057:K1057"/>
+    <mergeCell ref="J1058:K1058"/>
+    <mergeCell ref="J1215:K1215"/>
+    <mergeCell ref="J1205:K1205"/>
+    <mergeCell ref="J1206:K1206"/>
+    <mergeCell ref="J1207:K1207"/>
+    <mergeCell ref="J1209:K1209"/>
+    <mergeCell ref="J1210:K1210"/>
+    <mergeCell ref="J1211:K1211"/>
+    <mergeCell ref="J1214:K1214"/>
+    <mergeCell ref="J1097:K1097"/>
+    <mergeCell ref="J1100:K1100"/>
+    <mergeCell ref="J1101:K1101"/>
+    <mergeCell ref="H1104:K1105"/>
+    <mergeCell ref="D1372:E1372"/>
+    <mergeCell ref="H1372:K1372"/>
+    <mergeCell ref="H1373:K1374"/>
+    <mergeCell ref="J1290:K1290"/>
+    <mergeCell ref="H1294:K1295"/>
+    <mergeCell ref="J299:K299"/>
+    <mergeCell ref="J302:K302"/>
+    <mergeCell ref="J303:K303"/>
+    <mergeCell ref="H306:K307"/>
+    <mergeCell ref="H344:K345"/>
+    <mergeCell ref="F345:F347"/>
+    <mergeCell ref="D346:E346"/>
+    <mergeCell ref="H346:K346"/>
+    <mergeCell ref="H347:K348"/>
+    <mergeCell ref="J369:K369"/>
+    <mergeCell ref="J370:K370"/>
+    <mergeCell ref="J371:K371"/>
+    <mergeCell ref="J373:K373"/>
+    <mergeCell ref="J374:K374"/>
+    <mergeCell ref="J375:K375"/>
+    <mergeCell ref="J378:K378"/>
+    <mergeCell ref="J379:K379"/>
+    <mergeCell ref="J337:K337"/>
+    <mergeCell ref="J340:K340"/>
+    <mergeCell ref="D308:E308"/>
+    <mergeCell ref="H308:K308"/>
+    <mergeCell ref="H309:K310"/>
+    <mergeCell ref="J331:K331"/>
+    <mergeCell ref="F383:F385"/>
+    <mergeCell ref="D384:E384"/>
+    <mergeCell ref="H384:K384"/>
+    <mergeCell ref="H420:K421"/>
+    <mergeCell ref="F421:F423"/>
+    <mergeCell ref="D422:E422"/>
+    <mergeCell ref="H422:K422"/>
+    <mergeCell ref="H423:K424"/>
+    <mergeCell ref="J411:K411"/>
+    <mergeCell ref="J412:K412"/>
+    <mergeCell ref="J413:K413"/>
+    <mergeCell ref="J416:K416"/>
+    <mergeCell ref="J417:K417"/>
+    <mergeCell ref="J335:K335"/>
+    <mergeCell ref="J336:K336"/>
+    <mergeCell ref="J1247:K1247"/>
+    <mergeCell ref="J1248:K1248"/>
+    <mergeCell ref="J1249:K1249"/>
+    <mergeCell ref="J1252:K1252"/>
+    <mergeCell ref="D1144:E1144"/>
+    <mergeCell ref="H1144:K1144"/>
+    <mergeCell ref="H1145:K1146"/>
+    <mergeCell ref="J1167:K1167"/>
+    <mergeCell ref="J1168:K1168"/>
+    <mergeCell ref="J1169:K1169"/>
+    <mergeCell ref="J1171:K1171"/>
+    <mergeCell ref="J1172:K1172"/>
+    <mergeCell ref="J1173:K1173"/>
     <mergeCell ref="J1285:K1285"/>
     <mergeCell ref="J1286:K1286"/>
     <mergeCell ref="J1395:K1395"/>
@@ -53080,489 +53563,6 @@
     <mergeCell ref="J1243:K1243"/>
     <mergeCell ref="J1244:K1244"/>
     <mergeCell ref="J1245:K1245"/>
-    <mergeCell ref="J1247:K1247"/>
-    <mergeCell ref="J1248:K1248"/>
-    <mergeCell ref="J1249:K1249"/>
-    <mergeCell ref="J1252:K1252"/>
-    <mergeCell ref="D1144:E1144"/>
-    <mergeCell ref="H1144:K1144"/>
-    <mergeCell ref="H1145:K1146"/>
-    <mergeCell ref="J1167:K1167"/>
-    <mergeCell ref="J1168:K1168"/>
-    <mergeCell ref="J1169:K1169"/>
-    <mergeCell ref="J1171:K1171"/>
-    <mergeCell ref="J1172:K1172"/>
-    <mergeCell ref="J1173:K1173"/>
-    <mergeCell ref="D308:E308"/>
-    <mergeCell ref="H308:K308"/>
-    <mergeCell ref="H309:K310"/>
-    <mergeCell ref="J331:K331"/>
-    <mergeCell ref="F383:F385"/>
-    <mergeCell ref="D384:E384"/>
-    <mergeCell ref="H384:K384"/>
-    <mergeCell ref="H420:K421"/>
-    <mergeCell ref="F421:F423"/>
-    <mergeCell ref="D422:E422"/>
-    <mergeCell ref="H422:K422"/>
-    <mergeCell ref="H423:K424"/>
-    <mergeCell ref="J411:K411"/>
-    <mergeCell ref="J412:K412"/>
-    <mergeCell ref="J413:K413"/>
-    <mergeCell ref="J416:K416"/>
-    <mergeCell ref="J417:K417"/>
-    <mergeCell ref="D1372:E1372"/>
-    <mergeCell ref="H1372:K1372"/>
-    <mergeCell ref="H1373:K1374"/>
-    <mergeCell ref="J1290:K1290"/>
-    <mergeCell ref="H1294:K1295"/>
-    <mergeCell ref="J299:K299"/>
-    <mergeCell ref="J302:K302"/>
-    <mergeCell ref="J303:K303"/>
-    <mergeCell ref="H306:K307"/>
-    <mergeCell ref="H344:K345"/>
-    <mergeCell ref="F345:F347"/>
-    <mergeCell ref="D346:E346"/>
-    <mergeCell ref="H346:K346"/>
-    <mergeCell ref="H347:K348"/>
-    <mergeCell ref="J369:K369"/>
-    <mergeCell ref="J370:K370"/>
-    <mergeCell ref="J371:K371"/>
-    <mergeCell ref="J373:K373"/>
-    <mergeCell ref="J374:K374"/>
-    <mergeCell ref="J375:K375"/>
-    <mergeCell ref="J378:K378"/>
-    <mergeCell ref="J379:K379"/>
-    <mergeCell ref="J337:K337"/>
-    <mergeCell ref="J340:K340"/>
-    <mergeCell ref="D1296:E1296"/>
-    <mergeCell ref="H1296:K1296"/>
-    <mergeCell ref="H1297:K1298"/>
-    <mergeCell ref="J1134:K1134"/>
-    <mergeCell ref="F1029:F1031"/>
-    <mergeCell ref="H1030:K1030"/>
-    <mergeCell ref="H1031:K1032"/>
-    <mergeCell ref="J1053:K1053"/>
-    <mergeCell ref="J1054:K1054"/>
-    <mergeCell ref="J1055:K1055"/>
-    <mergeCell ref="J1057:K1057"/>
-    <mergeCell ref="J1058:K1058"/>
-    <mergeCell ref="J1215:K1215"/>
-    <mergeCell ref="J1205:K1205"/>
-    <mergeCell ref="J1206:K1206"/>
-    <mergeCell ref="J1207:K1207"/>
-    <mergeCell ref="J1209:K1209"/>
-    <mergeCell ref="J1210:K1210"/>
-    <mergeCell ref="J1211:K1211"/>
-    <mergeCell ref="J1214:K1214"/>
-    <mergeCell ref="J1097:K1097"/>
-    <mergeCell ref="J1100:K1100"/>
-    <mergeCell ref="J1101:K1101"/>
-    <mergeCell ref="H1104:K1105"/>
-    <mergeCell ref="J949:K949"/>
-    <mergeCell ref="H952:K953"/>
-    <mergeCell ref="J986:K986"/>
-    <mergeCell ref="J987:K987"/>
-    <mergeCell ref="H990:K991"/>
-    <mergeCell ref="J1129:K1129"/>
-    <mergeCell ref="J1130:K1130"/>
-    <mergeCell ref="J1131:K1131"/>
-    <mergeCell ref="F1295:F1297"/>
-    <mergeCell ref="F1105:F1107"/>
-    <mergeCell ref="H1142:K1143"/>
-    <mergeCell ref="F1143:F1145"/>
-    <mergeCell ref="J1091:K1091"/>
-    <mergeCell ref="J1092:K1092"/>
-    <mergeCell ref="J1093:K1093"/>
-    <mergeCell ref="J1095:K1095"/>
-    <mergeCell ref="J1287:K1287"/>
-    <mergeCell ref="J1291:K1291"/>
-    <mergeCell ref="J1281:K1281"/>
-    <mergeCell ref="J1176:K1176"/>
-    <mergeCell ref="J1177:K1177"/>
-    <mergeCell ref="H1180:K1181"/>
-    <mergeCell ref="F1181:F1183"/>
-    <mergeCell ref="J1253:K1253"/>
-    <mergeCell ref="J1096:K1096"/>
-    <mergeCell ref="J1135:K1135"/>
-    <mergeCell ref="J1138:K1138"/>
-    <mergeCell ref="J1139:K1139"/>
-    <mergeCell ref="J683:K683"/>
-    <mergeCell ref="H572:K573"/>
-    <mergeCell ref="J711:K711"/>
-    <mergeCell ref="J712:K712"/>
-    <mergeCell ref="J713:K713"/>
-    <mergeCell ref="J679:K679"/>
-    <mergeCell ref="J901:K901"/>
-    <mergeCell ref="J902:K902"/>
-    <mergeCell ref="J903:K903"/>
-    <mergeCell ref="J905:K905"/>
-    <mergeCell ref="J906:K906"/>
-    <mergeCell ref="J940:K940"/>
-    <mergeCell ref="J941:K941"/>
-    <mergeCell ref="J977:K977"/>
-    <mergeCell ref="J867:K867"/>
-    <mergeCell ref="J868:K868"/>
-    <mergeCell ref="J869:K869"/>
-    <mergeCell ref="J872:K872"/>
-    <mergeCell ref="J873:K873"/>
-    <mergeCell ref="H876:K877"/>
-    <mergeCell ref="J834:K834"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="F117:F119"/>
-    <mergeCell ref="H78:K79"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="J261:K261"/>
-    <mergeCell ref="J264:K264"/>
-    <mergeCell ref="J265:K265"/>
-    <mergeCell ref="H268:K269"/>
-    <mergeCell ref="H575:K576"/>
-    <mergeCell ref="J720:K720"/>
-    <mergeCell ref="J721:K721"/>
-    <mergeCell ref="H724:K725"/>
-    <mergeCell ref="F725:F727"/>
-    <mergeCell ref="J797:K797"/>
-    <mergeCell ref="H800:K801"/>
-    <mergeCell ref="F801:F803"/>
-    <mergeCell ref="J341:K341"/>
-    <mergeCell ref="F307:F309"/>
-    <mergeCell ref="J445:K445"/>
-    <mergeCell ref="J568:K568"/>
-    <mergeCell ref="J569:K569"/>
-    <mergeCell ref="H610:K611"/>
-    <mergeCell ref="J673:K673"/>
-    <mergeCell ref="J674:K674"/>
-    <mergeCell ref="J749:K749"/>
-    <mergeCell ref="J825:K825"/>
-    <mergeCell ref="J830:K830"/>
-    <mergeCell ref="J831:K831"/>
-    <mergeCell ref="J561:K561"/>
-    <mergeCell ref="J563:K563"/>
-    <mergeCell ref="J564:K564"/>
-    <mergeCell ref="J565:K565"/>
-    <mergeCell ref="H385:K386"/>
-    <mergeCell ref="J407:K407"/>
-    <mergeCell ref="J408:K408"/>
-    <mergeCell ref="J217:K217"/>
-    <mergeCell ref="J218:K218"/>
-    <mergeCell ref="J219:K219"/>
-    <mergeCell ref="J221:K221"/>
-    <mergeCell ref="J222:K222"/>
-    <mergeCell ref="H536:K536"/>
-    <mergeCell ref="H537:K538"/>
-    <mergeCell ref="H496:K497"/>
-    <mergeCell ref="J446:K446"/>
-    <mergeCell ref="J447:K447"/>
-    <mergeCell ref="J449:K449"/>
-    <mergeCell ref="J450:K450"/>
-    <mergeCell ref="J451:K451"/>
-    <mergeCell ref="J454:K454"/>
-    <mergeCell ref="J455:K455"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="H40:K41"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K44"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="H2:K3"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K6"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J489:K489"/>
-    <mergeCell ref="J492:K492"/>
-    <mergeCell ref="D1106:E1106"/>
-    <mergeCell ref="H1106:K1106"/>
-    <mergeCell ref="H1107:K1108"/>
-    <mergeCell ref="H534:K535"/>
-    <mergeCell ref="J255:K255"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="J257:K257"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="J260:K260"/>
-    <mergeCell ref="J640:K640"/>
-    <mergeCell ref="J641:K641"/>
-    <mergeCell ref="J644:K644"/>
-    <mergeCell ref="J645:K645"/>
-    <mergeCell ref="J675:K675"/>
-    <mergeCell ref="J677:K677"/>
-    <mergeCell ref="J293:K293"/>
-    <mergeCell ref="J294:K294"/>
-    <mergeCell ref="J295:K295"/>
-    <mergeCell ref="J297:K297"/>
-    <mergeCell ref="J298:K298"/>
-    <mergeCell ref="J559:K559"/>
-    <mergeCell ref="J560:K560"/>
-    <mergeCell ref="J409:K409"/>
-    <mergeCell ref="J333:K333"/>
-    <mergeCell ref="J335:K335"/>
-    <mergeCell ref="J336:K336"/>
-    <mergeCell ref="H458:K459"/>
-    <mergeCell ref="J332:K332"/>
-    <mergeCell ref="H382:K383"/>
-    <mergeCell ref="J487:K487"/>
-    <mergeCell ref="J488:K488"/>
-    <mergeCell ref="J189:K189"/>
-    <mergeCell ref="H192:K193"/>
-    <mergeCell ref="J223:K223"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="D270:E270"/>
-    <mergeCell ref="H270:K270"/>
-    <mergeCell ref="H271:K272"/>
-    <mergeCell ref="F231:F233"/>
-    <mergeCell ref="D232:E232"/>
-    <mergeCell ref="H232:K232"/>
-    <mergeCell ref="H233:K234"/>
-    <mergeCell ref="H230:K231"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="F269:F271"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="J142:K142"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="H154:K155"/>
-    <mergeCell ref="J185:K185"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="H116:K117"/>
-    <mergeCell ref="J141:K141"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="F193:F195"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="H194:K194"/>
-    <mergeCell ref="H195:K196"/>
-    <mergeCell ref="F155:F157"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="H156:K156"/>
-    <mergeCell ref="H157:K158"/>
-    <mergeCell ref="J179:K179"/>
-    <mergeCell ref="J180:K180"/>
-    <mergeCell ref="J181:K181"/>
-    <mergeCell ref="J183:K183"/>
-    <mergeCell ref="J184:K184"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="H118:K118"/>
-    <mergeCell ref="H119:K120"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="H81:K82"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="D460:E460"/>
-    <mergeCell ref="H460:K460"/>
-    <mergeCell ref="H461:K462"/>
-    <mergeCell ref="J483:K483"/>
-    <mergeCell ref="J484:K484"/>
-    <mergeCell ref="J485:K485"/>
-    <mergeCell ref="D574:E574"/>
-    <mergeCell ref="H574:K574"/>
-    <mergeCell ref="F459:F461"/>
-    <mergeCell ref="F535:F537"/>
-    <mergeCell ref="F497:F499"/>
-    <mergeCell ref="D498:E498"/>
-    <mergeCell ref="H498:K498"/>
-    <mergeCell ref="H499:K500"/>
-    <mergeCell ref="J531:K531"/>
-    <mergeCell ref="J521:K521"/>
-    <mergeCell ref="J522:K522"/>
-    <mergeCell ref="J523:K523"/>
-    <mergeCell ref="J525:K525"/>
-    <mergeCell ref="J526:K526"/>
-    <mergeCell ref="J527:K527"/>
-    <mergeCell ref="J530:K530"/>
-    <mergeCell ref="D536:E536"/>
-    <mergeCell ref="J493:K493"/>
-    <mergeCell ref="F573:F575"/>
-    <mergeCell ref="H686:K687"/>
-    <mergeCell ref="D688:E688"/>
-    <mergeCell ref="H688:K688"/>
-    <mergeCell ref="H689:K690"/>
-    <mergeCell ref="J607:K607"/>
-    <mergeCell ref="J597:K597"/>
-    <mergeCell ref="J598:K598"/>
-    <mergeCell ref="J599:K599"/>
-    <mergeCell ref="J601:K601"/>
-    <mergeCell ref="J602:K602"/>
-    <mergeCell ref="J606:K606"/>
-    <mergeCell ref="F687:F689"/>
-    <mergeCell ref="J639:K639"/>
-    <mergeCell ref="J678:K678"/>
-    <mergeCell ref="J682:K682"/>
-    <mergeCell ref="H651:K652"/>
-    <mergeCell ref="J603:K603"/>
-    <mergeCell ref="J792:K792"/>
-    <mergeCell ref="J793:K793"/>
-    <mergeCell ref="J796:K796"/>
-    <mergeCell ref="D726:E726"/>
-    <mergeCell ref="H726:K726"/>
-    <mergeCell ref="H727:K728"/>
-    <mergeCell ref="F611:F613"/>
-    <mergeCell ref="D612:E612"/>
-    <mergeCell ref="H612:K612"/>
-    <mergeCell ref="H613:K614"/>
-    <mergeCell ref="J635:K635"/>
-    <mergeCell ref="J636:K636"/>
-    <mergeCell ref="J637:K637"/>
-    <mergeCell ref="H648:K649"/>
-    <mergeCell ref="F649:F651"/>
-    <mergeCell ref="D650:E650"/>
-    <mergeCell ref="H650:K650"/>
-    <mergeCell ref="J715:K715"/>
-    <mergeCell ref="J716:K716"/>
-    <mergeCell ref="J717:K717"/>
-    <mergeCell ref="J945:K945"/>
-    <mergeCell ref="J948:K948"/>
-    <mergeCell ref="D802:E802"/>
-    <mergeCell ref="H802:K802"/>
-    <mergeCell ref="H803:K804"/>
-    <mergeCell ref="J826:K826"/>
-    <mergeCell ref="J827:K827"/>
-    <mergeCell ref="J829:K829"/>
-    <mergeCell ref="J750:K750"/>
-    <mergeCell ref="J754:K754"/>
-    <mergeCell ref="J755:K755"/>
-    <mergeCell ref="J758:K758"/>
-    <mergeCell ref="J759:K759"/>
-    <mergeCell ref="H762:K763"/>
-    <mergeCell ref="F763:F765"/>
-    <mergeCell ref="D764:E764"/>
-    <mergeCell ref="H764:K764"/>
-    <mergeCell ref="H765:K766"/>
-    <mergeCell ref="J751:K751"/>
-    <mergeCell ref="J753:K753"/>
-    <mergeCell ref="J787:K787"/>
-    <mergeCell ref="J788:K788"/>
-    <mergeCell ref="J789:K789"/>
-    <mergeCell ref="J791:K791"/>
-    <mergeCell ref="F877:F879"/>
-    <mergeCell ref="D878:E878"/>
-    <mergeCell ref="H878:K878"/>
-    <mergeCell ref="H879:K880"/>
-    <mergeCell ref="J835:K835"/>
-    <mergeCell ref="H838:K839"/>
-    <mergeCell ref="F839:F841"/>
-    <mergeCell ref="D840:E840"/>
-    <mergeCell ref="H840:K840"/>
-    <mergeCell ref="H841:K842"/>
-    <mergeCell ref="J863:K863"/>
-    <mergeCell ref="J864:K864"/>
-    <mergeCell ref="J865:K865"/>
-    <mergeCell ref="J1059:K1059"/>
-    <mergeCell ref="J1015:K1015"/>
-    <mergeCell ref="J1016:K1016"/>
-    <mergeCell ref="J1017:K1017"/>
-    <mergeCell ref="F953:F955"/>
-    <mergeCell ref="D954:E954"/>
-    <mergeCell ref="H954:K954"/>
-    <mergeCell ref="H955:K956"/>
-    <mergeCell ref="J907:K907"/>
-    <mergeCell ref="J910:K910"/>
-    <mergeCell ref="J911:K911"/>
-    <mergeCell ref="H914:K915"/>
-    <mergeCell ref="F915:F917"/>
-    <mergeCell ref="D916:E916"/>
-    <mergeCell ref="H916:K916"/>
-    <mergeCell ref="H917:K918"/>
-    <mergeCell ref="J939:K939"/>
-    <mergeCell ref="J979:K979"/>
-    <mergeCell ref="J981:K981"/>
-    <mergeCell ref="J982:K982"/>
-    <mergeCell ref="J983:K983"/>
-    <mergeCell ref="J978:K978"/>
-    <mergeCell ref="J943:K943"/>
-    <mergeCell ref="J944:K944"/>
-    <mergeCell ref="D1258:E1258"/>
-    <mergeCell ref="H1258:K1258"/>
-    <mergeCell ref="H1259:K1260"/>
-    <mergeCell ref="J1323:K1323"/>
-    <mergeCell ref="J1324:K1324"/>
-    <mergeCell ref="J1325:K1325"/>
-    <mergeCell ref="F991:F993"/>
-    <mergeCell ref="D992:E992"/>
-    <mergeCell ref="H992:K992"/>
-    <mergeCell ref="H993:K994"/>
-    <mergeCell ref="J1025:K1025"/>
-    <mergeCell ref="H1028:K1029"/>
-    <mergeCell ref="F1067:F1069"/>
-    <mergeCell ref="D1068:E1068"/>
-    <mergeCell ref="H1068:K1068"/>
-    <mergeCell ref="H1069:K1070"/>
-    <mergeCell ref="J1019:K1019"/>
-    <mergeCell ref="J1020:K1020"/>
-    <mergeCell ref="J1021:K1021"/>
-    <mergeCell ref="J1024:K1024"/>
-    <mergeCell ref="D1030:E1030"/>
-    <mergeCell ref="J1062:K1062"/>
-    <mergeCell ref="J1063:K1063"/>
-    <mergeCell ref="H1066:K1067"/>
-    <mergeCell ref="D1448:E1448"/>
-    <mergeCell ref="H1448:K1448"/>
-    <mergeCell ref="H1449:K1450"/>
-    <mergeCell ref="D1334:E1334"/>
-    <mergeCell ref="H1334:K1334"/>
-    <mergeCell ref="H1335:K1336"/>
-    <mergeCell ref="J1357:K1357"/>
-    <mergeCell ref="J1358:K1358"/>
-    <mergeCell ref="J1362:K1362"/>
-    <mergeCell ref="J1366:K1366"/>
-    <mergeCell ref="J1367:K1367"/>
-    <mergeCell ref="J1404:K1404"/>
-    <mergeCell ref="J1433:K1433"/>
-    <mergeCell ref="J1396:K1396"/>
-    <mergeCell ref="J1359:K1359"/>
-    <mergeCell ref="J1361:K1361"/>
-    <mergeCell ref="J1397:K1397"/>
-    <mergeCell ref="J1399:K1399"/>
-    <mergeCell ref="J1400:K1400"/>
-    <mergeCell ref="J1401:K1401"/>
-    <mergeCell ref="J1405:K1405"/>
-    <mergeCell ref="H1408:K1409"/>
-    <mergeCell ref="F1409:F1411"/>
-    <mergeCell ref="D1410:E1410"/>
-    <mergeCell ref="J1133:K1133"/>
-    <mergeCell ref="H1218:K1219"/>
-    <mergeCell ref="J1434:K1434"/>
-    <mergeCell ref="J1438:K1438"/>
-    <mergeCell ref="J1439:K1439"/>
-    <mergeCell ref="J1442:K1442"/>
-    <mergeCell ref="J1443:K1443"/>
-    <mergeCell ref="H1446:K1447"/>
-    <mergeCell ref="F1447:F1449"/>
-    <mergeCell ref="H1256:K1257"/>
-    <mergeCell ref="F1257:F1259"/>
-    <mergeCell ref="H1410:K1410"/>
-    <mergeCell ref="J1328:K1328"/>
-    <mergeCell ref="J1329:K1329"/>
-    <mergeCell ref="J1319:K1319"/>
-    <mergeCell ref="J1320:K1320"/>
-    <mergeCell ref="J1321:K1321"/>
-    <mergeCell ref="H1332:K1333"/>
-    <mergeCell ref="F1333:F1335"/>
-    <mergeCell ref="J1363:K1363"/>
-    <mergeCell ref="H1370:K1371"/>
-    <mergeCell ref="F1371:F1373"/>
-    <mergeCell ref="J1282:K1282"/>
-    <mergeCell ref="J1283:K1283"/>
   </mergeCells>
   <pageMargins left="0.12" right="0.12" top="0.14000000000000001" bottom="6.6" header="0.12" footer="0.3"/>
   <pageSetup paperSize="14" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
